--- a/data-raw/xlsx/base_ugrhi.xlsx
+++ b/data-raw/xlsx/base_ugrhi.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,6 +388,21 @@
           <t>iva</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>iqa_label</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>iap_label</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>iva_label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -406,10 +421,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>48.79537400513156</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>4.766666666666667</v>
+        <v>4.8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -429,10 +459,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>48.76500053617646</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>2.075</v>
+        <v>2.1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -452,10 +497,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>48.09200370000001</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>2.45</v>
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -475,11 +535,26 @@
         </is>
       </c>
       <c r="D5">
-        <v>50.88207356416667</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>3.2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -498,10 +573,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>54.96891737541667</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>4.075</v>
+        <v>4.1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -521,10 +611,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>51.94509629625</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>3.55</v>
+        <v>3.6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -544,10 +649,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>55.79875</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>3.5375</v>
+        <v>3.5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -567,10 +687,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>57.88166666666667</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>3.283333333333333</v>
+        <v>3.3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -590,11 +725,26 @@
         </is>
       </c>
       <c r="D10">
-        <v>59.49375</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <v>3.8</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -613,13 +763,28 @@
         </is>
       </c>
       <c r="D11">
-        <v>58.959</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>63.7975</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>3.21</v>
+        <v>3.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -639,13 +804,28 @@
         </is>
       </c>
       <c r="D12">
-        <v>68.8002517273522</v>
+        <v>69</v>
       </c>
       <c r="E12">
-        <v>57.39080321590072</v>
+        <v>57</v>
       </c>
       <c r="F12">
-        <v>3.258148148148148</v>
+        <v>3.3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -665,13 +845,28 @@
         </is>
       </c>
       <c r="D13">
-        <v>65.49977256704425</v>
+        <v>65</v>
       </c>
       <c r="E13">
-        <v>53.29574485111111</v>
+        <v>53</v>
       </c>
       <c r="F13">
-        <v>2.509259259259259</v>
+        <v>2.5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -691,13 +886,28 @@
         </is>
       </c>
       <c r="D14">
-        <v>66.74005449934782</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>54.45725117993995</v>
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>2.598809523809524</v>
+        <v>2.6</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -717,13 +927,28 @@
         </is>
       </c>
       <c r="D15">
-        <v>66.8121637931884</v>
+        <v>67</v>
       </c>
       <c r="E15">
-        <v>49.05866771305556</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>2.525724637681159</v>
+        <v>2.5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -743,13 +968,28 @@
         </is>
       </c>
       <c r="D16">
-        <v>68.55727270347826</v>
+        <v>69</v>
       </c>
       <c r="E16">
-        <v>59.20880128111111</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>3.210869565217391</v>
+        <v>3.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -769,13 +1009,28 @@
         </is>
       </c>
       <c r="D17">
-        <v>62.80077739033333</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>54.06657461805555</v>
+        <v>54</v>
       </c>
       <c r="F17">
-        <v>3.409615384615385</v>
+        <v>3.4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -795,13 +1050,28 @@
         </is>
       </c>
       <c r="D18">
-        <v>63.57564367816092</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>53.425</v>
+        <v>53</v>
       </c>
       <c r="F18">
-        <v>3.418214285714286</v>
+        <v>3.4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -821,13 +1091,28 @@
         </is>
       </c>
       <c r="D19">
-        <v>65.31152298850574</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>57.47972222222222</v>
+        <v>57</v>
       </c>
       <c r="F19">
-        <v>3.121428571428571</v>
+        <v>3.1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -847,13 +1132,28 @@
         </is>
       </c>
       <c r="D20">
-        <v>64.93826666666666</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>49.95831481481481</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>3.388095238095238</v>
+        <v>3.4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -873,13 +1173,28 @@
         </is>
       </c>
       <c r="D21">
-        <v>63.98688172043011</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>52.45527777777777</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <v>3.362068965517242</v>
+        <v>3.4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -899,13 +1214,28 @@
         </is>
       </c>
       <c r="D22">
-        <v>66.5130857439554</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>69.53313313370941</v>
+        <v>70</v>
       </c>
       <c r="F22">
-        <v>3.495238095238095</v>
+        <v>3.5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -925,13 +1255,28 @@
         </is>
       </c>
       <c r="D23">
-        <v>63.3647943465331</v>
+        <v>63</v>
       </c>
       <c r="E23">
-        <v>48.540732055625</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>2.807142857142857</v>
+        <v>2.8</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -951,13 +1296,28 @@
         </is>
       </c>
       <c r="D24">
-        <v>61.81052595777778</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>71.7435097815588</v>
+        <v>72</v>
       </c>
       <c r="F24">
-        <v>3.025</v>
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -977,13 +1337,28 @@
         </is>
       </c>
       <c r="D25">
-        <v>64.19136609531184</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>75.529807840625</v>
+        <v>76</v>
       </c>
       <c r="F25">
-        <v>2.953571428571428</v>
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1003,13 +1378,28 @@
         </is>
       </c>
       <c r="D26">
-        <v>65.37961436991398</v>
+        <v>65</v>
       </c>
       <c r="E26">
-        <v>61.04365814875</v>
+        <v>61</v>
       </c>
       <c r="F26">
-        <v>3.379166666666667</v>
+        <v>3.4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1029,13 +1419,28 @@
         </is>
       </c>
       <c r="D27">
-        <v>62.70611272319355</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>70.08744535125</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>3.141666666666667</v>
+        <v>3.1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1055,13 +1460,28 @@
         </is>
       </c>
       <c r="D28">
-        <v>64.72120430107528</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>72.86812500000001</v>
+        <v>73</v>
       </c>
       <c r="F28">
-        <v>2.874305555555555</v>
+        <v>2.9</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1081,13 +1501,28 @@
         </is>
       </c>
       <c r="D29">
-        <v>63.73231182795699</v>
+        <v>64</v>
       </c>
       <c r="E29">
-        <v>65.07375000000003</v>
+        <v>65</v>
       </c>
       <c r="F29">
-        <v>3.345833333333334</v>
+        <v>3.3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1107,13 +1542,28 @@
         </is>
       </c>
       <c r="D30">
-        <v>64.00220430107527</v>
+        <v>64</v>
       </c>
       <c r="E30">
-        <v>68.44770833333334</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>3.108333333333333</v>
+        <v>3.1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1133,13 +1583,28 @@
         </is>
       </c>
       <c r="D31">
-        <v>64.52996774193548</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>63.03</v>
+        <v>63</v>
       </c>
       <c r="F31">
-        <v>3.075</v>
+        <v>3.1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1159,10 +1624,25 @@
         </is>
       </c>
       <c r="D32">
-        <v>67.85992254722206</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>2.9625</v>
+        <v>3</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1182,11 +1662,26 @@
         </is>
       </c>
       <c r="D33">
-        <v>61.72736391937596</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>2.4</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1205,10 +1700,25 @@
         </is>
       </c>
       <c r="D34">
-        <v>59.98099643888889</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>2.4875</v>
+        <v>2.5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1228,10 +1738,25 @@
         </is>
       </c>
       <c r="D35">
-        <v>59.70446487144444</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>2.75</v>
+        <v>2.8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1251,10 +1776,25 @@
         </is>
       </c>
       <c r="D36">
-        <v>58.60309326666667</v>
+        <v>59</v>
       </c>
       <c r="F36">
-        <v>3.84</v>
+        <v>3.8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1274,10 +1814,25 @@
         </is>
       </c>
       <c r="D37">
-        <v>59.528219965</v>
+        <v>60</v>
       </c>
       <c r="F37">
-        <v>3.78</v>
+        <v>3.8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1297,10 +1852,25 @@
         </is>
       </c>
       <c r="D38">
-        <v>61.93741666666666</v>
+        <v>62</v>
       </c>
       <c r="F38">
-        <v>3.372222222222222</v>
+        <v>3.4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1320,10 +1890,25 @@
         </is>
       </c>
       <c r="D39">
-        <v>59.558</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>3.363333333333333</v>
+        <v>3.4</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1343,11 +1928,26 @@
         </is>
       </c>
       <c r="D40">
-        <v>61.54545454545455</v>
+        <v>62</v>
       </c>
       <c r="F40">
         <v>3.4</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1366,10 +1966,25 @@
         </is>
       </c>
       <c r="D41">
-        <v>60.80004329004329</v>
+        <v>61</v>
       </c>
       <c r="F41">
-        <v>3.515</v>
+        <v>3.5</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1389,13 +2004,28 @@
         </is>
       </c>
       <c r="D42">
-        <v>48.57682062683057</v>
+        <v>49</v>
       </c>
       <c r="E42">
-        <v>44.21459455284535</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>4.844285714285714</v>
+        <v>4.8</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1415,13 +2045,28 @@
         </is>
       </c>
       <c r="D43">
-        <v>50.58666524559769</v>
+        <v>51</v>
       </c>
       <c r="E43">
-        <v>42.46730426225695</v>
+        <v>42</v>
       </c>
       <c r="F43">
-        <v>3.632456140350877</v>
+        <v>3.6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1441,13 +2086,28 @@
         </is>
       </c>
       <c r="D44">
-        <v>52.50912366143863</v>
+        <v>53</v>
       </c>
       <c r="E44">
-        <v>52.13692193538476</v>
+        <v>52</v>
       </c>
       <c r="F44">
-        <v>3.424561403508772</v>
+        <v>3.4</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1467,13 +2127,28 @@
         </is>
       </c>
       <c r="D45">
-        <v>50.33846164484127</v>
+        <v>50</v>
       </c>
       <c r="E45">
-        <v>46.70350071819445</v>
+        <v>47</v>
       </c>
       <c r="F45">
-        <v>3.862268518518519</v>
+        <v>3.9</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1493,13 +2168,28 @@
         </is>
       </c>
       <c r="D46">
-        <v>48.92440213493349</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>52.58701599563095</v>
+        <v>53</v>
       </c>
       <c r="F46">
-        <v>5.325054869684499</v>
+        <v>5.3</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1519,13 +2209,28 @@
         </is>
       </c>
       <c r="D47">
-        <v>50.34055474582724</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>46.98674988720238</v>
+        <v>47</v>
       </c>
       <c r="F47">
-        <v>4.7162639048715</v>
+        <v>4.7</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1545,13 +2250,28 @@
         </is>
       </c>
       <c r="D48">
-        <v>53.60409108527132</v>
+        <v>54</v>
       </c>
       <c r="E48">
-        <v>51.36088690476191</v>
+        <v>51</v>
       </c>
       <c r="F48">
-        <v>3.97923076923077</v>
+        <v>4</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1571,13 +2291,28 @@
         </is>
       </c>
       <c r="D49">
-        <v>54.08465909090909</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>50.54372023809524</v>
+        <v>51</v>
       </c>
       <c r="F49">
-        <v>3.917721518987342</v>
+        <v>3.9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1597,13 +2332,28 @@
         </is>
       </c>
       <c r="D50">
-        <v>53.38914285714286</v>
+        <v>53</v>
       </c>
       <c r="E50">
-        <v>52.14095238095238</v>
+        <v>52</v>
       </c>
       <c r="F50">
-        <v>4.223839662447258</v>
+        <v>4.2</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1623,13 +2373,28 @@
         </is>
       </c>
       <c r="D51">
-        <v>52.78775405546834</v>
+        <v>53</v>
       </c>
       <c r="E51">
-        <v>43.44354166666667</v>
+        <v>43</v>
       </c>
       <c r="F51">
-        <v>4.279746835443039</v>
+        <v>4.3</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1649,13 +2414,28 @@
         </is>
       </c>
       <c r="D52">
-        <v>46.06888182360389</v>
+        <v>46</v>
       </c>
       <c r="E52">
-        <v>56.85890612659389</v>
+        <v>57</v>
       </c>
       <c r="F52">
-        <v>5.326236559139785</v>
+        <v>5.3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1675,13 +2455,28 @@
         </is>
       </c>
       <c r="D53">
-        <v>46.05698862558982</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>52.10023644076389</v>
+        <v>52</v>
       </c>
       <c r="F53">
-        <v>4.370512820512821</v>
+        <v>4.4</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1701,13 +2496,28 @@
         </is>
       </c>
       <c r="D54">
-        <v>41.41546677446175</v>
+        <v>41</v>
       </c>
       <c r="E54">
-        <v>54.80459877748004</v>
+        <v>55</v>
       </c>
       <c r="F54">
-        <v>3.938141025641026</v>
+        <v>3.9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1727,13 +2537,28 @@
         </is>
       </c>
       <c r="D55">
-        <v>40.75512364076075</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>54.771350695</v>
+        <v>55</v>
       </c>
       <c r="F55">
-        <v>5.631531531531532</v>
+        <v>5.6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1753,13 +2578,28 @@
         </is>
       </c>
       <c r="D56">
-        <v>37.84895941220513</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>53.21862858831044</v>
+        <v>53</v>
       </c>
       <c r="F56">
-        <v>6.060130718954248</v>
+        <v>6.1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1779,13 +2619,28 @@
         </is>
       </c>
       <c r="D57">
-        <v>38.94547115666414</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>36.68245012562374</v>
+        <v>37</v>
       </c>
       <c r="F57">
-        <v>6.102692307692307</v>
+        <v>6.1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1805,13 +2660,28 @@
         </is>
       </c>
       <c r="D58">
-        <v>40.76140957868423</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>48.50270231729056</v>
+        <v>49</v>
       </c>
       <c r="F58">
-        <v>5.390196969696969</v>
+        <v>5.4</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1831,13 +2701,28 @@
         </is>
       </c>
       <c r="D59">
-        <v>41.28175437473325</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>46.9431274509804</v>
+        <v>47</v>
       </c>
       <c r="F59">
-        <v>4.94992628992629</v>
+        <v>4.9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1857,13 +2742,28 @@
         </is>
       </c>
       <c r="D60">
-        <v>40.05053521126761</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>46.28844444444444</v>
+        <v>46</v>
       </c>
       <c r="F60">
-        <v>5.398198198198198</v>
+        <v>5.4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1883,13 +2783,28 @@
         </is>
       </c>
       <c r="D61">
-        <v>40.37427905770029</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>43.30325</v>
+        <v>43</v>
       </c>
       <c r="F61">
-        <v>5.119054054054054</v>
+        <v>5.1</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1909,13 +2824,28 @@
         </is>
       </c>
       <c r="D62">
-        <v>58.30177507598535</v>
+        <v>58</v>
       </c>
       <c r="E62">
-        <v>55.03236761841264</v>
+        <v>55</v>
       </c>
       <c r="F62">
-        <v>4.932380952380952</v>
+        <v>4.9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1935,13 +2865,28 @@
         </is>
       </c>
       <c r="D63">
-        <v>61.68858319077085</v>
+        <v>62</v>
       </c>
       <c r="E63">
-        <v>53.15022966291667</v>
+        <v>53</v>
       </c>
       <c r="F63">
-        <v>2.72</v>
+        <v>2.7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1961,13 +2906,28 @@
         </is>
       </c>
       <c r="D64">
-        <v>61.25661592539851</v>
+        <v>61</v>
       </c>
       <c r="E64">
-        <v>55.28006453309354</v>
+        <v>55</v>
       </c>
       <c r="F64">
-        <v>4.066666666666666</v>
+        <v>4.1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1987,13 +2947,28 @@
         </is>
       </c>
       <c r="D65">
-        <v>59.62514576138542</v>
+        <v>60</v>
       </c>
       <c r="E65">
-        <v>53.143629046875</v>
+        <v>53</v>
       </c>
       <c r="F65">
-        <v>4.365625</v>
+        <v>4.4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2013,13 +2988,28 @@
         </is>
       </c>
       <c r="D66">
-        <v>58.98300872010417</v>
+        <v>59</v>
       </c>
       <c r="E66">
-        <v>59.55029188145834</v>
+        <v>60</v>
       </c>
       <c r="F66">
-        <v>4.78125</v>
+        <v>4.8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2039,13 +3029,28 @@
         </is>
       </c>
       <c r="D67">
-        <v>56.34588398104167</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>53.18599307875</v>
+        <v>53</v>
       </c>
       <c r="F67">
-        <v>4.740625</v>
+        <v>4.7</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2065,13 +3070,28 @@
         </is>
       </c>
       <c r="D68">
-        <v>54.24</v>
+        <v>54</v>
       </c>
       <c r="E68">
-        <v>58.31875</v>
+        <v>58</v>
       </c>
       <c r="F68">
-        <v>3.84375</v>
+        <v>3.8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2091,13 +3111,28 @@
         </is>
       </c>
       <c r="D69">
-        <v>56.10236842105263</v>
+        <v>56</v>
       </c>
       <c r="E69">
-        <v>54.45350000000002</v>
+        <v>54</v>
       </c>
       <c r="F69">
-        <v>3.988888888888889</v>
+        <v>4</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2117,13 +3152,28 @@
         </is>
       </c>
       <c r="D70">
-        <v>56.99377192982456</v>
+        <v>57</v>
       </c>
       <c r="E70">
-        <v>53.6105</v>
+        <v>54</v>
       </c>
       <c r="F70">
-        <v>4.238888888888889</v>
+        <v>4.2</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2143,13 +3193,28 @@
         </is>
       </c>
       <c r="D71">
-        <v>57.03326315789474</v>
+        <v>57</v>
       </c>
       <c r="E71">
-        <v>52.968</v>
+        <v>53</v>
       </c>
       <c r="F71">
-        <v>3.875925925925926</v>
+        <v>3.9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2169,10 +3234,25 @@
         </is>
       </c>
       <c r="D72">
-        <v>62.34115423256645</v>
+        <v>62</v>
       </c>
       <c r="F72">
-        <v>3.22</v>
+        <v>3.2</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2192,10 +3272,25 @@
         </is>
       </c>
       <c r="D73">
-        <v>68.21993298289176</v>
+        <v>68</v>
       </c>
       <c r="F73">
-        <v>2.488888888888889</v>
+        <v>2.5</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2215,10 +3310,25 @@
         </is>
       </c>
       <c r="D74">
-        <v>67.97477837134615</v>
+        <v>68</v>
       </c>
       <c r="F74">
-        <v>2.230555555555556</v>
+        <v>2.2</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2238,10 +3348,25 @@
         </is>
       </c>
       <c r="D75">
-        <v>63.93431447551282</v>
+        <v>64</v>
       </c>
       <c r="F75">
-        <v>2.390625</v>
+        <v>2.4</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2261,10 +3386,25 @@
         </is>
       </c>
       <c r="D76">
-        <v>65.05601036358973</v>
+        <v>65</v>
       </c>
       <c r="F76">
-        <v>3.296153846153846</v>
+        <v>3.3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2284,10 +3424,25 @@
         </is>
       </c>
       <c r="D77">
-        <v>66.53392821838095</v>
+        <v>67</v>
       </c>
       <c r="F77">
-        <v>3.267307692307692</v>
+        <v>3.3</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2307,10 +3462,25 @@
         </is>
       </c>
       <c r="D78">
-        <v>63.40395833333334</v>
+        <v>63</v>
       </c>
       <c r="F78">
-        <v>3.101923076923077</v>
+        <v>3.1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2330,10 +3500,25 @@
         </is>
       </c>
       <c r="D79">
-        <v>64.40010416666667</v>
+        <v>64</v>
       </c>
       <c r="F79">
-        <v>3.055128205128205</v>
+        <v>3.1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2353,13 +3538,28 @@
         </is>
       </c>
       <c r="D80">
-        <v>66.15539215686275</v>
+        <v>66</v>
       </c>
       <c r="E80">
-        <v>69.10666666666667</v>
+        <v>69</v>
       </c>
       <c r="F80">
-        <v>3.001190476190476</v>
+        <v>3</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2379,13 +3579,28 @@
         </is>
       </c>
       <c r="D81">
-        <v>62.61705882352941</v>
+        <v>63</v>
       </c>
       <c r="E81">
-        <v>65.2925</v>
+        <v>65</v>
       </c>
       <c r="F81">
-        <v>3.401190476190476</v>
+        <v>3.4</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2405,13 +3620,28 @@
         </is>
       </c>
       <c r="D82">
-        <v>57.63868336353861</v>
+        <v>58</v>
       </c>
       <c r="E82">
-        <v>64.89758990929479</v>
+        <v>65</v>
       </c>
       <c r="F82">
-        <v>3.855333333333334</v>
+        <v>3.9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2431,13 +3661,28 @@
         </is>
       </c>
       <c r="D83">
-        <v>60.53829962136366</v>
+        <v>61</v>
       </c>
       <c r="E83">
-        <v>60.69753984583333</v>
+        <v>61</v>
       </c>
       <c r="F83">
-        <v>2.875333333333333</v>
+        <v>2.9</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2457,13 +3702,28 @@
         </is>
       </c>
       <c r="D84">
-        <v>57.12488616786869</v>
+        <v>57</v>
       </c>
       <c r="E84">
-        <v>57.2298165176317</v>
+        <v>57</v>
       </c>
       <c r="F84">
-        <v>3.399166666666666</v>
+        <v>3.4</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2483,13 +3743,28 @@
         </is>
       </c>
       <c r="D85">
-        <v>59.46722295357844</v>
+        <v>59</v>
       </c>
       <c r="E85">
-        <v>45.79322675194445</v>
+        <v>46</v>
       </c>
       <c r="F85">
-        <v>3.157070707070707</v>
+        <v>3.2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2509,13 +3784,28 @@
         </is>
       </c>
       <c r="D86">
-        <v>59.85230394761765</v>
+        <v>60</v>
       </c>
       <c r="E86">
-        <v>59.637440585</v>
+        <v>60</v>
       </c>
       <c r="F86">
-        <v>4.417424242424243</v>
+        <v>4.4</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2535,13 +3825,28 @@
         </is>
       </c>
       <c r="D87">
-        <v>59.05035522287037</v>
+        <v>59</v>
       </c>
       <c r="E87">
-        <v>52.836558549375</v>
+        <v>53</v>
       </c>
       <c r="F87">
-        <v>3.953571428571429</v>
+        <v>4</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2561,13 +3866,28 @@
         </is>
       </c>
       <c r="D88">
-        <v>60.15962037037037</v>
+        <v>60</v>
       </c>
       <c r="E88">
-        <v>48.245</v>
+        <v>48</v>
       </c>
       <c r="F88">
-        <v>3.536904761904762</v>
+        <v>3.5</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2587,13 +3907,28 @@
         </is>
       </c>
       <c r="D89">
-        <v>59.47</v>
+        <v>59</v>
       </c>
       <c r="E89">
-        <v>54.83166666666666</v>
+        <v>55</v>
       </c>
       <c r="F89">
-        <v>3.647619047619048</v>
+        <v>3.6</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2613,13 +3948,28 @@
         </is>
       </c>
       <c r="D90">
-        <v>59.75931481481481</v>
+        <v>60</v>
       </c>
       <c r="E90">
-        <v>46.745625</v>
+        <v>47</v>
       </c>
       <c r="F90">
-        <v>3.70952380952381</v>
+        <v>3.7</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -2639,13 +3989,28 @@
         </is>
       </c>
       <c r="D91">
-        <v>58.06705026455026</v>
+        <v>58</v>
       </c>
       <c r="E91">
-        <v>50.26866666666667</v>
+        <v>50</v>
       </c>
       <c r="F91">
-        <v>3.651428571428572</v>
+        <v>3.7</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2665,13 +4030,28 @@
         </is>
       </c>
       <c r="D92">
-        <v>52.06843671413672</v>
+        <v>52</v>
       </c>
       <c r="E92">
-        <v>51.53581248968945</v>
+        <v>52</v>
       </c>
       <c r="F92">
-        <v>5.328947368421053</v>
+        <v>5.3</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -2691,13 +4071,28 @@
         </is>
       </c>
       <c r="D93">
-        <v>53.12170816690407</v>
+        <v>53</v>
       </c>
       <c r="E93">
-        <v>45.31664037847222</v>
+        <v>45</v>
       </c>
       <c r="F93">
-        <v>4.66359649122807</v>
+        <v>4.7</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2717,13 +4112,28 @@
         </is>
       </c>
       <c r="D94">
-        <v>56.11571351238889</v>
+        <v>56</v>
       </c>
       <c r="E94">
-        <v>46.29716277111111</v>
+        <v>46</v>
       </c>
       <c r="F94">
-        <v>4.672368421052632</v>
+        <v>4.7</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -2743,13 +4153,28 @@
         </is>
       </c>
       <c r="D95">
-        <v>54.3024088485625</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>42.831662235</v>
+        <v>43</v>
       </c>
       <c r="F95">
-        <v>4.618333333333333</v>
+        <v>4.6</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -2769,13 +4194,28 @@
         </is>
       </c>
       <c r="D96">
-        <v>50.62560570140278</v>
+        <v>51</v>
       </c>
       <c r="E96">
-        <v>46.58864575986111</v>
+        <v>47</v>
       </c>
       <c r="F96">
-        <v>5.297807017543859</v>
+        <v>5.3</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -2795,13 +4235,28 @@
         </is>
       </c>
       <c r="D97">
-        <v>51.7859029566</v>
+        <v>52</v>
       </c>
       <c r="E97">
-        <v>33.4485019672619</v>
+        <v>33</v>
       </c>
       <c r="F97">
-        <v>4.885833333333333</v>
+        <v>4.9</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -2821,13 +4276,28 @@
         </is>
       </c>
       <c r="D98">
-        <v>56.11153333333333</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>49.25821428571428</v>
+        <v>49</v>
       </c>
       <c r="F98">
-        <v>4.181666666666667</v>
+        <v>4.2</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -2847,13 +4317,28 @@
         </is>
       </c>
       <c r="D99">
-        <v>57.65608641975309</v>
+        <v>58</v>
       </c>
       <c r="E99">
-        <v>43.174375</v>
+        <v>43</v>
       </c>
       <c r="F99">
-        <v>4.289285714285715</v>
+        <v>4.3</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -2873,13 +4358,28 @@
         </is>
       </c>
       <c r="D100">
-        <v>54.86844047619048</v>
+        <v>55</v>
       </c>
       <c r="E100">
-        <v>44.860625</v>
+        <v>45</v>
       </c>
       <c r="F100">
-        <v>4.772619047619048</v>
+        <v>4.8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -2899,13 +4399,28 @@
         </is>
       </c>
       <c r="D101">
-        <v>55.62108333333333</v>
+        <v>56</v>
       </c>
       <c r="E101">
-        <v>31.32947916666667</v>
+        <v>31</v>
       </c>
       <c r="F101">
-        <v>4.867803030303031</v>
+        <v>4.9</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -2925,10 +4440,25 @@
         </is>
       </c>
       <c r="D102">
-        <v>57.12678674537273</v>
+        <v>57</v>
       </c>
       <c r="F102">
-        <v>4.4825</v>
+        <v>4.5</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -2948,10 +4478,25 @@
         </is>
       </c>
       <c r="D103">
-        <v>65.79623675507082</v>
+        <v>66</v>
       </c>
       <c r="F103">
-        <v>2.314285714285715</v>
+        <v>2.3</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -2971,10 +4516,25 @@
         </is>
       </c>
       <c r="D104">
-        <v>65.39488789818182</v>
+        <v>65</v>
       </c>
       <c r="F104">
-        <v>3.002380952380952</v>
+        <v>3</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -2994,10 +4554,25 @@
         </is>
       </c>
       <c r="D105">
-        <v>65.04510764581818</v>
+        <v>65</v>
       </c>
       <c r="F105">
-        <v>2.8725</v>
+        <v>2.9</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3017,13 +4592,28 @@
         </is>
       </c>
       <c r="D106">
-        <v>63.69765649371795</v>
+        <v>64</v>
       </c>
       <c r="E106">
-        <v>60.871640755</v>
+        <v>61</v>
       </c>
       <c r="F106">
-        <v>3.471212121212121</v>
+        <v>3.5</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -3043,13 +4633,28 @@
         </is>
       </c>
       <c r="D107">
-        <v>60.07177629597436</v>
+        <v>60</v>
       </c>
       <c r="E107">
-        <v>57.5591157625</v>
+        <v>58</v>
       </c>
       <c r="F107">
-        <v>3.077272727272727</v>
+        <v>3.1</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -3069,13 +4674,28 @@
         </is>
       </c>
       <c r="D108">
-        <v>63.85538461538462</v>
+        <v>64</v>
       </c>
       <c r="E108">
-        <v>56.83250000000001</v>
+        <v>57</v>
       </c>
       <c r="F108">
-        <v>2.720454545454546</v>
+        <v>2.7</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -3095,13 +4715,28 @@
         </is>
       </c>
       <c r="D109">
-        <v>64.81141025641026</v>
+        <v>65</v>
       </c>
       <c r="E109">
-        <v>48.58749999999998</v>
+        <v>49</v>
       </c>
       <c r="F109">
-        <v>2.50530303030303</v>
+        <v>2.5</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3121,13 +4756,28 @@
         </is>
       </c>
       <c r="D110">
-        <v>67.12243589743589</v>
+        <v>67</v>
       </c>
       <c r="E110">
-        <v>56.175</v>
+        <v>56</v>
       </c>
       <c r="F110">
-        <v>2.874242424242424</v>
+        <v>2.9</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -3147,13 +4797,28 @@
         </is>
       </c>
       <c r="D111">
-        <v>65.2251282051282</v>
+        <v>65</v>
       </c>
       <c r="E111">
-        <v>25.43</v>
+        <v>25</v>
       </c>
       <c r="F111">
-        <v>2.995454545454546</v>
+        <v>3</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -3173,10 +4838,25 @@
         </is>
       </c>
       <c r="D112">
-        <v>59.02290966844638</v>
+        <v>59</v>
       </c>
       <c r="F112">
-        <v>3.716666666666667</v>
+        <v>3.7</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -3196,10 +4876,25 @@
         </is>
       </c>
       <c r="D113">
-        <v>61.89148577655762</v>
+        <v>62</v>
       </c>
       <c r="F113">
-        <v>3.025</v>
+        <v>3</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -3219,11 +4914,26 @@
         </is>
       </c>
       <c r="D114">
-        <v>60.10402108616667</v>
+        <v>60</v>
       </c>
       <c r="F114">
         <v>3</v>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3242,10 +4952,25 @@
         </is>
       </c>
       <c r="D115">
-        <v>61.57828524416666</v>
+        <v>62</v>
       </c>
       <c r="F115">
-        <v>3.166666666666667</v>
+        <v>3.2</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -3265,10 +4990,25 @@
         </is>
       </c>
       <c r="D116">
-        <v>61.45714782833333</v>
+        <v>61</v>
       </c>
       <c r="F116">
-        <v>5.1375</v>
+        <v>5.1</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -3288,10 +5028,25 @@
         </is>
       </c>
       <c r="D117">
-        <v>57.08012120941667</v>
+        <v>57</v>
       </c>
       <c r="F117">
-        <v>4.7375</v>
+        <v>4.7</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -3311,13 +5066,28 @@
         </is>
       </c>
       <c r="D118">
-        <v>62.83319047619047</v>
+        <v>63</v>
       </c>
       <c r="E118">
-        <v>63.09499999999998</v>
+        <v>63</v>
       </c>
       <c r="F118">
-        <v>4.371428571428571</v>
+        <v>4.4</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -3337,13 +5107,28 @@
         </is>
       </c>
       <c r="D119">
-        <v>63.36428571428571</v>
+        <v>63</v>
       </c>
       <c r="E119">
-        <v>53.94750000000003</v>
+        <v>54</v>
       </c>
       <c r="F119">
-        <v>4.207142857142857</v>
+        <v>4.2</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -3363,13 +5148,28 @@
         </is>
       </c>
       <c r="D120">
-        <v>64.92333333333333</v>
+        <v>65</v>
       </c>
       <c r="E120">
-        <v>45.955</v>
+        <v>46</v>
       </c>
       <c r="F120">
-        <v>4.332142857142857</v>
+        <v>4.3</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -3389,13 +5189,28 @@
         </is>
       </c>
       <c r="D121">
-        <v>56.58114814814815</v>
+        <v>57</v>
       </c>
       <c r="E121">
-        <v>33.9875</v>
+        <v>34</v>
       </c>
       <c r="F121">
-        <v>4.283333333333333</v>
+        <v>4.3</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -3415,13 +5230,28 @@
         </is>
       </c>
       <c r="D122">
-        <v>61.74732612233414</v>
+        <v>62</v>
       </c>
       <c r="E122">
-        <v>47.11220597640445</v>
+        <v>47</v>
       </c>
       <c r="F122">
-        <v>3.822857142857143</v>
+        <v>3.8</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -3441,13 +5271,28 @@
         </is>
       </c>
       <c r="D123">
-        <v>58.94989875592756</v>
+        <v>59</v>
       </c>
       <c r="E123">
-        <v>46.93851862</v>
+        <v>47</v>
       </c>
       <c r="F123">
-        <v>4.308333333333334</v>
+        <v>4.3</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -3467,13 +5312,28 @@
         </is>
       </c>
       <c r="D124">
-        <v>58.792263648</v>
+        <v>59</v>
       </c>
       <c r="E124">
-        <v>48.23144610736345</v>
+        <v>48</v>
       </c>
       <c r="F124">
-        <v>3.386904761904762</v>
+        <v>3.4</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -3493,13 +5353,28 @@
         </is>
       </c>
       <c r="D125">
-        <v>60.2340142672</v>
+        <v>60</v>
       </c>
       <c r="E125">
-        <v>46.0050224575</v>
+        <v>46</v>
       </c>
       <c r="F125">
-        <v>3.440740740740741</v>
+        <v>3.4</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -3519,13 +5394,28 @@
         </is>
       </c>
       <c r="D126">
-        <v>60.06965346569444</v>
+        <v>60</v>
       </c>
       <c r="E126">
-        <v>52.4017841325</v>
+        <v>52</v>
       </c>
       <c r="F126">
-        <v>4.008333333333334</v>
+        <v>4</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -3545,13 +5435,28 @@
         </is>
       </c>
       <c r="D127">
-        <v>59.48086510611111</v>
+        <v>59</v>
       </c>
       <c r="E127">
-        <v>52.293859745</v>
+        <v>52</v>
       </c>
       <c r="F127">
-        <v>3.90625</v>
+        <v>3.9</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -3571,13 +5476,28 @@
         </is>
       </c>
       <c r="D128">
-        <v>60.55769230769231</v>
+        <v>61</v>
       </c>
       <c r="E128">
-        <v>54.55249999999999</v>
+        <v>55</v>
       </c>
       <c r="F128">
-        <v>4.019230769230769</v>
+        <v>4</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -3597,13 +5517,28 @@
         </is>
       </c>
       <c r="D129">
-        <v>60.995</v>
+        <v>61</v>
       </c>
       <c r="E129">
-        <v>31.50249999999999</v>
+        <v>32</v>
       </c>
       <c r="F129">
-        <v>3.908888888888889</v>
+        <v>3.9</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -3623,13 +5558,28 @@
         </is>
       </c>
       <c r="D130">
-        <v>63.25114880952381</v>
+        <v>63</v>
       </c>
       <c r="E130">
-        <v>43.31666666666667</v>
+        <v>43</v>
       </c>
       <c r="F130">
-        <v>3.881904761904762</v>
+        <v>3.9</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -3649,13 +5599,28 @@
         </is>
       </c>
       <c r="D131">
-        <v>61.87977083333333</v>
+        <v>62</v>
       </c>
       <c r="E131">
-        <v>67.67333333333333</v>
+        <v>68</v>
       </c>
       <c r="F131">
-        <v>4.201562500000001</v>
+        <v>4.2</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -3675,10 +5640,25 @@
         </is>
       </c>
       <c r="D132">
-        <v>61.83966761061514</v>
+        <v>62</v>
       </c>
       <c r="F132">
-        <v>3.887619047619048</v>
+        <v>3.9</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -3698,10 +5678,25 @@
         </is>
       </c>
       <c r="D133">
-        <v>65.49494298759744</v>
+        <v>65</v>
       </c>
       <c r="F133">
-        <v>3.198809523809524</v>
+        <v>3.2</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -3721,10 +5716,25 @@
         </is>
       </c>
       <c r="D134">
-        <v>66.98826665875001</v>
+        <v>67</v>
       </c>
       <c r="F134">
-        <v>3.157142857142857</v>
+        <v>3.2</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -3744,10 +5754,25 @@
         </is>
       </c>
       <c r="D135">
-        <v>65.12768973944443</v>
+        <v>65</v>
       </c>
       <c r="F135">
-        <v>2.733333333333333</v>
+        <v>2.7</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -3767,10 +5792,25 @@
         </is>
       </c>
       <c r="D136">
-        <v>65.67830460851852</v>
+        <v>66</v>
       </c>
       <c r="F136">
-        <v>3.789814814814815</v>
+        <v>3.8</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -3790,10 +5830,25 @@
         </is>
       </c>
       <c r="D137">
-        <v>66.78806545851852</v>
+        <v>67</v>
       </c>
       <c r="F137">
-        <v>3.019444444444445</v>
+        <v>3</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -3813,10 +5868,25 @@
         </is>
       </c>
       <c r="D138">
-        <v>64.24866666666667</v>
+        <v>64</v>
       </c>
       <c r="F138">
-        <v>3.3175</v>
+        <v>3.3</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -3836,10 +5906,25 @@
         </is>
       </c>
       <c r="D139">
-        <v>63.7910606060606</v>
+        <v>64</v>
       </c>
       <c r="F139">
-        <v>3.468181818181818</v>
+        <v>3.5</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -3859,10 +5944,25 @@
         </is>
       </c>
       <c r="D140">
-        <v>65.95569444444445</v>
+        <v>66</v>
       </c>
       <c r="F140">
-        <v>3.579166666666667</v>
+        <v>3.6</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -3882,10 +5982,25 @@
         </is>
       </c>
       <c r="D141">
-        <v>67.64305555555555</v>
+        <v>68</v>
       </c>
       <c r="F141">
-        <v>3.704166666666667</v>
+        <v>3.7</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -3905,13 +6020,28 @@
         </is>
       </c>
       <c r="D142">
-        <v>53.97349113743277</v>
+        <v>54</v>
       </c>
       <c r="E142">
-        <v>62.64482947742028</v>
+        <v>63</v>
       </c>
       <c r="F142">
-        <v>4.427777777777778</v>
+        <v>4.4</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -3931,13 +6061,28 @@
         </is>
       </c>
       <c r="D143">
-        <v>61.34915764617645</v>
+        <v>61</v>
       </c>
       <c r="E143">
-        <v>64.75678355875</v>
+        <v>65</v>
       </c>
       <c r="F143">
-        <v>3.025</v>
+        <v>3</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -3957,13 +6102,28 @@
         </is>
       </c>
       <c r="D144">
-        <v>59.51310414486111</v>
+        <v>60</v>
       </c>
       <c r="E144">
-        <v>61.32046074489691</v>
+        <v>61</v>
       </c>
       <c r="F144">
-        <v>3.172222222222222</v>
+        <v>3.2</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -3983,13 +6143,28 @@
         </is>
       </c>
       <c r="D145">
-        <v>59.43018811208334</v>
+        <v>59</v>
       </c>
       <c r="E145">
-        <v>65.59438854</v>
+        <v>66</v>
       </c>
       <c r="F145">
-        <v>2.960714285714286</v>
+        <v>3</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -4009,13 +6184,28 @@
         </is>
       </c>
       <c r="D146">
-        <v>57.4817444897549</v>
+        <v>57</v>
       </c>
       <c r="E146">
-        <v>48.5910720675</v>
+        <v>49</v>
       </c>
       <c r="F146">
-        <v>3.946428571428572</v>
+        <v>3.9</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -4035,13 +6225,28 @@
         </is>
       </c>
       <c r="D147">
-        <v>59.58727862231481</v>
+        <v>60</v>
       </c>
       <c r="E147">
-        <v>57.88796073875</v>
+        <v>58</v>
       </c>
       <c r="F147">
-        <v>3.823333333333334</v>
+        <v>3.8</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -4061,13 +6266,28 @@
         </is>
       </c>
       <c r="D148">
-        <v>60.12707936507937</v>
+        <v>60</v>
       </c>
       <c r="E148">
-        <v>59.91874999999998</v>
+        <v>60</v>
       </c>
       <c r="F148">
-        <v>3.780392156862745</v>
+        <v>3.8</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -4087,13 +6307,28 @@
         </is>
       </c>
       <c r="D149">
-        <v>60.55788888888889</v>
+        <v>61</v>
       </c>
       <c r="E149">
-        <v>60.93750000000002</v>
+        <v>61</v>
       </c>
       <c r="F149">
-        <v>3.770588235294118</v>
+        <v>3.8</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -4113,13 +6348,28 @@
         </is>
       </c>
       <c r="D150">
-        <v>61.78073015873016</v>
+        <v>62</v>
       </c>
       <c r="E150">
-        <v>62.6375</v>
+        <v>63</v>
       </c>
       <c r="F150">
-        <v>3.579411764705883</v>
+        <v>3.6</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -4139,13 +6389,28 @@
         </is>
       </c>
       <c r="D151">
-        <v>59.82320634920635</v>
+        <v>60</v>
       </c>
       <c r="E151">
-        <v>58.0475</v>
+        <v>58</v>
       </c>
       <c r="F151">
-        <v>3.948529411764706</v>
+        <v>3.9</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -4165,13 +6430,28 @@
         </is>
       </c>
       <c r="D152">
-        <v>76.01596593907747</v>
+        <v>76</v>
       </c>
       <c r="E152">
-        <v>57.35513094874597</v>
+        <v>57</v>
       </c>
       <c r="F152">
-        <v>4.08</v>
+        <v>4.1</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -4191,13 +6471,28 @@
         </is>
       </c>
       <c r="D153">
-        <v>77.58228117874714</v>
+        <v>78</v>
       </c>
       <c r="E153">
-        <v>55.43750204666667</v>
+        <v>55</v>
       </c>
       <c r="F153">
-        <v>3.298333333333333</v>
+        <v>3.3</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -4217,13 +6512,28 @@
         </is>
       </c>
       <c r="D154">
-        <v>80.30393284</v>
+        <v>80</v>
       </c>
       <c r="E154">
-        <v>73.30632790357566</v>
+        <v>73</v>
       </c>
       <c r="F154">
-        <v>3.105</v>
+        <v>3.1</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -4243,13 +6553,28 @@
         </is>
       </c>
       <c r="D155">
-        <v>79.49090424233333</v>
+        <v>79</v>
       </c>
       <c r="E155">
-        <v>50.065814565</v>
+        <v>50</v>
       </c>
       <c r="F155">
-        <v>3.19</v>
+        <v>3.2</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -4269,13 +6594,28 @@
         </is>
       </c>
       <c r="D156">
-        <v>71.40861514979167</v>
+        <v>71</v>
       </c>
       <c r="E156">
-        <v>60.717103035</v>
+        <v>61</v>
       </c>
       <c r="F156">
-        <v>3.895833333333333</v>
+        <v>3.9</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -4295,13 +6635,28 @@
         </is>
       </c>
       <c r="D157">
-        <v>66.1426564697619</v>
+        <v>66</v>
       </c>
       <c r="E157">
-        <v>54.64624276</v>
+        <v>55</v>
       </c>
       <c r="F157">
-        <v>4.335714285714286</v>
+        <v>4.3</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -4321,13 +6676,28 @@
         </is>
       </c>
       <c r="D158">
-        <v>73.23962962962963</v>
+        <v>73</v>
       </c>
       <c r="E158">
-        <v>49.94499999999999</v>
+        <v>50</v>
       </c>
       <c r="F158">
-        <v>3.463888888888889</v>
+        <v>3.5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -4347,13 +6717,28 @@
         </is>
       </c>
       <c r="D159">
-        <v>71.37622222222222</v>
+        <v>71</v>
       </c>
       <c r="E159">
-        <v>49.65749999999999</v>
+        <v>50</v>
       </c>
       <c r="F159">
-        <v>3.027777777777778</v>
+        <v>3</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -4373,13 +6758,28 @@
         </is>
       </c>
       <c r="D160">
-        <v>74.87674074074074</v>
+        <v>75</v>
       </c>
       <c r="E160">
-        <v>66.12666666666667</v>
+        <v>66</v>
       </c>
       <c r="F160">
-        <v>3.275925925925926</v>
+        <v>3.3</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -4399,13 +6799,28 @@
         </is>
       </c>
       <c r="D161">
-        <v>65.86277777777778</v>
+        <v>66</v>
       </c>
       <c r="E161">
-        <v>65.88</v>
+        <v>66</v>
       </c>
       <c r="F161">
-        <v>4.511111111111111</v>
+        <v>4.5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -4425,13 +6840,28 @@
         </is>
       </c>
       <c r="D162">
-        <v>70.11313207516771</v>
+        <v>70</v>
       </c>
       <c r="E162">
-        <v>56.08013778675122</v>
+        <v>56</v>
       </c>
       <c r="F162">
-        <v>2.729166666666667</v>
+        <v>2.7</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -4451,13 +6881,28 @@
         </is>
       </c>
       <c r="D163">
-        <v>71.48291471107608</v>
+        <v>71</v>
       </c>
       <c r="E163">
-        <v>55.45177359291667</v>
+        <v>55</v>
       </c>
       <c r="F163">
-        <v>1.877083333333333</v>
+        <v>1.9</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -4477,13 +6922,28 @@
         </is>
       </c>
       <c r="D164">
-        <v>72.63883994833333</v>
+        <v>73</v>
       </c>
       <c r="E164">
-        <v>68.13054256851595</v>
+        <v>68</v>
       </c>
       <c r="F164">
-        <v>2.4125</v>
+        <v>2.4</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -4503,13 +6963,28 @@
         </is>
       </c>
       <c r="D165">
-        <v>72.38332659916667</v>
+        <v>72</v>
       </c>
       <c r="E165">
-        <v>59.6561896425</v>
+        <v>60</v>
       </c>
       <c r="F165">
-        <v>2.225</v>
+        <v>2.2</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -4529,13 +7004,28 @@
         </is>
       </c>
       <c r="D166">
-        <v>71.94172477541667</v>
+        <v>72</v>
       </c>
       <c r="E166">
-        <v>57.98405490875</v>
+        <v>58</v>
       </c>
       <c r="F166">
-        <v>2.15</v>
+        <v>2.1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -4555,13 +7045,28 @@
         </is>
       </c>
       <c r="D167">
-        <v>68.9900076752381</v>
+        <v>69</v>
       </c>
       <c r="E167">
-        <v>39.60268174</v>
+        <v>40</v>
       </c>
       <c r="F167">
-        <v>2.866666666666667</v>
+        <v>2.9</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -4581,13 +7086,28 @@
         </is>
       </c>
       <c r="D168">
-        <v>70.45666666666666</v>
+        <v>70</v>
       </c>
       <c r="E168">
-        <v>45.14749999999999</v>
+        <v>45</v>
       </c>
       <c r="F168">
-        <v>2.8625</v>
+        <v>2.9</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4607,13 +7127,28 @@
         </is>
       </c>
       <c r="D169">
-        <v>65.784375</v>
+        <v>66</v>
       </c>
       <c r="E169">
-        <v>48.76374999999998</v>
+        <v>49</v>
       </c>
       <c r="F169">
-        <v>2.975</v>
+        <v>3</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -4633,13 +7168,28 @@
         </is>
       </c>
       <c r="D170">
-        <v>69.02708333333334</v>
+        <v>69</v>
       </c>
       <c r="E170">
-        <v>59.8375</v>
+        <v>60</v>
       </c>
       <c r="F170">
-        <v>2.846875</v>
+        <v>2.8</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -4659,13 +7209,28 @@
         </is>
       </c>
       <c r="D171">
-        <v>67.455625</v>
+        <v>67</v>
       </c>
       <c r="E171">
-        <v>49.12125</v>
+        <v>49</v>
       </c>
       <c r="F171">
-        <v>3.096875</v>
+        <v>3.1</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -4685,11 +7250,26 @@
         </is>
       </c>
       <c r="D172">
-        <v>70.66519377589859</v>
+        <v>71</v>
       </c>
       <c r="F172">
         <v>3.2</v>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4708,11 +7288,26 @@
         </is>
       </c>
       <c r="D173">
-        <v>68.16774632697474</v>
+        <v>68</v>
       </c>
       <c r="F173">
         <v>2.7</v>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4731,10 +7326,25 @@
         </is>
       </c>
       <c r="D174">
-        <v>72.36555374166667</v>
+        <v>72</v>
       </c>
       <c r="F174">
-        <v>2.125</v>
+        <v>2.1</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -4754,10 +7364,25 @@
         </is>
       </c>
       <c r="D175">
-        <v>81.11502334583334</v>
+        <v>81</v>
       </c>
       <c r="F175">
-        <v>1.95</v>
+        <v>2</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -4777,10 +7402,25 @@
         </is>
       </c>
       <c r="D176">
-        <v>78.47282472916666</v>
+        <v>78</v>
       </c>
       <c r="F176">
-        <v>3.208333333333333</v>
+        <v>3.2</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -4800,10 +7440,25 @@
         </is>
       </c>
       <c r="D177">
-        <v>78.43240395138889</v>
+        <v>78</v>
       </c>
       <c r="F177">
-        <v>3.004166666666667</v>
+        <v>3</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -4823,10 +7478,25 @@
         </is>
       </c>
       <c r="D178">
-        <v>79.10583333333334</v>
+        <v>79</v>
       </c>
       <c r="F178">
-        <v>3.245833333333334</v>
+        <v>3.2</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -4846,10 +7516,25 @@
         </is>
       </c>
       <c r="D179">
-        <v>79.68194444444444</v>
+        <v>80</v>
       </c>
       <c r="F179">
-        <v>3.016666666666667</v>
+        <v>3</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -4869,10 +7554,25 @@
         </is>
       </c>
       <c r="D180">
-        <v>81.11133333333333</v>
+        <v>81</v>
       </c>
       <c r="F180">
-        <v>3.090277777777778</v>
+        <v>3.1</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -4892,10 +7592,25 @@
         </is>
       </c>
       <c r="D181">
-        <v>79.95388888888888</v>
+        <v>80</v>
       </c>
       <c r="F181">
-        <v>3.066666666666667</v>
+        <v>3.1</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -4915,13 +7630,28 @@
         </is>
       </c>
       <c r="D182">
-        <v>76.14743823718497</v>
+        <v>76</v>
       </c>
       <c r="E182">
-        <v>59.44003273824359</v>
+        <v>59</v>
       </c>
       <c r="F182">
-        <v>3.035714285714286</v>
+        <v>3</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -4941,13 +7671,28 @@
         </is>
       </c>
       <c r="D183">
-        <v>77.02675672923553</v>
+        <v>77</v>
       </c>
       <c r="E183">
-        <v>57.49417559166666</v>
+        <v>57</v>
       </c>
       <c r="F183">
-        <v>2.55952380952381</v>
+        <v>2.6</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -4967,13 +7712,28 @@
         </is>
       </c>
       <c r="D184">
-        <v>77.55969342375001</v>
+        <v>78</v>
       </c>
       <c r="E184">
-        <v>54.61575875033457</v>
+        <v>55</v>
       </c>
       <c r="F184">
-        <v>2.414285714285714</v>
+        <v>2.4</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -4993,13 +7753,28 @@
         </is>
       </c>
       <c r="D185">
-        <v>75.26724069507407</v>
+        <v>75</v>
       </c>
       <c r="E185">
-        <v>59.07593275833333</v>
+        <v>59</v>
       </c>
       <c r="F185">
-        <v>2.666666666666667</v>
+        <v>2.7</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -5019,14 +7794,29 @@
         </is>
       </c>
       <c r="D186">
-        <v>73.33097735766667</v>
+        <v>73</v>
       </c>
       <c r="E186">
-        <v>48.27973687166667</v>
+        <v>48</v>
       </c>
       <c r="F186">
         <v>3.2</v>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5045,13 +7835,28 @@
         </is>
       </c>
       <c r="D187">
-        <v>70.90503121863637</v>
+        <v>71</v>
       </c>
       <c r="E187">
-        <v>29.44688772</v>
+        <v>29</v>
       </c>
       <c r="F187">
-        <v>3.318939393939394</v>
+        <v>3.3</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -5071,13 +7876,28 @@
         </is>
       </c>
       <c r="D188">
-        <v>75.00636363636363</v>
+        <v>75</v>
       </c>
       <c r="E188">
-        <v>53.93833333333333</v>
+        <v>54</v>
       </c>
       <c r="F188">
-        <v>2.670454545454545</v>
+        <v>2.7</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -5097,13 +7917,28 @@
         </is>
       </c>
       <c r="D189">
-        <v>77.34861111111111</v>
+        <v>77</v>
       </c>
       <c r="E189">
-        <v>57.14666666666665</v>
+        <v>57</v>
       </c>
       <c r="F189">
-        <v>2.86</v>
+        <v>2.9</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -5123,13 +7958,28 @@
         </is>
       </c>
       <c r="D190">
-        <v>77.31019444444445</v>
+        <v>77</v>
       </c>
       <c r="E190">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="F190">
-        <v>2.690833333333333</v>
+        <v>2.7</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -5149,13 +7999,28 @@
         </is>
       </c>
       <c r="D191">
-        <v>74.78125</v>
+        <v>75</v>
       </c>
       <c r="E191">
-        <v>56.58916666666667</v>
+        <v>57</v>
       </c>
       <c r="F191">
-        <v>3.4625</v>
+        <v>3.5</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -5175,13 +8040,28 @@
         </is>
       </c>
       <c r="D192">
-        <v>65.79628582077119</v>
+        <v>66</v>
       </c>
       <c r="E192">
-        <v>53.8771312463485</v>
+        <v>54</v>
       </c>
       <c r="F192">
-        <v>3.921111111111111</v>
+        <v>3.9</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -5201,13 +8081,28 @@
         </is>
       </c>
       <c r="D193">
-        <v>64.49032060199086</v>
+        <v>64</v>
       </c>
       <c r="E193">
-        <v>50.54114509875</v>
+        <v>51</v>
       </c>
       <c r="F193">
-        <v>3.85625</v>
+        <v>3.9</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -5227,13 +8122,28 @@
         </is>
       </c>
       <c r="D194">
-        <v>67.0172482175</v>
+        <v>67</v>
       </c>
       <c r="E194">
-        <v>48.307422994291</v>
+        <v>48</v>
       </c>
       <c r="F194">
-        <v>3.245833333333334</v>
+        <v>3.2</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -5253,13 +8163,28 @@
         </is>
       </c>
       <c r="D195">
-        <v>64.16384415388889</v>
+        <v>64</v>
       </c>
       <c r="E195">
-        <v>29.222808425</v>
+        <v>29</v>
       </c>
       <c r="F195">
-        <v>3.304166666666667</v>
+        <v>3.3</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -5279,13 +8204,28 @@
         </is>
       </c>
       <c r="D196">
-        <v>64.92619965333333</v>
+        <v>65</v>
       </c>
       <c r="E196">
-        <v>41.67331476125</v>
+        <v>42</v>
       </c>
       <c r="F196">
-        <v>2.922222222222222</v>
+        <v>2.9</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -5305,13 +8245,28 @@
         </is>
       </c>
       <c r="D197">
-        <v>64.87680738416667</v>
+        <v>65</v>
       </c>
       <c r="E197">
-        <v>43.35862552375001</v>
+        <v>43</v>
       </c>
       <c r="F197">
-        <v>3.2825</v>
+        <v>3.3</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -5331,13 +8286,28 @@
         </is>
       </c>
       <c r="D198">
-        <v>62.36893939393939</v>
+        <v>62</v>
       </c>
       <c r="E198">
-        <v>39.85375000000001</v>
+        <v>40</v>
       </c>
       <c r="F198">
-        <v>3.19</v>
+        <v>3.2</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -5357,13 +8327,28 @@
         </is>
       </c>
       <c r="D199">
-        <v>67.22439393939393</v>
+        <v>67</v>
       </c>
       <c r="E199">
-        <v>35.10000000000002</v>
+        <v>35</v>
       </c>
       <c r="F199">
-        <v>3.027777777777778</v>
+        <v>3</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Ruim</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -5383,13 +8368,28 @@
         </is>
       </c>
       <c r="D200">
-        <v>66.95415151515151</v>
+        <v>67</v>
       </c>
       <c r="E200">
-        <v>11.7075</v>
+        <v>12</v>
       </c>
       <c r="F200">
-        <v>3.690740740740741</v>
+        <v>3.7</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Péssimo</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -5409,13 +8409,28 @@
         </is>
       </c>
       <c r="D201">
-        <v>67.0401038961039</v>
+        <v>67</v>
       </c>
       <c r="E201">
-        <v>43.68</v>
+        <v>44</v>
       </c>
       <c r="F201">
-        <v>3.412962962962963</v>
+        <v>3.4</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -5435,13 +8450,28 @@
         </is>
       </c>
       <c r="D202">
-        <v>64.72813024804775</v>
+        <v>65</v>
       </c>
       <c r="E202">
-        <v>57.15404041877599</v>
+        <v>57</v>
       </c>
       <c r="F202">
-        <v>3.327777777777778</v>
+        <v>3.3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -5461,13 +8491,28 @@
         </is>
       </c>
       <c r="D203">
-        <v>63.24175110898543</v>
+        <v>63</v>
       </c>
       <c r="E203">
-        <v>54.15717141666666</v>
+        <v>54</v>
       </c>
       <c r="F203">
-        <v>3.079166666666667</v>
+        <v>3.1</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -5487,13 +8532,28 @@
         </is>
       </c>
       <c r="D204">
-        <v>67.3232911425</v>
+        <v>67</v>
       </c>
       <c r="E204">
-        <v>59.14036985216585</v>
+        <v>59</v>
       </c>
       <c r="F204">
-        <v>3.4875</v>
+        <v>3.5</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -5513,13 +8573,28 @@
         </is>
       </c>
       <c r="D205">
-        <v>64.58115536133333</v>
+        <v>65</v>
       </c>
       <c r="E205">
-        <v>50.943653535</v>
+        <v>51</v>
       </c>
       <c r="F205">
-        <v>3.0125</v>
+        <v>3</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -5539,13 +8614,28 @@
         </is>
       </c>
       <c r="D206">
-        <v>68.45577872233333</v>
+        <v>68</v>
       </c>
       <c r="E206">
-        <v>58.7563647775</v>
+        <v>59</v>
       </c>
       <c r="F206">
-        <v>3.15</v>
+        <v>3.1</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -5565,13 +8655,28 @@
         </is>
       </c>
       <c r="D207">
-        <v>62.89678883746667</v>
+        <v>63</v>
       </c>
       <c r="E207">
-        <v>39.45076744166666</v>
+        <v>39</v>
       </c>
       <c r="F207">
-        <v>3.406666666666667</v>
+        <v>3.4</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -5591,13 +8696,28 @@
         </is>
       </c>
       <c r="D208">
-        <v>64.05333333333334</v>
+        <v>64</v>
       </c>
       <c r="E208">
-        <v>52.17333333333334</v>
+        <v>52</v>
       </c>
       <c r="F208">
-        <v>2.97</v>
+        <v>3</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -5617,13 +8737,28 @@
         </is>
       </c>
       <c r="D209">
-        <v>62.58233333333333</v>
+        <v>63</v>
       </c>
       <c r="E209">
-        <v>54.04333333333334</v>
+        <v>54</v>
       </c>
       <c r="F209">
-        <v>2.98</v>
+        <v>3</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -5643,13 +8778,28 @@
         </is>
       </c>
       <c r="D210">
-        <v>69.73016666666666</v>
+        <v>70</v>
       </c>
       <c r="E210">
-        <v>46.03166666666667</v>
+        <v>46</v>
       </c>
       <c r="F210">
-        <v>3.359722222222222</v>
+        <v>3.4</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -5669,13 +8819,28 @@
         </is>
       </c>
       <c r="D211">
-        <v>68.55344444444444</v>
+        <v>69</v>
       </c>
       <c r="E211">
-        <v>54.6675</v>
+        <v>55</v>
       </c>
       <c r="F211">
-        <v>3.477777777777778</v>
+        <v>3.5</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -5695,10 +8860,25 @@
         </is>
       </c>
       <c r="D212">
-        <v>75.01398420111343</v>
+        <v>75</v>
       </c>
       <c r="F212">
-        <v>3.2125</v>
+        <v>3.2</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -5718,10 +8898,25 @@
         </is>
       </c>
       <c r="D213">
-        <v>72.52833340312289</v>
+        <v>73</v>
       </c>
       <c r="F213">
-        <v>3.15625</v>
+        <v>3.2</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -5741,11 +8936,26 @@
         </is>
       </c>
       <c r="D214">
-        <v>73.57279281366667</v>
+        <v>74</v>
       </c>
       <c r="F214">
         <v>2.8</v>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5764,10 +8974,25 @@
         </is>
       </c>
       <c r="D215">
-        <v>72.8410632758</v>
+        <v>73</v>
       </c>
       <c r="F215">
-        <v>2.61875</v>
+        <v>2.6</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -5787,10 +9012,25 @@
         </is>
       </c>
       <c r="D216">
-        <v>72.27462773888888</v>
+        <v>72</v>
       </c>
       <c r="F216">
-        <v>3.8125</v>
+        <v>3.8</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -5810,10 +9050,25 @@
         </is>
       </c>
       <c r="D217">
-        <v>68.87352959161905</v>
+        <v>69</v>
       </c>
       <c r="F217">
-        <v>3.434722222222222</v>
+        <v>3.4</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -5833,10 +9088,25 @@
         </is>
       </c>
       <c r="D218">
-        <v>69.47777777777777</v>
+        <v>69</v>
       </c>
       <c r="F218">
-        <v>3.25625</v>
+        <v>3.3</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -5856,10 +9126,25 @@
         </is>
       </c>
       <c r="D219">
-        <v>71.77666666666667</v>
+        <v>72</v>
       </c>
       <c r="F219">
-        <v>2.984375</v>
+        <v>3</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -5879,10 +9164,25 @@
         </is>
       </c>
       <c r="D220">
-        <v>73.82943055555555</v>
+        <v>74</v>
       </c>
       <c r="F220">
-        <v>3.812962962962963</v>
+        <v>3.8</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -5902,10 +9202,25 @@
         </is>
       </c>
       <c r="D221">
-        <v>71.13452777777778</v>
+        <v>71</v>
       </c>
       <c r="F221">
-        <v>4.122222222222223</v>
+        <v>4.1</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Bom</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Ótimo</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data-raw/xlsx/base_ugrhi.xlsx
+++ b/data-raw/xlsx/base_ugrhi.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:Q221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,46 @@
           <t>iva_label</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>q7_10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>q_95_percent</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>qmedio</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_total</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_superficial</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_total_qmedio</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_superficial_q7_10</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_total_q95_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -415,10 +455,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C2">
+        <v>2010</v>
       </c>
       <c r="D2">
         <v>49</v>
@@ -441,6 +479,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>0.73</v>
+      </c>
+      <c r="N2">
+        <v>0.72</v>
+      </c>
+      <c r="O2">
+        <v>3.318181818181818</v>
+      </c>
+      <c r="P2">
+        <v>10.28571428571428</v>
+      </c>
+      <c r="Q2">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,10 +515,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C3">
+        <v>2011</v>
       </c>
       <c r="D3">
         <v>49</v>
@@ -479,6 +539,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>0.76</v>
+      </c>
+      <c r="N3">
+        <v>0.75</v>
+      </c>
+      <c r="O3">
+        <v>3.454545454545455</v>
+      </c>
+      <c r="P3">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="Q3">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -491,10 +575,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C4">
+        <v>2012</v>
       </c>
       <c r="D4">
         <v>48</v>
@@ -517,6 +599,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>0.73</v>
+      </c>
+      <c r="N4">
+        <v>0.72</v>
+      </c>
+      <c r="O4">
+        <v>3.318181818181818</v>
+      </c>
+      <c r="P4">
+        <v>10.28571428571428</v>
+      </c>
+      <c r="Q4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,10 +635,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C5">
+        <v>2013</v>
       </c>
       <c r="D5">
         <v>51</v>
@@ -555,6 +659,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>0.72</v>
+      </c>
+      <c r="N5">
+        <v>0.72</v>
+      </c>
+      <c r="O5">
+        <v>3.272727272727272</v>
+      </c>
+      <c r="P5">
+        <v>10.28571428571428</v>
+      </c>
+      <c r="Q5">
+        <v>7.199999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -567,10 +695,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C6">
+        <v>2014</v>
       </c>
       <c r="D6">
         <v>55</v>
@@ -593,6 +719,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>0.99</v>
+      </c>
+      <c r="N6">
+        <v>0.99</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="Q6">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -605,10 +755,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C7">
+        <v>2015</v>
       </c>
       <c r="D7">
         <v>52</v>
@@ -631,6 +779,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>0.99</v>
+      </c>
+      <c r="N7">
+        <v>0.99</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="Q7">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -643,10 +815,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C8">
+        <v>2016</v>
       </c>
       <c r="D8">
         <v>56</v>
@@ -669,6 +839,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>1.04</v>
+      </c>
+      <c r="N8">
+        <v>1.04</v>
+      </c>
+      <c r="O8">
+        <v>4.727272727272728</v>
+      </c>
+      <c r="P8">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="Q8">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -681,10 +875,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C9">
+        <v>2017</v>
       </c>
       <c r="D9">
         <v>58</v>
@@ -707,6 +899,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>1.11</v>
+      </c>
+      <c r="N9">
+        <v>1.1</v>
+      </c>
+      <c r="O9">
+        <v>5.045454545454546</v>
+      </c>
+      <c r="P9">
+        <v>15.71428571428572</v>
+      </c>
+      <c r="Q9">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -719,10 +935,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C10">
+        <v>2018</v>
       </c>
       <c r="D10">
         <v>59</v>
@@ -745,6 +959,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>1.11</v>
+      </c>
+      <c r="N10">
+        <v>1.1</v>
+      </c>
+      <c r="O10">
+        <v>5.045454545454546</v>
+      </c>
+      <c r="P10">
+        <v>15.71428571428572</v>
+      </c>
+      <c r="Q10">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -757,10 +995,8 @@
           <t>Mantiqueira</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C11">
+        <v>2019</v>
       </c>
       <c r="D11">
         <v>59</v>
@@ -786,6 +1022,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>1.11</v>
+      </c>
+      <c r="N11">
+        <v>1.1</v>
+      </c>
+      <c r="O11">
+        <v>5.045454545454546</v>
+      </c>
+      <c r="P11">
+        <v>15.71428571428572</v>
+      </c>
+      <c r="Q11">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -798,10 +1058,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C12">
+        <v>2010</v>
       </c>
       <c r="D12">
         <v>69</v>
@@ -827,6 +1085,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J12">
+        <v>72</v>
+      </c>
+      <c r="K12">
+        <v>93</v>
+      </c>
+      <c r="L12">
+        <v>216</v>
+      </c>
+      <c r="M12">
+        <v>9.76</v>
+      </c>
+      <c r="N12">
+        <v>6.93</v>
+      </c>
+      <c r="O12">
+        <v>4.518518518518518</v>
+      </c>
+      <c r="P12">
+        <v>9.625</v>
+      </c>
+      <c r="Q12">
+        <v>10.49462365591398</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -839,10 +1121,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C13">
+        <v>2011</v>
       </c>
       <c r="D13">
         <v>65</v>
@@ -868,6 +1148,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13">
+        <v>93</v>
+      </c>
+      <c r="L13">
+        <v>216</v>
+      </c>
+      <c r="M13">
+        <v>10.19</v>
+      </c>
+      <c r="N13">
+        <v>7.35</v>
+      </c>
+      <c r="O13">
+        <v>4.717592592592593</v>
+      </c>
+      <c r="P13">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="Q13">
+        <v>10.95698924731183</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,10 +1184,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C14">
+        <v>2012</v>
       </c>
       <c r="D14">
         <v>67</v>
@@ -909,6 +1211,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J14">
+        <v>72</v>
+      </c>
+      <c r="K14">
+        <v>93</v>
+      </c>
+      <c r="L14">
+        <v>216</v>
+      </c>
+      <c r="M14">
+        <v>10.74</v>
+      </c>
+      <c r="N14">
+        <v>7.89</v>
+      </c>
+      <c r="O14">
+        <v>4.972222222222222</v>
+      </c>
+      <c r="P14">
+        <v>10.95833333333333</v>
+      </c>
+      <c r="Q14">
+        <v>11.54838709677419</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -921,10 +1247,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C15">
+        <v>2013</v>
       </c>
       <c r="D15">
         <v>67</v>
@@ -950,6 +1274,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J15">
+        <v>72</v>
+      </c>
+      <c r="K15">
+        <v>93</v>
+      </c>
+      <c r="L15">
+        <v>216</v>
+      </c>
+      <c r="M15">
+        <v>9.94</v>
+      </c>
+      <c r="N15">
+        <v>6.66</v>
+      </c>
+      <c r="O15">
+        <v>4.601851851851851</v>
+      </c>
+      <c r="P15">
+        <v>9.25</v>
+      </c>
+      <c r="Q15">
+        <v>10.68817204301075</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -962,10 +1310,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C16">
+        <v>2014</v>
       </c>
       <c r="D16">
         <v>69</v>
@@ -991,6 +1337,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J16">
+        <v>72</v>
+      </c>
+      <c r="K16">
+        <v>93</v>
+      </c>
+      <c r="L16">
+        <v>216</v>
+      </c>
+      <c r="M16">
+        <v>10.85</v>
+      </c>
+      <c r="N16">
+        <v>7.22</v>
+      </c>
+      <c r="O16">
+        <v>5.023148148148148</v>
+      </c>
+      <c r="P16">
+        <v>10.02777777777778</v>
+      </c>
+      <c r="Q16">
+        <v>11.66666666666667</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1003,10 +1373,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C17">
+        <v>2015</v>
       </c>
       <c r="D17">
         <v>63</v>
@@ -1032,6 +1400,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J17">
+        <v>72</v>
+      </c>
+      <c r="K17">
+        <v>93</v>
+      </c>
+      <c r="L17">
+        <v>216</v>
+      </c>
+      <c r="M17">
+        <v>10.85</v>
+      </c>
+      <c r="N17">
+        <v>7.22</v>
+      </c>
+      <c r="O17">
+        <v>5.023148148148148</v>
+      </c>
+      <c r="P17">
+        <v>10.02777777777778</v>
+      </c>
+      <c r="Q17">
+        <v>11.66666666666667</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1044,10 +1436,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C18">
+        <v>2016</v>
       </c>
       <c r="D18">
         <v>64</v>
@@ -1073,6 +1463,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J18">
+        <v>72</v>
+      </c>
+      <c r="K18">
+        <v>93</v>
+      </c>
+      <c r="L18">
+        <v>216</v>
+      </c>
+      <c r="M18">
+        <v>13.43</v>
+      </c>
+      <c r="N18">
+        <v>10.13</v>
+      </c>
+      <c r="O18">
+        <v>6.217592592592593</v>
+      </c>
+      <c r="P18">
+        <v>14.06944444444445</v>
+      </c>
+      <c r="Q18">
+        <v>14.44086021505376</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1085,10 +1499,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C19">
+        <v>2017</v>
       </c>
       <c r="D19">
         <v>65</v>
@@ -1114,6 +1526,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J19">
+        <v>72</v>
+      </c>
+      <c r="K19">
+        <v>93</v>
+      </c>
+      <c r="L19">
+        <v>216</v>
+      </c>
+      <c r="M19">
+        <v>13.66</v>
+      </c>
+      <c r="N19">
+        <v>10.23</v>
+      </c>
+      <c r="O19">
+        <v>6.324074074074074</v>
+      </c>
+      <c r="P19">
+        <v>14.20833333333333</v>
+      </c>
+      <c r="Q19">
+        <v>14.68817204301075</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1126,10 +1562,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C20">
+        <v>2018</v>
       </c>
       <c r="D20">
         <v>65</v>
@@ -1155,6 +1589,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J20">
+        <v>72</v>
+      </c>
+      <c r="K20">
+        <v>93</v>
+      </c>
+      <c r="L20">
+        <v>216</v>
+      </c>
+      <c r="M20">
+        <v>16.11</v>
+      </c>
+      <c r="N20">
+        <v>12.08</v>
+      </c>
+      <c r="O20">
+        <v>7.458333333333334</v>
+      </c>
+      <c r="P20">
+        <v>16.77777777777778</v>
+      </c>
+      <c r="Q20">
+        <v>17.32258064516129</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1167,10 +1625,8 @@
           <t>Paraíba do Sul</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C21">
+        <v>2019</v>
       </c>
       <c r="D21">
         <v>64</v>
@@ -1196,6 +1652,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J21">
+        <v>72</v>
+      </c>
+      <c r="K21">
+        <v>93</v>
+      </c>
+      <c r="L21">
+        <v>216</v>
+      </c>
+      <c r="M21">
+        <v>16.26</v>
+      </c>
+      <c r="N21">
+        <v>12.29</v>
+      </c>
+      <c r="O21">
+        <v>7.527777777777779</v>
+      </c>
+      <c r="P21">
+        <v>17.06944444444444</v>
+      </c>
+      <c r="Q21">
+        <v>17.48387096774194</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1208,10 +1688,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C22">
+        <v>2010</v>
       </c>
       <c r="D22">
         <v>67</v>
@@ -1237,6 +1715,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>39</v>
+      </c>
+      <c r="L22">
+        <v>107</v>
+      </c>
+      <c r="M22">
+        <v>1.82</v>
+      </c>
+      <c r="N22">
+        <v>1.64</v>
+      </c>
+      <c r="O22">
+        <v>1.700934579439252</v>
+      </c>
+      <c r="P22">
+        <v>6.074074074074074</v>
+      </c>
+      <c r="Q22">
+        <v>4.666666666666667</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1249,10 +1751,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C23">
+        <v>2011</v>
       </c>
       <c r="D23">
         <v>63</v>
@@ -1278,6 +1778,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>39</v>
+      </c>
+      <c r="L23">
+        <v>107</v>
+      </c>
+      <c r="M23">
+        <v>2.21</v>
+      </c>
+      <c r="N23">
+        <v>2.03</v>
+      </c>
+      <c r="O23">
+        <v>2.065420560747664</v>
+      </c>
+      <c r="P23">
+        <v>7.518518518518517</v>
+      </c>
+      <c r="Q23">
+        <v>5.666666666666666</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1290,10 +1814,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C24">
+        <v>2012</v>
       </c>
       <c r="D24">
         <v>62</v>
@@ -1319,6 +1841,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J24">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>39</v>
+      </c>
+      <c r="L24">
+        <v>107</v>
+      </c>
+      <c r="M24">
+        <v>2.14</v>
+      </c>
+      <c r="N24">
+        <v>1.96</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>7.25925925925926</v>
+      </c>
+      <c r="Q24">
+        <v>5.487179487179487</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1331,10 +1877,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C25">
+        <v>2013</v>
       </c>
       <c r="D25">
         <v>64</v>
@@ -1360,6 +1904,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>39</v>
+      </c>
+      <c r="L25">
+        <v>107</v>
+      </c>
+      <c r="M25">
+        <v>2.74</v>
+      </c>
+      <c r="N25">
+        <v>2.56</v>
+      </c>
+      <c r="O25">
+        <v>2.560747663551402</v>
+      </c>
+      <c r="P25">
+        <v>9.481481481481481</v>
+      </c>
+      <c r="Q25">
+        <v>7.025641025641026</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1372,10 +1940,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C26">
+        <v>2014</v>
       </c>
       <c r="D26">
         <v>65</v>
@@ -1401,6 +1967,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>39</v>
+      </c>
+      <c r="L26">
+        <v>107</v>
+      </c>
+      <c r="M26">
+        <v>3.79</v>
+      </c>
+      <c r="N26">
+        <v>3.61</v>
+      </c>
+      <c r="O26">
+        <v>3.542056074766355</v>
+      </c>
+      <c r="P26">
+        <v>13.37037037037037</v>
+      </c>
+      <c r="Q26">
+        <v>9.717948717948719</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1413,10 +2003,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C27">
+        <v>2015</v>
       </c>
       <c r="D27">
         <v>63</v>
@@ -1442,6 +2030,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>39</v>
+      </c>
+      <c r="L27">
+        <v>107</v>
+      </c>
+      <c r="M27">
+        <v>3.79</v>
+      </c>
+      <c r="N27">
+        <v>3.61</v>
+      </c>
+      <c r="O27">
+        <v>3.542056074766355</v>
+      </c>
+      <c r="P27">
+        <v>13.37037037037037</v>
+      </c>
+      <c r="Q27">
+        <v>9.717948717948719</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1454,10 +2066,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C28">
+        <v>2016</v>
       </c>
       <c r="D28">
         <v>65</v>
@@ -1483,6 +2093,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>39</v>
+      </c>
+      <c r="L28">
+        <v>107</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>2.97</v>
+      </c>
+      <c r="O28">
+        <v>2.803738317757009</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28">
+        <v>7.692307692307693</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1495,10 +2129,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C29">
+        <v>2017</v>
       </c>
       <c r="D29">
         <v>64</v>
@@ -1524,6 +2156,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>39</v>
+      </c>
+      <c r="L29">
+        <v>107</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2.97</v>
+      </c>
+      <c r="O29">
+        <v>2.803738317757009</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>7.692307692307693</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1536,10 +2192,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C30">
+        <v>2018</v>
       </c>
       <c r="D30">
         <v>64</v>
@@ -1565,6 +2219,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30">
+        <v>39</v>
+      </c>
+      <c r="L30">
+        <v>107</v>
+      </c>
+      <c r="M30">
+        <v>3.25</v>
+      </c>
+      <c r="N30">
+        <v>3.13</v>
+      </c>
+      <c r="O30">
+        <v>3.037383177570093</v>
+      </c>
+      <c r="P30">
+        <v>11.59259259259259</v>
+      </c>
+      <c r="Q30">
+        <v>8.333333333333332</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1577,10 +2255,8 @@
           <t>Litoral Norte</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C31">
+        <v>2019</v>
       </c>
       <c r="D31">
         <v>65</v>
@@ -1606,6 +2282,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J31">
+        <v>27</v>
+      </c>
+      <c r="K31">
+        <v>39</v>
+      </c>
+      <c r="L31">
+        <v>107</v>
+      </c>
+      <c r="M31">
+        <v>3.29</v>
+      </c>
+      <c r="N31">
+        <v>3.16</v>
+      </c>
+      <c r="O31">
+        <v>3.074766355140187</v>
+      </c>
+      <c r="P31">
+        <v>11.7037037037037</v>
+      </c>
+      <c r="Q31">
+        <v>8.435897435897436</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1618,10 +2318,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C32">
+        <v>2010</v>
       </c>
       <c r="D32">
         <v>68</v>
@@ -1644,6 +2342,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <v>139</v>
+      </c>
+      <c r="M32">
+        <v>12.09</v>
+      </c>
+      <c r="N32">
+        <v>7.11</v>
+      </c>
+      <c r="O32">
+        <v>8.697841726618705</v>
+      </c>
+      <c r="P32">
+        <v>23.7</v>
+      </c>
+      <c r="Q32">
+        <v>27.47727272727273</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1656,10 +2378,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C33">
+        <v>2011</v>
       </c>
       <c r="D33">
         <v>62</v>
@@ -1682,6 +2402,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33">
+        <v>44</v>
+      </c>
+      <c r="L33">
+        <v>139</v>
+      </c>
+      <c r="M33">
+        <v>12.37</v>
+      </c>
+      <c r="N33">
+        <v>7.18</v>
+      </c>
+      <c r="O33">
+        <v>8.899280575539569</v>
+      </c>
+      <c r="P33">
+        <v>23.93333333333333</v>
+      </c>
+      <c r="Q33">
+        <v>28.11363636363636</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1694,10 +2438,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C34">
+        <v>2012</v>
       </c>
       <c r="D34">
         <v>60</v>
@@ -1720,6 +2462,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>44</v>
+      </c>
+      <c r="L34">
+        <v>139</v>
+      </c>
+      <c r="M34">
+        <v>12.75</v>
+      </c>
+      <c r="N34">
+        <v>7.19</v>
+      </c>
+      <c r="O34">
+        <v>9.172661870503598</v>
+      </c>
+      <c r="P34">
+        <v>23.96666666666667</v>
+      </c>
+      <c r="Q34">
+        <v>28.97727272727273</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1732,10 +2498,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C35">
+        <v>2013</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -1758,6 +2522,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>44</v>
+      </c>
+      <c r="L35">
+        <v>139</v>
+      </c>
+      <c r="M35">
+        <v>12.85</v>
+      </c>
+      <c r="N35">
+        <v>7.33</v>
+      </c>
+      <c r="O35">
+        <v>9.244604316546761</v>
+      </c>
+      <c r="P35">
+        <v>24.43333333333333</v>
+      </c>
+      <c r="Q35">
+        <v>29.20454545454546</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1770,10 +2558,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C36">
+        <v>2014</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -1796,6 +2582,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J36">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>44</v>
+      </c>
+      <c r="L36">
+        <v>139</v>
+      </c>
+      <c r="M36">
+        <v>13.48</v>
+      </c>
+      <c r="N36">
+        <v>7.85</v>
+      </c>
+      <c r="O36">
+        <v>9.697841726618705</v>
+      </c>
+      <c r="P36">
+        <v>26.16666666666666</v>
+      </c>
+      <c r="Q36">
+        <v>30.63636363636364</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,10 +2618,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C37">
+        <v>2015</v>
       </c>
       <c r="D37">
         <v>60</v>
@@ -1834,6 +2642,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>44</v>
+      </c>
+      <c r="L37">
+        <v>139</v>
+      </c>
+      <c r="M37">
+        <v>13.48</v>
+      </c>
+      <c r="N37">
+        <v>7.85</v>
+      </c>
+      <c r="O37">
+        <v>9.697841726618705</v>
+      </c>
+      <c r="P37">
+        <v>26.16666666666666</v>
+      </c>
+      <c r="Q37">
+        <v>30.63636363636364</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1846,10 +2678,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C38">
+        <v>2016</v>
       </c>
       <c r="D38">
         <v>62</v>
@@ -1872,6 +2702,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J38">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>44</v>
+      </c>
+      <c r="L38">
+        <v>139</v>
+      </c>
+      <c r="M38">
+        <v>11.36</v>
+      </c>
+      <c r="N38">
+        <v>6.63</v>
+      </c>
+      <c r="O38">
+        <v>8.172661870503596</v>
+      </c>
+      <c r="P38">
+        <v>22.1</v>
+      </c>
+      <c r="Q38">
+        <v>25.81818181818182</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1884,10 +2738,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C39">
+        <v>2017</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -1910,6 +2762,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J39">
+        <v>30</v>
+      </c>
+      <c r="K39">
+        <v>44</v>
+      </c>
+      <c r="L39">
+        <v>139</v>
+      </c>
+      <c r="M39">
+        <v>14.13</v>
+      </c>
+      <c r="N39">
+        <v>7.85</v>
+      </c>
+      <c r="O39">
+        <v>10.16546762589928</v>
+      </c>
+      <c r="P39">
+        <v>26.16666666666666</v>
+      </c>
+      <c r="Q39">
+        <v>32.11363636363637</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1922,10 +2798,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C40">
+        <v>2018</v>
       </c>
       <c r="D40">
         <v>62</v>
@@ -1948,6 +2822,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J40">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>44</v>
+      </c>
+      <c r="L40">
+        <v>139</v>
+      </c>
+      <c r="M40">
+        <v>16.44</v>
+      </c>
+      <c r="N40">
+        <v>9.27</v>
+      </c>
+      <c r="O40">
+        <v>11.8273381294964</v>
+      </c>
+      <c r="P40">
+        <v>30.9</v>
+      </c>
+      <c r="Q40">
+        <v>37.36363636363637</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1960,10 +2858,8 @@
           <t>Pardo</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C41">
+        <v>2019</v>
       </c>
       <c r="D41">
         <v>61</v>
@@ -1986,6 +2882,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>44</v>
+      </c>
+      <c r="L41">
+        <v>139</v>
+      </c>
+      <c r="M41">
+        <v>16.52</v>
+      </c>
+      <c r="N41">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="O41">
+        <v>11.88489208633094</v>
+      </c>
+      <c r="P41">
+        <v>32.03333333333333</v>
+      </c>
+      <c r="Q41">
+        <v>37.54545454545454</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1998,10 +2918,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C42">
+        <v>2010</v>
       </c>
       <c r="D42">
         <v>49</v>
@@ -2027,6 +2945,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J42">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>65</v>
+      </c>
+      <c r="L42">
+        <v>172</v>
+      </c>
+      <c r="M42">
+        <v>59.97</v>
+      </c>
+      <c r="N42">
+        <v>60.65</v>
+      </c>
+      <c r="O42">
+        <v>34.86627906976744</v>
+      </c>
+      <c r="P42">
+        <v>141.046511627907</v>
+      </c>
+      <c r="Q42">
+        <v>92.26153846153846</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2039,10 +2981,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C43">
+        <v>2011</v>
       </c>
       <c r="D43">
         <v>51</v>
@@ -2068,6 +3008,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43">
+        <v>65</v>
+      </c>
+      <c r="L43">
+        <v>172</v>
+      </c>
+      <c r="M43">
+        <v>59.91</v>
+      </c>
+      <c r="N43">
+        <v>50.45</v>
+      </c>
+      <c r="O43">
+        <v>34.83139534883721</v>
+      </c>
+      <c r="P43">
+        <v>117.3255813953488</v>
+      </c>
+      <c r="Q43">
+        <v>92.16923076923077</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2080,10 +3044,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C44">
+        <v>2012</v>
       </c>
       <c r="D44">
         <v>53</v>
@@ -2109,6 +3071,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>65</v>
+      </c>
+      <c r="L44">
+        <v>172</v>
+      </c>
+      <c r="M44">
+        <v>53.58</v>
+      </c>
+      <c r="N44">
+        <v>50.58</v>
+      </c>
+      <c r="O44">
+        <v>31.15116279069767</v>
+      </c>
+      <c r="P44">
+        <v>117.6279069767442</v>
+      </c>
+      <c r="Q44">
+        <v>82.43076923076923</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2121,10 +3107,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C45">
+        <v>2013</v>
       </c>
       <c r="D45">
         <v>50</v>
@@ -2150,6 +3134,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <v>172</v>
+      </c>
+      <c r="M45">
+        <v>53.63</v>
+      </c>
+      <c r="N45">
+        <v>50.69</v>
+      </c>
+      <c r="O45">
+        <v>31.18023255813954</v>
+      </c>
+      <c r="P45">
+        <v>117.8837209302326</v>
+      </c>
+      <c r="Q45">
+        <v>82.50769230769231</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2162,10 +3170,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C46">
+        <v>2014</v>
       </c>
       <c r="D46">
         <v>49</v>
@@ -2191,6 +3197,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J46">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>65</v>
+      </c>
+      <c r="L46">
+        <v>172</v>
+      </c>
+      <c r="M46">
+        <v>34.08</v>
+      </c>
+      <c r="N46">
+        <v>30.65</v>
+      </c>
+      <c r="O46">
+        <v>19.81395348837209</v>
+      </c>
+      <c r="P46">
+        <v>71.27906976744185</v>
+      </c>
+      <c r="Q46">
+        <v>52.43076923076922</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2203,10 +3233,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C47">
+        <v>2015</v>
       </c>
       <c r="D47">
         <v>50</v>
@@ -2232,6 +3260,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J47">
+        <v>43</v>
+      </c>
+      <c r="K47">
+        <v>65</v>
+      </c>
+      <c r="L47">
+        <v>172</v>
+      </c>
+      <c r="M47">
+        <v>34.08</v>
+      </c>
+      <c r="N47">
+        <v>30.65</v>
+      </c>
+      <c r="O47">
+        <v>19.81395348837209</v>
+      </c>
+      <c r="P47">
+        <v>71.27906976744185</v>
+      </c>
+      <c r="Q47">
+        <v>52.43076923076922</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2244,10 +3296,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C48">
+        <v>2016</v>
       </c>
       <c r="D48">
         <v>54</v>
@@ -2273,6 +3323,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J48">
+        <v>43</v>
+      </c>
+      <c r="K48">
+        <v>65</v>
+      </c>
+      <c r="L48">
+        <v>172</v>
+      </c>
+      <c r="M48">
+        <v>73.11</v>
+      </c>
+      <c r="N48">
+        <v>69.42</v>
+      </c>
+      <c r="O48">
+        <v>42.50581395348837</v>
+      </c>
+      <c r="P48">
+        <v>161.4418604651163</v>
+      </c>
+      <c r="Q48">
+        <v>112.4769230769231</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2285,10 +3359,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C49">
+        <v>2017</v>
       </c>
       <c r="D49">
         <v>54</v>
@@ -2314,6 +3386,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>65</v>
+      </c>
+      <c r="L49">
+        <v>172</v>
+      </c>
+      <c r="M49">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="N49">
+        <v>70.78</v>
+      </c>
+      <c r="O49">
+        <v>45.01744186046512</v>
+      </c>
+      <c r="P49">
+        <v>164.6046511627907</v>
+      </c>
+      <c r="Q49">
+        <v>119.1230769230769</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2326,10 +3422,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C50">
+        <v>2018</v>
       </c>
       <c r="D50">
         <v>53</v>
@@ -2355,6 +3449,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J50">
+        <v>43</v>
+      </c>
+      <c r="K50">
+        <v>65</v>
+      </c>
+      <c r="L50">
+        <v>172</v>
+      </c>
+      <c r="M50">
+        <v>85.73999999999999</v>
+      </c>
+      <c r="N50">
+        <v>75.59</v>
+      </c>
+      <c r="O50">
+        <v>49.84883720930232</v>
+      </c>
+      <c r="P50">
+        <v>175.7906976744186</v>
+      </c>
+      <c r="Q50">
+        <v>131.9076923076923</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2367,10 +3485,8 @@
           <t>Piracicaba/Capivari/Jundiaí</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C51">
+        <v>2019</v>
       </c>
       <c r="D51">
         <v>53</v>
@@ -2396,6 +3512,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J51">
+        <v>43</v>
+      </c>
+      <c r="K51">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>172</v>
+      </c>
+      <c r="M51">
+        <v>88.67</v>
+      </c>
+      <c r="N51">
+        <v>78.98</v>
+      </c>
+      <c r="O51">
+        <v>51.55232558139535</v>
+      </c>
+      <c r="P51">
+        <v>183.6744186046512</v>
+      </c>
+      <c r="Q51">
+        <v>136.4153846153846</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2408,10 +3548,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C52">
+        <v>2010</v>
       </c>
       <c r="D52">
         <v>46</v>
@@ -2437,6 +3575,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>84</v>
+      </c>
+      <c r="M52">
+        <v>65.61</v>
+      </c>
+      <c r="N52">
+        <v>60.66</v>
+      </c>
+      <c r="O52">
+        <v>78.10714285714285</v>
+      </c>
+      <c r="P52">
+        <v>303.3</v>
+      </c>
+      <c r="Q52">
+        <v>211.6451612903226</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2449,10 +3611,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C53">
+        <v>2011</v>
       </c>
       <c r="D53">
         <v>46</v>
@@ -2478,6 +3638,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>31</v>
+      </c>
+      <c r="L53">
+        <v>84</v>
+      </c>
+      <c r="M53">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="N53">
+        <v>60.65</v>
+      </c>
+      <c r="O53">
+        <v>78.75000000000001</v>
+      </c>
+      <c r="P53">
+        <v>303.25</v>
+      </c>
+      <c r="Q53">
+        <v>213.3870967741936</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2490,10 +3674,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C54">
+        <v>2012</v>
       </c>
       <c r="D54">
         <v>41</v>
@@ -2519,6 +3701,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>31</v>
+      </c>
+      <c r="L54">
+        <v>84</v>
+      </c>
+      <c r="M54">
+        <v>67.81</v>
+      </c>
+      <c r="N54">
+        <v>62.07</v>
+      </c>
+      <c r="O54">
+        <v>80.72619047619047</v>
+      </c>
+      <c r="P54">
+        <v>310.35</v>
+      </c>
+      <c r="Q54">
+        <v>218.741935483871</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2531,10 +3737,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C55">
+        <v>2013</v>
       </c>
       <c r="D55">
         <v>41</v>
@@ -2560,6 +3764,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>31</v>
+      </c>
+      <c r="L55">
+        <v>84</v>
+      </c>
+      <c r="M55">
+        <v>51.98</v>
+      </c>
+      <c r="N55">
+        <v>46.11</v>
+      </c>
+      <c r="O55">
+        <v>61.88095238095238</v>
+      </c>
+      <c r="P55">
+        <v>230.55</v>
+      </c>
+      <c r="Q55">
+        <v>167.6774193548387</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2572,10 +3800,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C56">
+        <v>2014</v>
       </c>
       <c r="D56">
         <v>38</v>
@@ -2601,6 +3827,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>31</v>
+      </c>
+      <c r="L56">
+        <v>84</v>
+      </c>
+      <c r="M56">
+        <v>63.81</v>
+      </c>
+      <c r="N56">
+        <v>59.29</v>
+      </c>
+      <c r="O56">
+        <v>75.96428571428572</v>
+      </c>
+      <c r="P56">
+        <v>296.45</v>
+      </c>
+      <c r="Q56">
+        <v>205.8387096774194</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2613,10 +3863,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C57">
+        <v>2015</v>
       </c>
       <c r="D57">
         <v>39</v>
@@ -2642,6 +3890,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>31</v>
+      </c>
+      <c r="L57">
+        <v>84</v>
+      </c>
+      <c r="M57">
+        <v>63.81</v>
+      </c>
+      <c r="N57">
+        <v>59.29</v>
+      </c>
+      <c r="O57">
+        <v>75.96428571428572</v>
+      </c>
+      <c r="P57">
+        <v>296.45</v>
+      </c>
+      <c r="Q57">
+        <v>205.8387096774194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2654,10 +3926,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C58">
+        <v>2016</v>
       </c>
       <c r="D58">
         <v>41</v>
@@ -2683,6 +3953,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>31</v>
+      </c>
+      <c r="L58">
+        <v>84</v>
+      </c>
+      <c r="M58">
+        <v>55.49</v>
+      </c>
+      <c r="N58">
+        <v>51.14</v>
+      </c>
+      <c r="O58">
+        <v>66.05952380952381</v>
+      </c>
+      <c r="P58">
+        <v>255.7</v>
+      </c>
+      <c r="Q58">
+        <v>179</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2695,10 +3989,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C59">
+        <v>2017</v>
       </c>
       <c r="D59">
         <v>41</v>
@@ -2724,6 +4016,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>31</v>
+      </c>
+      <c r="L59">
+        <v>84</v>
+      </c>
+      <c r="M59">
+        <v>57.53</v>
+      </c>
+      <c r="N59">
+        <v>51.16</v>
+      </c>
+      <c r="O59">
+        <v>68.48809523809524</v>
+      </c>
+      <c r="P59">
+        <v>255.8</v>
+      </c>
+      <c r="Q59">
+        <v>185.5806451612903</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2736,10 +4052,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C60">
+        <v>2018</v>
       </c>
       <c r="D60">
         <v>40</v>
@@ -2765,6 +4079,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>31</v>
+      </c>
+      <c r="L60">
+        <v>84</v>
+      </c>
+      <c r="M60">
+        <v>60.95</v>
+      </c>
+      <c r="N60">
+        <v>52.29</v>
+      </c>
+      <c r="O60">
+        <v>72.55952380952382</v>
+      </c>
+      <c r="P60">
+        <v>261.45</v>
+      </c>
+      <c r="Q60">
+        <v>196.6129032258065</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2777,10 +4115,8 @@
           <t>Alto Tietê</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C61">
+        <v>2019</v>
       </c>
       <c r="D61">
         <v>40</v>
@@ -2806,6 +4142,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>84</v>
+      </c>
+      <c r="M61">
+        <v>60.03</v>
+      </c>
+      <c r="N61">
+        <v>52.07</v>
+      </c>
+      <c r="O61">
+        <v>71.46428571428571</v>
+      </c>
+      <c r="P61">
+        <v>260.35</v>
+      </c>
+      <c r="Q61">
+        <v>193.6451612903226</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2818,10 +4178,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C62">
+        <v>2010</v>
       </c>
       <c r="D62">
         <v>58</v>
@@ -2847,6 +4205,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J62">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>58</v>
+      </c>
+      <c r="L62">
+        <v>155</v>
+      </c>
+      <c r="M62">
+        <v>18.26</v>
+      </c>
+      <c r="N62">
+        <v>18.22</v>
+      </c>
+      <c r="O62">
+        <v>11.78064516129032</v>
+      </c>
+      <c r="P62">
+        <v>47.94736842105263</v>
+      </c>
+      <c r="Q62">
+        <v>31.48275862068966</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2859,10 +4241,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C63">
+        <v>2011</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -2888,6 +4268,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J63">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>58</v>
+      </c>
+      <c r="L63">
+        <v>155</v>
+      </c>
+      <c r="M63">
+        <v>17.34</v>
+      </c>
+      <c r="N63">
+        <v>17.29</v>
+      </c>
+      <c r="O63">
+        <v>11.18709677419355</v>
+      </c>
+      <c r="P63">
+        <v>45.49999999999999</v>
+      </c>
+      <c r="Q63">
+        <v>29.89655172413793</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2900,10 +4304,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C64">
+        <v>2012</v>
       </c>
       <c r="D64">
         <v>61</v>
@@ -2929,6 +4331,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J64">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>58</v>
+      </c>
+      <c r="L64">
+        <v>155</v>
+      </c>
+      <c r="M64">
+        <v>17.34</v>
+      </c>
+      <c r="N64">
+        <v>17.31</v>
+      </c>
+      <c r="O64">
+        <v>11.18709677419355</v>
+      </c>
+      <c r="P64">
+        <v>45.55263157894737</v>
+      </c>
+      <c r="Q64">
+        <v>29.89655172413793</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2941,10 +4367,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C65">
+        <v>2013</v>
       </c>
       <c r="D65">
         <v>60</v>
@@ -2970,6 +4394,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J65">
+        <v>38</v>
+      </c>
+      <c r="K65">
+        <v>58</v>
+      </c>
+      <c r="L65">
+        <v>155</v>
+      </c>
+      <c r="M65">
+        <v>18.84</v>
+      </c>
+      <c r="N65">
+        <v>18.8</v>
+      </c>
+      <c r="O65">
+        <v>12.15483870967742</v>
+      </c>
+      <c r="P65">
+        <v>49.47368421052632</v>
+      </c>
+      <c r="Q65">
+        <v>32.48275862068966</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2982,10 +4430,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C66">
+        <v>2014</v>
       </c>
       <c r="D66">
         <v>59</v>
@@ -3011,6 +4457,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J66">
+        <v>38</v>
+      </c>
+      <c r="K66">
+        <v>58</v>
+      </c>
+      <c r="L66">
+        <v>155</v>
+      </c>
+      <c r="M66">
+        <v>18.43</v>
+      </c>
+      <c r="N66">
+        <v>18.38</v>
+      </c>
+      <c r="O66">
+        <v>11.89032258064516</v>
+      </c>
+      <c r="P66">
+        <v>48.36842105263158</v>
+      </c>
+      <c r="Q66">
+        <v>31.77586206896552</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3023,10 +4493,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C67">
+        <v>2015</v>
       </c>
       <c r="D67">
         <v>56</v>
@@ -3052,6 +4520,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J67">
+        <v>38</v>
+      </c>
+      <c r="K67">
+        <v>58</v>
+      </c>
+      <c r="L67">
+        <v>155</v>
+      </c>
+      <c r="M67">
+        <v>18.43</v>
+      </c>
+      <c r="N67">
+        <v>18.38</v>
+      </c>
+      <c r="O67">
+        <v>11.89032258064516</v>
+      </c>
+      <c r="P67">
+        <v>48.36842105263158</v>
+      </c>
+      <c r="Q67">
+        <v>31.77586206896552</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3064,10 +4556,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C68">
+        <v>2016</v>
       </c>
       <c r="D68">
         <v>54</v>
@@ -3093,6 +4583,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J68">
+        <v>38</v>
+      </c>
+      <c r="K68">
+        <v>58</v>
+      </c>
+      <c r="L68">
+        <v>155</v>
+      </c>
+      <c r="M68">
+        <v>19.47</v>
+      </c>
+      <c r="N68">
+        <v>19.43</v>
+      </c>
+      <c r="O68">
+        <v>12.56129032258065</v>
+      </c>
+      <c r="P68">
+        <v>51.13157894736842</v>
+      </c>
+      <c r="Q68">
+        <v>33.56896551724138</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3105,10 +4619,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C69">
+        <v>2017</v>
       </c>
       <c r="D69">
         <v>56</v>
@@ -3134,6 +4646,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J69">
+        <v>38</v>
+      </c>
+      <c r="K69">
+        <v>58</v>
+      </c>
+      <c r="L69">
+        <v>155</v>
+      </c>
+      <c r="M69">
+        <v>21.05</v>
+      </c>
+      <c r="N69">
+        <v>20.83</v>
+      </c>
+      <c r="O69">
+        <v>13.58064516129032</v>
+      </c>
+      <c r="P69">
+        <v>54.81578947368421</v>
+      </c>
+      <c r="Q69">
+        <v>36.29310344827586</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3146,10 +4682,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C70">
+        <v>2018</v>
       </c>
       <c r="D70">
         <v>57</v>
@@ -3175,6 +4709,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J70">
+        <v>38</v>
+      </c>
+      <c r="K70">
+        <v>58</v>
+      </c>
+      <c r="L70">
+        <v>155</v>
+      </c>
+      <c r="M70">
+        <v>18.61</v>
+      </c>
+      <c r="N70">
+        <v>18.38</v>
+      </c>
+      <c r="O70">
+        <v>12.00645161290323</v>
+      </c>
+      <c r="P70">
+        <v>48.36842105263158</v>
+      </c>
+      <c r="Q70">
+        <v>32.08620689655172</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3187,10 +4745,8 @@
           <t>Baixada Santista</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C71">
+        <v>2019</v>
       </c>
       <c r="D71">
         <v>57</v>
@@ -3216,6 +4772,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J71">
+        <v>38</v>
+      </c>
+      <c r="K71">
+        <v>58</v>
+      </c>
+      <c r="L71">
+        <v>155</v>
+      </c>
+      <c r="M71">
+        <v>18.47</v>
+      </c>
+      <c r="N71">
+        <v>18.42</v>
+      </c>
+      <c r="O71">
+        <v>11.91612903225806</v>
+      </c>
+      <c r="P71">
+        <v>48.47368421052632</v>
+      </c>
+      <c r="Q71">
+        <v>31.84482758620689</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3228,10 +4808,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C72">
+        <v>2010</v>
       </c>
       <c r="D72">
         <v>62</v>
@@ -3254,6 +4832,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J72">
+        <v>28</v>
+      </c>
+      <c r="K72">
+        <v>46</v>
+      </c>
+      <c r="L72">
+        <v>146</v>
+      </c>
+      <c r="M72">
+        <v>4.84</v>
+      </c>
+      <c r="N72">
+        <v>3.88</v>
+      </c>
+      <c r="O72">
+        <v>3.315068493150685</v>
+      </c>
+      <c r="P72">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="Q72">
+        <v>10.52173913043478</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3266,10 +4868,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C73">
+        <v>2011</v>
       </c>
       <c r="D73">
         <v>68</v>
@@ -3292,6 +4892,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J73">
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <v>46</v>
+      </c>
+      <c r="L73">
+        <v>146</v>
+      </c>
+      <c r="M73">
+        <v>4.87</v>
+      </c>
+      <c r="N73">
+        <v>3.85</v>
+      </c>
+      <c r="O73">
+        <v>3.335616438356164</v>
+      </c>
+      <c r="P73">
+        <v>13.75</v>
+      </c>
+      <c r="Q73">
+        <v>10.58695652173913</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3304,10 +4928,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C74">
+        <v>2012</v>
       </c>
       <c r="D74">
         <v>68</v>
@@ -3330,6 +4952,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J74">
+        <v>28</v>
+      </c>
+      <c r="K74">
+        <v>46</v>
+      </c>
+      <c r="L74">
+        <v>146</v>
+      </c>
+      <c r="M74">
+        <v>5.02</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <v>3.438356164383562</v>
+      </c>
+      <c r="P74">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="Q74">
+        <v>10.91304347826087</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3342,10 +4988,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C75">
+        <v>2013</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -3368,6 +5012,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J75">
+        <v>28</v>
+      </c>
+      <c r="K75">
+        <v>46</v>
+      </c>
+      <c r="L75">
+        <v>146</v>
+      </c>
+      <c r="M75">
+        <v>4.99</v>
+      </c>
+      <c r="N75">
+        <v>3.91</v>
+      </c>
+      <c r="O75">
+        <v>3.417808219178083</v>
+      </c>
+      <c r="P75">
+        <v>13.96428571428572</v>
+      </c>
+      <c r="Q75">
+        <v>10.84782608695652</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3380,10 +5048,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C76">
+        <v>2014</v>
       </c>
       <c r="D76">
         <v>65</v>
@@ -3406,6 +5072,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J76">
+        <v>28</v>
+      </c>
+      <c r="K76">
+        <v>46</v>
+      </c>
+      <c r="L76">
+        <v>146</v>
+      </c>
+      <c r="M76">
+        <v>6.24</v>
+      </c>
+      <c r="N76">
+        <v>4.91</v>
+      </c>
+      <c r="O76">
+        <v>4.273972602739726</v>
+      </c>
+      <c r="P76">
+        <v>17.53571428571428</v>
+      </c>
+      <c r="Q76">
+        <v>13.56521739130435</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3418,10 +5108,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C77">
+        <v>2015</v>
       </c>
       <c r="D77">
         <v>67</v>
@@ -3444,6 +5132,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J77">
+        <v>28</v>
+      </c>
+      <c r="K77">
+        <v>46</v>
+      </c>
+      <c r="L77">
+        <v>146</v>
+      </c>
+      <c r="M77">
+        <v>6.24</v>
+      </c>
+      <c r="N77">
+        <v>4.91</v>
+      </c>
+      <c r="O77">
+        <v>4.273972602739726</v>
+      </c>
+      <c r="P77">
+        <v>17.53571428571428</v>
+      </c>
+      <c r="Q77">
+        <v>13.56521739130435</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3456,10 +5168,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C78">
+        <v>2016</v>
       </c>
       <c r="D78">
         <v>63</v>
@@ -3482,6 +5192,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J78">
+        <v>28</v>
+      </c>
+      <c r="K78">
+        <v>46</v>
+      </c>
+      <c r="L78">
+        <v>146</v>
+      </c>
+      <c r="M78">
+        <v>5.94</v>
+      </c>
+      <c r="N78">
+        <v>4.72</v>
+      </c>
+      <c r="O78">
+        <v>4.068493150684932</v>
+      </c>
+      <c r="P78">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="Q78">
+        <v>12.91304347826087</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3494,10 +5228,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C79">
+        <v>2017</v>
       </c>
       <c r="D79">
         <v>64</v>
@@ -3520,6 +5252,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J79">
+        <v>28</v>
+      </c>
+      <c r="K79">
+        <v>46</v>
+      </c>
+      <c r="L79">
+        <v>146</v>
+      </c>
+      <c r="M79">
+        <v>7.71</v>
+      </c>
+      <c r="N79">
+        <v>6.37</v>
+      </c>
+      <c r="O79">
+        <v>5.280821917808219</v>
+      </c>
+      <c r="P79">
+        <v>22.75</v>
+      </c>
+      <c r="Q79">
+        <v>16.76086956521739</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3532,10 +5288,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C80">
+        <v>2018</v>
       </c>
       <c r="D80">
         <v>66</v>
@@ -3561,6 +5315,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J80">
+        <v>28</v>
+      </c>
+      <c r="K80">
+        <v>46</v>
+      </c>
+      <c r="L80">
+        <v>146</v>
+      </c>
+      <c r="M80">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N80">
+        <v>7.36</v>
+      </c>
+      <c r="O80">
+        <v>6.54109589041096</v>
+      </c>
+      <c r="P80">
+        <v>26.28571428571428</v>
+      </c>
+      <c r="Q80">
+        <v>20.76086956521739</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3573,10 +5351,8 @@
           <t>Sapucaí/Grande</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C81">
+        <v>2019</v>
       </c>
       <c r="D81">
         <v>63</v>
@@ -3602,6 +5378,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J81">
+        <v>28</v>
+      </c>
+      <c r="K81">
+        <v>46</v>
+      </c>
+      <c r="L81">
+        <v>146</v>
+      </c>
+      <c r="M81">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="N81">
+        <v>7.23</v>
+      </c>
+      <c r="O81">
+        <v>6.479452054794521</v>
+      </c>
+      <c r="P81">
+        <v>25.82142857142857</v>
+      </c>
+      <c r="Q81">
+        <v>20.56521739130435</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3614,10 +5414,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C82">
+        <v>2010</v>
       </c>
       <c r="D82">
         <v>58</v>
@@ -3643,6 +5441,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J82">
+        <v>48</v>
+      </c>
+      <c r="K82">
+        <v>72</v>
+      </c>
+      <c r="L82">
+        <v>199</v>
+      </c>
+      <c r="M82">
+        <v>19.51</v>
+      </c>
+      <c r="N82">
+        <v>16.9</v>
+      </c>
+      <c r="O82">
+        <v>9.804020100502512</v>
+      </c>
+      <c r="P82">
+        <v>35.20833333333333</v>
+      </c>
+      <c r="Q82">
+        <v>27.09722222222222</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3655,10 +5477,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C83">
+        <v>2011</v>
       </c>
       <c r="D83">
         <v>61</v>
@@ -3684,6 +5504,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J83">
+        <v>48</v>
+      </c>
+      <c r="K83">
+        <v>72</v>
+      </c>
+      <c r="L83">
+        <v>199</v>
+      </c>
+      <c r="M83">
+        <v>18.98</v>
+      </c>
+      <c r="N83">
+        <v>16.01</v>
+      </c>
+      <c r="O83">
+        <v>9.537688442211055</v>
+      </c>
+      <c r="P83">
+        <v>33.35416666666667</v>
+      </c>
+      <c r="Q83">
+        <v>26.36111111111111</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3696,10 +5540,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C84">
+        <v>2012</v>
       </c>
       <c r="D84">
         <v>57</v>
@@ -3725,6 +5567,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J84">
+        <v>48</v>
+      </c>
+      <c r="K84">
+        <v>72</v>
+      </c>
+      <c r="L84">
+        <v>199</v>
+      </c>
+      <c r="M84">
+        <v>19.59</v>
+      </c>
+      <c r="N84">
+        <v>16.47</v>
+      </c>
+      <c r="O84">
+        <v>9.844221105527637</v>
+      </c>
+      <c r="P84">
+        <v>34.31249999999999</v>
+      </c>
+      <c r="Q84">
+        <v>27.20833333333334</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3737,10 +5603,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C85">
+        <v>2013</v>
       </c>
       <c r="D85">
         <v>59</v>
@@ -3766,6 +5630,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J85">
+        <v>48</v>
+      </c>
+      <c r="K85">
+        <v>72</v>
+      </c>
+      <c r="L85">
+        <v>199</v>
+      </c>
+      <c r="M85">
+        <v>20.91</v>
+      </c>
+      <c r="N85">
+        <v>17.69</v>
+      </c>
+      <c r="O85">
+        <v>10.50753768844221</v>
+      </c>
+      <c r="P85">
+        <v>36.85416666666667</v>
+      </c>
+      <c r="Q85">
+        <v>29.04166666666666</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3778,10 +5666,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C86">
+        <v>2014</v>
       </c>
       <c r="D86">
         <v>60</v>
@@ -3807,6 +5693,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J86">
+        <v>48</v>
+      </c>
+      <c r="K86">
+        <v>72</v>
+      </c>
+      <c r="L86">
+        <v>199</v>
+      </c>
+      <c r="M86">
+        <v>23.07</v>
+      </c>
+      <c r="N86">
+        <v>19.5</v>
+      </c>
+      <c r="O86">
+        <v>11.5929648241206</v>
+      </c>
+      <c r="P86">
+        <v>40.625</v>
+      </c>
+      <c r="Q86">
+        <v>32.04166666666667</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3819,10 +5729,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C87">
+        <v>2015</v>
       </c>
       <c r="D87">
         <v>59</v>
@@ -3848,6 +5756,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J87">
+        <v>48</v>
+      </c>
+      <c r="K87">
+        <v>72</v>
+      </c>
+      <c r="L87">
+        <v>199</v>
+      </c>
+      <c r="M87">
+        <v>23.07</v>
+      </c>
+      <c r="N87">
+        <v>19.5</v>
+      </c>
+      <c r="O87">
+        <v>11.5929648241206</v>
+      </c>
+      <c r="P87">
+        <v>40.625</v>
+      </c>
+      <c r="Q87">
+        <v>32.04166666666667</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3860,10 +5792,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C88">
+        <v>2016</v>
       </c>
       <c r="D88">
         <v>60</v>
@@ -3889,6 +5819,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J88">
+        <v>48</v>
+      </c>
+      <c r="K88">
+        <v>72</v>
+      </c>
+      <c r="L88">
+        <v>199</v>
+      </c>
+      <c r="M88">
+        <v>23.34</v>
+      </c>
+      <c r="N88">
+        <v>19.76</v>
+      </c>
+      <c r="O88">
+        <v>11.7286432160804</v>
+      </c>
+      <c r="P88">
+        <v>41.16666666666667</v>
+      </c>
+      <c r="Q88">
+        <v>32.41666666666666</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3901,10 +5855,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C89">
+        <v>2017</v>
       </c>
       <c r="D89">
         <v>59</v>
@@ -3930,6 +5882,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J89">
+        <v>48</v>
+      </c>
+      <c r="K89">
+        <v>72</v>
+      </c>
+      <c r="L89">
+        <v>199</v>
+      </c>
+      <c r="M89">
+        <v>26.31</v>
+      </c>
+      <c r="N89">
+        <v>21.59</v>
+      </c>
+      <c r="O89">
+        <v>13.22110552763819</v>
+      </c>
+      <c r="P89">
+        <v>44.97916666666666</v>
+      </c>
+      <c r="Q89">
+        <v>36.54166666666666</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3942,10 +5918,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C90">
+        <v>2018</v>
       </c>
       <c r="D90">
         <v>60</v>
@@ -3971,6 +5945,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J90">
+        <v>48</v>
+      </c>
+      <c r="K90">
+        <v>72</v>
+      </c>
+      <c r="L90">
+        <v>199</v>
+      </c>
+      <c r="M90">
+        <v>30.13</v>
+      </c>
+      <c r="N90">
+        <v>24.65</v>
+      </c>
+      <c r="O90">
+        <v>15.14070351758794</v>
+      </c>
+      <c r="P90">
+        <v>51.35416666666666</v>
+      </c>
+      <c r="Q90">
+        <v>41.84722222222222</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3983,10 +5981,8 @@
           <t>Mogi-Guaçu</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C91">
+        <v>2019</v>
       </c>
       <c r="D91">
         <v>58</v>
@@ -4012,6 +6008,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J91">
+        <v>48</v>
+      </c>
+      <c r="K91">
+        <v>72</v>
+      </c>
+      <c r="L91">
+        <v>199</v>
+      </c>
+      <c r="M91">
+        <v>29.34</v>
+      </c>
+      <c r="N91">
+        <v>24.01</v>
+      </c>
+      <c r="O91">
+        <v>14.74371859296483</v>
+      </c>
+      <c r="P91">
+        <v>50.02083333333334</v>
+      </c>
+      <c r="Q91">
+        <v>40.75</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4024,10 +6044,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C92">
+        <v>2010</v>
       </c>
       <c r="D92">
         <v>52</v>
@@ -4053,6 +6071,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J92">
+        <v>22</v>
+      </c>
+      <c r="K92">
+        <v>39</v>
+      </c>
+      <c r="L92">
+        <v>107</v>
+      </c>
+      <c r="M92">
+        <v>10.9</v>
+      </c>
+      <c r="N92">
+        <v>9.67</v>
+      </c>
+      <c r="O92">
+        <v>10.18691588785047</v>
+      </c>
+      <c r="P92">
+        <v>43.95454545454545</v>
+      </c>
+      <c r="Q92">
+        <v>27.94871794871795</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4065,10 +6107,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C93">
+        <v>2011</v>
       </c>
       <c r="D93">
         <v>53</v>
@@ -4094,6 +6134,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J93">
+        <v>22</v>
+      </c>
+      <c r="K93">
+        <v>39</v>
+      </c>
+      <c r="L93">
+        <v>107</v>
+      </c>
+      <c r="M93">
+        <v>11.13</v>
+      </c>
+      <c r="N93">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="O93">
+        <v>10.40186915887851</v>
+      </c>
+      <c r="P93">
+        <v>44.18181818181818</v>
+      </c>
+      <c r="Q93">
+        <v>28.53846153846154</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4106,10 +6170,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C94">
+        <v>2012</v>
       </c>
       <c r="D94">
         <v>56</v>
@@ -4135,6 +6197,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J94">
+        <v>22</v>
+      </c>
+      <c r="K94">
+        <v>39</v>
+      </c>
+      <c r="L94">
+        <v>107</v>
+      </c>
+      <c r="M94">
+        <v>11.61</v>
+      </c>
+      <c r="N94">
+        <v>10.06</v>
+      </c>
+      <c r="O94">
+        <v>10.85046728971963</v>
+      </c>
+      <c r="P94">
+        <v>45.72727272727273</v>
+      </c>
+      <c r="Q94">
+        <v>29.76923076923077</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4147,10 +6233,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C95">
+        <v>2013</v>
       </c>
       <c r="D95">
         <v>54</v>
@@ -4176,6 +6260,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J95">
+        <v>22</v>
+      </c>
+      <c r="K95">
+        <v>39</v>
+      </c>
+      <c r="L95">
+        <v>107</v>
+      </c>
+      <c r="M95">
+        <v>11.36</v>
+      </c>
+      <c r="N95">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="O95">
+        <v>10.61682242990654</v>
+      </c>
+      <c r="P95">
+        <v>43.77272727272727</v>
+      </c>
+      <c r="Q95">
+        <v>29.12820512820512</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4188,10 +6296,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C96">
+        <v>2014</v>
       </c>
       <c r="D96">
         <v>51</v>
@@ -4217,6 +6323,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J96">
+        <v>22</v>
+      </c>
+      <c r="K96">
+        <v>39</v>
+      </c>
+      <c r="L96">
+        <v>107</v>
+      </c>
+      <c r="M96">
+        <v>11.59</v>
+      </c>
+      <c r="N96">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O96">
+        <v>10.83177570093458</v>
+      </c>
+      <c r="P96">
+        <v>44.09090909090909</v>
+      </c>
+      <c r="Q96">
+        <v>29.71794871794872</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4229,10 +6359,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C97">
+        <v>2015</v>
       </c>
       <c r="D97">
         <v>52</v>
@@ -4258,6 +6386,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J97">
+        <v>22</v>
+      </c>
+      <c r="K97">
+        <v>39</v>
+      </c>
+      <c r="L97">
+        <v>107</v>
+      </c>
+      <c r="M97">
+        <v>11.59</v>
+      </c>
+      <c r="N97">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O97">
+        <v>10.83177570093458</v>
+      </c>
+      <c r="P97">
+        <v>44.09090909090909</v>
+      </c>
+      <c r="Q97">
+        <v>29.71794871794872</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4270,10 +6422,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C98">
+        <v>2016</v>
       </c>
       <c r="D98">
         <v>56</v>
@@ -4299,6 +6449,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J98">
+        <v>22</v>
+      </c>
+      <c r="K98">
+        <v>39</v>
+      </c>
+      <c r="L98">
+        <v>107</v>
+      </c>
+      <c r="M98">
+        <v>11.76</v>
+      </c>
+      <c r="N98">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="O98">
+        <v>10.99065420560748</v>
+      </c>
+      <c r="P98">
+        <v>45.27272727272727</v>
+      </c>
+      <c r="Q98">
+        <v>30.15384615384615</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4311,10 +6485,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C99">
+        <v>2017</v>
       </c>
       <c r="D99">
         <v>58</v>
@@ -4340,6 +6512,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J99">
+        <v>22</v>
+      </c>
+      <c r="K99">
+        <v>39</v>
+      </c>
+      <c r="L99">
+        <v>107</v>
+      </c>
+      <c r="M99">
+        <v>15.98</v>
+      </c>
+      <c r="N99">
+        <v>13.01</v>
+      </c>
+      <c r="O99">
+        <v>14.93457943925234</v>
+      </c>
+      <c r="P99">
+        <v>59.13636363636363</v>
+      </c>
+      <c r="Q99">
+        <v>40.97435897435898</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4352,10 +6548,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C100">
+        <v>2018</v>
       </c>
       <c r="D100">
         <v>55</v>
@@ -4381,6 +6575,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J100">
+        <v>22</v>
+      </c>
+      <c r="K100">
+        <v>39</v>
+      </c>
+      <c r="L100">
+        <v>107</v>
+      </c>
+      <c r="M100">
+        <v>19.63</v>
+      </c>
+      <c r="N100">
+        <v>14.94</v>
+      </c>
+      <c r="O100">
+        <v>18.34579439252336</v>
+      </c>
+      <c r="P100">
+        <v>67.90909090909091</v>
+      </c>
+      <c r="Q100">
+        <v>50.33333333333333</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4393,10 +6611,8 @@
           <t>Tietê/Sorocaba</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C101">
+        <v>2019</v>
       </c>
       <c r="D101">
         <v>56</v>
@@ -4422,6 +6638,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J101">
+        <v>22</v>
+      </c>
+      <c r="K101">
+        <v>39</v>
+      </c>
+      <c r="L101">
+        <v>107</v>
+      </c>
+      <c r="M101">
+        <v>21.15</v>
+      </c>
+      <c r="N101">
+        <v>16.46</v>
+      </c>
+      <c r="O101">
+        <v>19.76635514018691</v>
+      </c>
+      <c r="P101">
+        <v>74.81818181818181</v>
+      </c>
+      <c r="Q101">
+        <v>54.23076923076923</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4434,10 +6674,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C102">
+        <v>2010</v>
       </c>
       <c r="D102">
         <v>57</v>
@@ -4460,6 +6698,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J102">
+        <v>162</v>
+      </c>
+      <c r="K102">
+        <v>229</v>
+      </c>
+      <c r="L102">
+        <v>526</v>
+      </c>
+      <c r="M102">
+        <v>3.28</v>
+      </c>
+      <c r="N102">
+        <v>3.21</v>
+      </c>
+      <c r="O102">
+        <v>0.623574144486692</v>
+      </c>
+      <c r="P102">
+        <v>1.981481481481481</v>
+      </c>
+      <c r="Q102">
+        <v>1.432314410480349</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4472,10 +6734,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C103">
+        <v>2011</v>
       </c>
       <c r="D103">
         <v>66</v>
@@ -4498,6 +6758,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J103">
+        <v>162</v>
+      </c>
+      <c r="K103">
+        <v>229</v>
+      </c>
+      <c r="L103">
+        <v>526</v>
+      </c>
+      <c r="M103">
+        <v>3.3</v>
+      </c>
+      <c r="N103">
+        <v>3.22</v>
+      </c>
+      <c r="O103">
+        <v>0.6273764258555132</v>
+      </c>
+      <c r="P103">
+        <v>1.987654320987654</v>
+      </c>
+      <c r="Q103">
+        <v>1.441048034934498</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4510,10 +6794,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C104">
+        <v>2012</v>
       </c>
       <c r="D104">
         <v>65</v>
@@ -4536,6 +6818,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J104">
+        <v>162</v>
+      </c>
+      <c r="K104">
+        <v>229</v>
+      </c>
+      <c r="L104">
+        <v>526</v>
+      </c>
+      <c r="M104">
+        <v>3.35</v>
+      </c>
+      <c r="N104">
+        <v>3.27</v>
+      </c>
+      <c r="O104">
+        <v>0.6368821292775666</v>
+      </c>
+      <c r="P104">
+        <v>2.018518518518519</v>
+      </c>
+      <c r="Q104">
+        <v>1.462882096069869</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4548,10 +6854,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C105">
+        <v>2013</v>
       </c>
       <c r="D105">
         <v>65</v>
@@ -4574,6 +6878,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J105">
+        <v>162</v>
+      </c>
+      <c r="K105">
+        <v>229</v>
+      </c>
+      <c r="L105">
+        <v>526</v>
+      </c>
+      <c r="M105">
+        <v>3.47</v>
+      </c>
+      <c r="N105">
+        <v>3.39</v>
+      </c>
+      <c r="O105">
+        <v>0.6596958174904943</v>
+      </c>
+      <c r="P105">
+        <v>2.092592592592593</v>
+      </c>
+      <c r="Q105">
+        <v>1.51528384279476</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4586,10 +6914,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C106">
+        <v>2014</v>
       </c>
       <c r="D106">
         <v>64</v>
@@ -4615,6 +6941,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J106">
+        <v>162</v>
+      </c>
+      <c r="K106">
+        <v>229</v>
+      </c>
+      <c r="L106">
+        <v>526</v>
+      </c>
+      <c r="M106">
+        <v>3.84</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
+        <v>0.7300380228136882</v>
+      </c>
+      <c r="P106">
+        <v>2.314814814814815</v>
+      </c>
+      <c r="Q106">
+        <v>1.676855895196506</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4627,10 +6977,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C107">
+        <v>2015</v>
       </c>
       <c r="D107">
         <v>60</v>
@@ -4656,6 +7004,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J107">
+        <v>162</v>
+      </c>
+      <c r="K107">
+        <v>229</v>
+      </c>
+      <c r="L107">
+        <v>526</v>
+      </c>
+      <c r="M107">
+        <v>3.84</v>
+      </c>
+      <c r="N107">
+        <v>3.75</v>
+      </c>
+      <c r="O107">
+        <v>0.7300380228136882</v>
+      </c>
+      <c r="P107">
+        <v>2.314814814814815</v>
+      </c>
+      <c r="Q107">
+        <v>1.676855895196506</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4668,10 +7040,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C108">
+        <v>2016</v>
       </c>
       <c r="D108">
         <v>64</v>
@@ -4697,6 +7067,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J108">
+        <v>162</v>
+      </c>
+      <c r="K108">
+        <v>229</v>
+      </c>
+      <c r="L108">
+        <v>526</v>
+      </c>
+      <c r="M108">
+        <v>2.73</v>
+      </c>
+      <c r="N108">
+        <v>2.65</v>
+      </c>
+      <c r="O108">
+        <v>0.5190114068441064</v>
+      </c>
+      <c r="P108">
+        <v>1.635802469135803</v>
+      </c>
+      <c r="Q108">
+        <v>1.192139737991266</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4709,10 +7103,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C109">
+        <v>2017</v>
       </c>
       <c r="D109">
         <v>65</v>
@@ -4738,6 +7130,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J109">
+        <v>162</v>
+      </c>
+      <c r="K109">
+        <v>229</v>
+      </c>
+      <c r="L109">
+        <v>526</v>
+      </c>
+      <c r="M109">
+        <v>2.82</v>
+      </c>
+      <c r="N109">
+        <v>2.72</v>
+      </c>
+      <c r="O109">
+        <v>0.5361216730038022</v>
+      </c>
+      <c r="P109">
+        <v>1.679012345679012</v>
+      </c>
+      <c r="Q109">
+        <v>1.231441048034934</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4750,10 +7166,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C110">
+        <v>2018</v>
       </c>
       <c r="D110">
         <v>67</v>
@@ -4779,6 +7193,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J110">
+        <v>162</v>
+      </c>
+      <c r="K110">
+        <v>229</v>
+      </c>
+      <c r="L110">
+        <v>526</v>
+      </c>
+      <c r="M110">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="N110">
+        <v>9.35</v>
+      </c>
+      <c r="O110">
+        <v>1.800380228136882</v>
+      </c>
+      <c r="P110">
+        <v>5.771604938271604</v>
+      </c>
+      <c r="Q110">
+        <v>4.135371179039302</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4791,10 +7229,8 @@
           <t>Ribeiro do Iguape/Litoral Sul</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C111">
+        <v>2019</v>
       </c>
       <c r="D111">
         <v>65</v>
@@ -4820,6 +7256,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J111">
+        <v>162</v>
+      </c>
+      <c r="K111">
+        <v>229</v>
+      </c>
+      <c r="L111">
+        <v>526</v>
+      </c>
+      <c r="M111">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N111">
+        <v>9.32</v>
+      </c>
+      <c r="O111">
+        <v>1.796577946768061</v>
+      </c>
+      <c r="P111">
+        <v>5.753086419753087</v>
+      </c>
+      <c r="Q111">
+        <v>4.126637554585153</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4832,10 +7292,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C112">
+        <v>2010</v>
       </c>
       <c r="D112">
         <v>59</v>
@@ -4858,6 +7316,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J112">
+        <v>21</v>
+      </c>
+      <c r="K112">
+        <v>31</v>
+      </c>
+      <c r="L112">
+        <v>87</v>
+      </c>
+      <c r="M112">
+        <v>15.22</v>
+      </c>
+      <c r="N112">
+        <v>13.59</v>
+      </c>
+      <c r="O112">
+        <v>17.49425287356322</v>
+      </c>
+      <c r="P112">
+        <v>64.71428571428571</v>
+      </c>
+      <c r="Q112">
+        <v>49.09677419354838</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4870,10 +7352,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C113">
+        <v>2011</v>
       </c>
       <c r="D113">
         <v>62</v>
@@ -4896,6 +7376,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J113">
+        <v>21</v>
+      </c>
+      <c r="K113">
+        <v>31</v>
+      </c>
+      <c r="L113">
+        <v>87</v>
+      </c>
+      <c r="M113">
+        <v>14.49</v>
+      </c>
+      <c r="N113">
+        <v>12.82</v>
+      </c>
+      <c r="O113">
+        <v>16.6551724137931</v>
+      </c>
+      <c r="P113">
+        <v>61.04761904761905</v>
+      </c>
+      <c r="Q113">
+        <v>46.74193548387097</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4908,10 +7412,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C114">
+        <v>2012</v>
       </c>
       <c r="D114">
         <v>60</v>
@@ -4934,6 +7436,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J114">
+        <v>21</v>
+      </c>
+      <c r="K114">
+        <v>31</v>
+      </c>
+      <c r="L114">
+        <v>87</v>
+      </c>
+      <c r="M114">
+        <v>14.16</v>
+      </c>
+      <c r="N114">
+        <v>12.55</v>
+      </c>
+      <c r="O114">
+        <v>16.27586206896552</v>
+      </c>
+      <c r="P114">
+        <v>59.76190476190476</v>
+      </c>
+      <c r="Q114">
+        <v>45.67741935483871</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4946,10 +7472,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C115">
+        <v>2013</v>
       </c>
       <c r="D115">
         <v>62</v>
@@ -4972,6 +7496,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J115">
+        <v>21</v>
+      </c>
+      <c r="K115">
+        <v>31</v>
+      </c>
+      <c r="L115">
+        <v>87</v>
+      </c>
+      <c r="M115">
+        <v>14.08</v>
+      </c>
+      <c r="N115">
+        <v>12.43</v>
+      </c>
+      <c r="O115">
+        <v>16.18390804597701</v>
+      </c>
+      <c r="P115">
+        <v>59.19047619047619</v>
+      </c>
+      <c r="Q115">
+        <v>45.41935483870968</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4984,10 +7532,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C116">
+        <v>2014</v>
       </c>
       <c r="D116">
         <v>61</v>
@@ -5010,6 +7556,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J116">
+        <v>21</v>
+      </c>
+      <c r="K116">
+        <v>31</v>
+      </c>
+      <c r="L116">
+        <v>87</v>
+      </c>
+      <c r="M116">
+        <v>16.65</v>
+      </c>
+      <c r="N116">
+        <v>14.47</v>
+      </c>
+      <c r="O116">
+        <v>19.13793103448276</v>
+      </c>
+      <c r="P116">
+        <v>68.90476190476191</v>
+      </c>
+      <c r="Q116">
+        <v>53.70967741935483</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5022,10 +7592,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C117">
+        <v>2015</v>
       </c>
       <c r="D117">
         <v>57</v>
@@ -5048,6 +7616,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J117">
+        <v>21</v>
+      </c>
+      <c r="K117">
+        <v>31</v>
+      </c>
+      <c r="L117">
+        <v>87</v>
+      </c>
+      <c r="M117">
+        <v>16.65</v>
+      </c>
+      <c r="N117">
+        <v>14.47</v>
+      </c>
+      <c r="O117">
+        <v>19.13793103448276</v>
+      </c>
+      <c r="P117">
+        <v>68.90476190476191</v>
+      </c>
+      <c r="Q117">
+        <v>53.70967741935483</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5060,10 +7652,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C118">
+        <v>2016</v>
       </c>
       <c r="D118">
         <v>63</v>
@@ -5089,6 +7679,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J118">
+        <v>21</v>
+      </c>
+      <c r="K118">
+        <v>31</v>
+      </c>
+      <c r="L118">
+        <v>87</v>
+      </c>
+      <c r="M118">
+        <v>15.59</v>
+      </c>
+      <c r="N118">
+        <v>13.37</v>
+      </c>
+      <c r="O118">
+        <v>17.91954022988506</v>
+      </c>
+      <c r="P118">
+        <v>63.66666666666666</v>
+      </c>
+      <c r="Q118">
+        <v>50.29032258064517</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5101,10 +7715,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C119">
+        <v>2017</v>
       </c>
       <c r="D119">
         <v>63</v>
@@ -5130,6 +7742,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J119">
+        <v>21</v>
+      </c>
+      <c r="K119">
+        <v>31</v>
+      </c>
+      <c r="L119">
+        <v>87</v>
+      </c>
+      <c r="M119">
+        <v>16.72</v>
+      </c>
+      <c r="N119">
+        <v>14.18</v>
+      </c>
+      <c r="O119">
+        <v>19.2183908045977</v>
+      </c>
+      <c r="P119">
+        <v>67.52380952380952</v>
+      </c>
+      <c r="Q119">
+        <v>53.93548387096774</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5142,10 +7778,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C120">
+        <v>2018</v>
       </c>
       <c r="D120">
         <v>65</v>
@@ -5171,6 +7805,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J120">
+        <v>21</v>
+      </c>
+      <c r="K120">
+        <v>31</v>
+      </c>
+      <c r="L120">
+        <v>87</v>
+      </c>
+      <c r="M120">
+        <v>17.6</v>
+      </c>
+      <c r="N120">
+        <v>14.32</v>
+      </c>
+      <c r="O120">
+        <v>20.22988505747127</v>
+      </c>
+      <c r="P120">
+        <v>68.19047619047619</v>
+      </c>
+      <c r="Q120">
+        <v>56.7741935483871</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5183,10 +7841,8 @@
           <t>Baixo Pardo/Grande</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C121">
+        <v>2019</v>
       </c>
       <c r="D121">
         <v>57</v>
@@ -5212,6 +7868,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J121">
+        <v>21</v>
+      </c>
+      <c r="K121">
+        <v>31</v>
+      </c>
+      <c r="L121">
+        <v>87</v>
+      </c>
+      <c r="M121">
+        <v>17.13</v>
+      </c>
+      <c r="N121">
+        <v>13.94</v>
+      </c>
+      <c r="O121">
+        <v>19.68965517241379</v>
+      </c>
+      <c r="P121">
+        <v>66.38095238095238</v>
+      </c>
+      <c r="Q121">
+        <v>55.25806451612902</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5224,10 +7904,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C122">
+        <v>2010</v>
       </c>
       <c r="D122">
         <v>62</v>
@@ -5253,6 +7931,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J122">
+        <v>40</v>
+      </c>
+      <c r="K122">
+        <v>50</v>
+      </c>
+      <c r="L122">
+        <v>97</v>
+      </c>
+      <c r="M122">
+        <v>16.4</v>
+      </c>
+      <c r="N122">
+        <v>11.22</v>
+      </c>
+      <c r="O122">
+        <v>16.90721649484536</v>
+      </c>
+      <c r="P122">
+        <v>28.05</v>
+      </c>
+      <c r="Q122">
+        <v>32.8</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5265,10 +7967,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C123">
+        <v>2011</v>
       </c>
       <c r="D123">
         <v>59</v>
@@ -5294,6 +7994,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J123">
+        <v>40</v>
+      </c>
+      <c r="K123">
+        <v>50</v>
+      </c>
+      <c r="L123">
+        <v>97</v>
+      </c>
+      <c r="M123">
+        <v>16.88</v>
+      </c>
+      <c r="N123">
+        <v>11.01</v>
+      </c>
+      <c r="O123">
+        <v>17.40206185567011</v>
+      </c>
+      <c r="P123">
+        <v>27.525</v>
+      </c>
+      <c r="Q123">
+        <v>33.76</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5306,10 +8030,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C124">
+        <v>2012</v>
       </c>
       <c r="D124">
         <v>59</v>
@@ -5335,6 +8057,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J124">
+        <v>40</v>
+      </c>
+      <c r="K124">
+        <v>50</v>
+      </c>
+      <c r="L124">
+        <v>97</v>
+      </c>
+      <c r="M124">
+        <v>17.25</v>
+      </c>
+      <c r="N124">
+        <v>11.06</v>
+      </c>
+      <c r="O124">
+        <v>17.78350515463918</v>
+      </c>
+      <c r="P124">
+        <v>27.65</v>
+      </c>
+      <c r="Q124">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5347,10 +8093,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C125">
+        <v>2013</v>
       </c>
       <c r="D125">
         <v>60</v>
@@ -5376,6 +8120,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J125">
+        <v>40</v>
+      </c>
+      <c r="K125">
+        <v>50</v>
+      </c>
+      <c r="L125">
+        <v>97</v>
+      </c>
+      <c r="M125">
+        <v>17.99</v>
+      </c>
+      <c r="N125">
+        <v>11.56</v>
+      </c>
+      <c r="O125">
+        <v>18.54639175257732</v>
+      </c>
+      <c r="P125">
+        <v>28.9</v>
+      </c>
+      <c r="Q125">
+        <v>35.98</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5388,10 +8156,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C126">
+        <v>2014</v>
       </c>
       <c r="D126">
         <v>60</v>
@@ -5417,6 +8183,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J126">
+        <v>40</v>
+      </c>
+      <c r="K126">
+        <v>50</v>
+      </c>
+      <c r="L126">
+        <v>97</v>
+      </c>
+      <c r="M126">
+        <v>19.71</v>
+      </c>
+      <c r="N126">
+        <v>12.98</v>
+      </c>
+      <c r="O126">
+        <v>20.31958762886598</v>
+      </c>
+      <c r="P126">
+        <v>32.45</v>
+      </c>
+      <c r="Q126">
+        <v>39.42</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5429,10 +8219,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C127">
+        <v>2015</v>
       </c>
       <c r="D127">
         <v>59</v>
@@ -5458,6 +8246,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J127">
+        <v>40</v>
+      </c>
+      <c r="K127">
+        <v>50</v>
+      </c>
+      <c r="L127">
+        <v>97</v>
+      </c>
+      <c r="M127">
+        <v>19.71</v>
+      </c>
+      <c r="N127">
+        <v>12.98</v>
+      </c>
+      <c r="O127">
+        <v>20.31958762886598</v>
+      </c>
+      <c r="P127">
+        <v>32.45</v>
+      </c>
+      <c r="Q127">
+        <v>39.42</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5470,10 +8282,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C128">
+        <v>2016</v>
       </c>
       <c r="D128">
         <v>61</v>
@@ -5499,6 +8309,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J128">
+        <v>40</v>
+      </c>
+      <c r="K128">
+        <v>50</v>
+      </c>
+      <c r="L128">
+        <v>97</v>
+      </c>
+      <c r="M128">
+        <v>20.62</v>
+      </c>
+      <c r="N128">
+        <v>14.7</v>
+      </c>
+      <c r="O128">
+        <v>21.25773195876289</v>
+      </c>
+      <c r="P128">
+        <v>36.75</v>
+      </c>
+      <c r="Q128">
+        <v>41.24</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5511,10 +8345,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C129">
+        <v>2017</v>
       </c>
       <c r="D129">
         <v>61</v>
@@ -5540,6 +8372,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J129">
+        <v>40</v>
+      </c>
+      <c r="K129">
+        <v>50</v>
+      </c>
+      <c r="L129">
+        <v>97</v>
+      </c>
+      <c r="M129">
+        <v>19.78</v>
+      </c>
+      <c r="N129">
+        <v>13.45</v>
+      </c>
+      <c r="O129">
+        <v>20.39175257731959</v>
+      </c>
+      <c r="P129">
+        <v>33.625</v>
+      </c>
+      <c r="Q129">
+        <v>39.56</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5552,10 +8408,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C130">
+        <v>2018</v>
       </c>
       <c r="D130">
         <v>63</v>
@@ -5581,6 +8435,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J130">
+        <v>40</v>
+      </c>
+      <c r="K130">
+        <v>50</v>
+      </c>
+      <c r="L130">
+        <v>97</v>
+      </c>
+      <c r="M130">
+        <v>22.98</v>
+      </c>
+      <c r="N130">
+        <v>15.52</v>
+      </c>
+      <c r="O130">
+        <v>23.69072164948454</v>
+      </c>
+      <c r="P130">
+        <v>38.8</v>
+      </c>
+      <c r="Q130">
+        <v>45.96</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5593,10 +8471,8 @@
           <t>Tietê/Jacaré</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C131">
+        <v>2019</v>
       </c>
       <c r="D131">
         <v>62</v>
@@ -5622,6 +8498,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J131">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>50</v>
+      </c>
+      <c r="L131">
+        <v>97</v>
+      </c>
+      <c r="M131">
+        <v>22.05</v>
+      </c>
+      <c r="N131">
+        <v>14.24</v>
+      </c>
+      <c r="O131">
+        <v>22.7319587628866</v>
+      </c>
+      <c r="P131">
+        <v>35.6</v>
+      </c>
+      <c r="Q131">
+        <v>44.1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5634,10 +8534,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C132">
+        <v>2010</v>
       </c>
       <c r="D132">
         <v>62</v>
@@ -5660,6 +8558,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J132">
+        <v>84</v>
+      </c>
+      <c r="K132">
+        <v>114</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+      <c r="M132">
+        <v>10.82</v>
+      </c>
+      <c r="N132">
+        <v>10.61</v>
+      </c>
+      <c r="O132">
+        <v>4.243137254901961</v>
+      </c>
+      <c r="P132">
+        <v>12.63095238095238</v>
+      </c>
+      <c r="Q132">
+        <v>9.491228070175438</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5672,10 +8594,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C133">
+        <v>2011</v>
       </c>
       <c r="D133">
         <v>65</v>
@@ -5698,6 +8618,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J133">
+        <v>84</v>
+      </c>
+      <c r="K133">
+        <v>114</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+      <c r="M133">
+        <v>10.75</v>
+      </c>
+      <c r="N133">
+        <v>10.47</v>
+      </c>
+      <c r="O133">
+        <v>4.215686274509804</v>
+      </c>
+      <c r="P133">
+        <v>12.46428571428572</v>
+      </c>
+      <c r="Q133">
+        <v>9.429824561403509</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5710,10 +8654,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C134">
+        <v>2012</v>
       </c>
       <c r="D134">
         <v>67</v>
@@ -5736,6 +8678,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J134">
+        <v>84</v>
+      </c>
+      <c r="K134">
+        <v>114</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+      <c r="M134">
+        <v>11.07</v>
+      </c>
+      <c r="N134">
+        <v>10.74</v>
+      </c>
+      <c r="O134">
+        <v>4.341176470588235</v>
+      </c>
+      <c r="P134">
+        <v>12.78571428571429</v>
+      </c>
+      <c r="Q134">
+        <v>9.710526315789474</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5748,10 +8714,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C135">
+        <v>2013</v>
       </c>
       <c r="D135">
         <v>65</v>
@@ -5774,6 +8738,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J135">
+        <v>84</v>
+      </c>
+      <c r="K135">
+        <v>114</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+      <c r="M135">
+        <v>11.85</v>
+      </c>
+      <c r="N135">
+        <v>11.45</v>
+      </c>
+      <c r="O135">
+        <v>4.647058823529412</v>
+      </c>
+      <c r="P135">
+        <v>13.63095238095238</v>
+      </c>
+      <c r="Q135">
+        <v>10.39473684210526</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5786,10 +8774,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C136">
+        <v>2014</v>
       </c>
       <c r="D136">
         <v>66</v>
@@ -5812,6 +8798,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J136">
+        <v>84</v>
+      </c>
+      <c r="K136">
+        <v>114</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+      <c r="M136">
+        <v>11.85</v>
+      </c>
+      <c r="N136">
+        <v>11.36</v>
+      </c>
+      <c r="O136">
+        <v>4.647058823529412</v>
+      </c>
+      <c r="P136">
+        <v>13.52380952380952</v>
+      </c>
+      <c r="Q136">
+        <v>10.39473684210526</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5824,10 +8834,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C137">
+        <v>2015</v>
       </c>
       <c r="D137">
         <v>67</v>
@@ -5850,6 +8858,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J137">
+        <v>84</v>
+      </c>
+      <c r="K137">
+        <v>114</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+      <c r="M137">
+        <v>11.85</v>
+      </c>
+      <c r="N137">
+        <v>11.36</v>
+      </c>
+      <c r="O137">
+        <v>4.647058823529412</v>
+      </c>
+      <c r="P137">
+        <v>13.52380952380952</v>
+      </c>
+      <c r="Q137">
+        <v>10.39473684210526</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5862,10 +8894,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C138">
+        <v>2016</v>
       </c>
       <c r="D138">
         <v>64</v>
@@ -5888,6 +8918,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J138">
+        <v>84</v>
+      </c>
+      <c r="K138">
+        <v>114</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+      <c r="M138">
+        <v>11.63</v>
+      </c>
+      <c r="N138">
+        <v>11.12</v>
+      </c>
+      <c r="O138">
+        <v>4.56078431372549</v>
+      </c>
+      <c r="P138">
+        <v>13.23809523809524</v>
+      </c>
+      <c r="Q138">
+        <v>10.20175438596491</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5900,10 +8954,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C139">
+        <v>2017</v>
       </c>
       <c r="D139">
         <v>64</v>
@@ -5926,6 +8978,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J139">
+        <v>84</v>
+      </c>
+      <c r="K139">
+        <v>114</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+      <c r="M139">
+        <v>14.62</v>
+      </c>
+      <c r="N139">
+        <v>14.03</v>
+      </c>
+      <c r="O139">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="P139">
+        <v>16.70238095238095</v>
+      </c>
+      <c r="Q139">
+        <v>12.82456140350877</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5938,10 +9014,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C140">
+        <v>2018</v>
       </c>
       <c r="D140">
         <v>66</v>
@@ -5964,6 +9038,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J140">
+        <v>84</v>
+      </c>
+      <c r="K140">
+        <v>114</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+      <c r="M140">
+        <v>21.31</v>
+      </c>
+      <c r="N140">
+        <v>20.43</v>
+      </c>
+      <c r="O140">
+        <v>8.356862745098038</v>
+      </c>
+      <c r="P140">
+        <v>24.32142857142857</v>
+      </c>
+      <c r="Q140">
+        <v>18.69298245614035</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5976,10 +9074,8 @@
           <t>Alto Paranapanema</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C141">
+        <v>2019</v>
       </c>
       <c r="D141">
         <v>68</v>
@@ -6002,6 +9098,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J141">
+        <v>84</v>
+      </c>
+      <c r="K141">
+        <v>114</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+      <c r="M141">
+        <v>20.82</v>
+      </c>
+      <c r="N141">
+        <v>20</v>
+      </c>
+      <c r="O141">
+        <v>8.164705882352942</v>
+      </c>
+      <c r="P141">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="Q141">
+        <v>18.26315789473684</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6014,10 +9134,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C142">
+        <v>2010</v>
       </c>
       <c r="D142">
         <v>54</v>
@@ -6043,6 +9161,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J142">
+        <v>26</v>
+      </c>
+      <c r="K142">
+        <v>39</v>
+      </c>
+      <c r="L142">
+        <v>121</v>
+      </c>
+      <c r="M142">
+        <v>15.29</v>
+      </c>
+      <c r="N142">
+        <v>10.61</v>
+      </c>
+      <c r="O142">
+        <v>12.63636363636363</v>
+      </c>
+      <c r="P142">
+        <v>40.80769230769231</v>
+      </c>
+      <c r="Q142">
+        <v>39.2051282051282</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6055,10 +9197,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C143">
+        <v>2011</v>
       </c>
       <c r="D143">
         <v>61</v>
@@ -6084,6 +9224,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J143">
+        <v>26</v>
+      </c>
+      <c r="K143">
+        <v>39</v>
+      </c>
+      <c r="L143">
+        <v>121</v>
+      </c>
+      <c r="M143">
+        <v>15.55</v>
+      </c>
+      <c r="N143">
+        <v>10.53</v>
+      </c>
+      <c r="O143">
+        <v>12.85123966942149</v>
+      </c>
+      <c r="P143">
+        <v>40.5</v>
+      </c>
+      <c r="Q143">
+        <v>39.87179487179488</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6096,10 +9260,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C144">
+        <v>2012</v>
       </c>
       <c r="D144">
         <v>60</v>
@@ -6125,6 +9287,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J144">
+        <v>26</v>
+      </c>
+      <c r="K144">
+        <v>39</v>
+      </c>
+      <c r="L144">
+        <v>121</v>
+      </c>
+      <c r="M144">
+        <v>19.41</v>
+      </c>
+      <c r="N144">
+        <v>10.74</v>
+      </c>
+      <c r="O144">
+        <v>16.04132231404959</v>
+      </c>
+      <c r="P144">
+        <v>41.30769230769231</v>
+      </c>
+      <c r="Q144">
+        <v>49.76923076923077</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6137,10 +9323,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C145">
+        <v>2013</v>
       </c>
       <c r="D145">
         <v>59</v>
@@ -6166,6 +9350,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J145">
+        <v>26</v>
+      </c>
+      <c r="K145">
+        <v>39</v>
+      </c>
+      <c r="L145">
+        <v>121</v>
+      </c>
+      <c r="M145">
+        <v>16.44</v>
+      </c>
+      <c r="N145">
+        <v>11.2</v>
+      </c>
+      <c r="O145">
+        <v>13.58677685950413</v>
+      </c>
+      <c r="P145">
+        <v>43.07692307692307</v>
+      </c>
+      <c r="Q145">
+        <v>42.15384615384616</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6178,10 +9386,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C146">
+        <v>2014</v>
       </c>
       <c r="D146">
         <v>57</v>
@@ -6207,6 +9413,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J146">
+        <v>26</v>
+      </c>
+      <c r="K146">
+        <v>39</v>
+      </c>
+      <c r="L146">
+        <v>121</v>
+      </c>
+      <c r="M146">
+        <v>18.97</v>
+      </c>
+      <c r="N146">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="O146">
+        <v>15.67768595041322</v>
+      </c>
+      <c r="P146">
+        <v>34.42307692307692</v>
+      </c>
+      <c r="Q146">
+        <v>48.64102564102564</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6219,10 +9449,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C147">
+        <v>2015</v>
       </c>
       <c r="D147">
         <v>60</v>
@@ -6248,6 +9476,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J147">
+        <v>26</v>
+      </c>
+      <c r="K147">
+        <v>39</v>
+      </c>
+      <c r="L147">
+        <v>121</v>
+      </c>
+      <c r="M147">
+        <v>18.97</v>
+      </c>
+      <c r="N147">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="O147">
+        <v>15.67768595041322</v>
+      </c>
+      <c r="P147">
+        <v>34.42307692307692</v>
+      </c>
+      <c r="Q147">
+        <v>48.64102564102564</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6260,10 +9512,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C148">
+        <v>2016</v>
       </c>
       <c r="D148">
         <v>60</v>
@@ -6289,6 +9539,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J148">
+        <v>26</v>
+      </c>
+      <c r="K148">
+        <v>39</v>
+      </c>
+      <c r="L148">
+        <v>121</v>
+      </c>
+      <c r="M148">
+        <v>15.99</v>
+      </c>
+      <c r="N148">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="O148">
+        <v>13.21487603305785</v>
+      </c>
+      <c r="P148">
+        <v>34.73076923076923</v>
+      </c>
+      <c r="Q148">
+        <v>41</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6301,10 +9575,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C149">
+        <v>2017</v>
       </c>
       <c r="D149">
         <v>61</v>
@@ -6330,6 +9602,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J149">
+        <v>26</v>
+      </c>
+      <c r="K149">
+        <v>39</v>
+      </c>
+      <c r="L149">
+        <v>121</v>
+      </c>
+      <c r="M149">
+        <v>17.58</v>
+      </c>
+      <c r="N149">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="O149">
+        <v>14.52892561983471</v>
+      </c>
+      <c r="P149">
+        <v>36.96153846153846</v>
+      </c>
+      <c r="Q149">
+        <v>45.07692307692307</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6342,10 +9638,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C150">
+        <v>2018</v>
       </c>
       <c r="D150">
         <v>62</v>
@@ -6371,6 +9665,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J150">
+        <v>26</v>
+      </c>
+      <c r="K150">
+        <v>39</v>
+      </c>
+      <c r="L150">
+        <v>121</v>
+      </c>
+      <c r="M150">
+        <v>18.89</v>
+      </c>
+      <c r="N150">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="O150">
+        <v>15.61157024793388</v>
+      </c>
+      <c r="P150">
+        <v>36.34615384615385</v>
+      </c>
+      <c r="Q150">
+        <v>48.43589743589744</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6383,10 +9701,8 @@
           <t>Turvo/Grande</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C151">
+        <v>2019</v>
       </c>
       <c r="D151">
         <v>60</v>
@@ -6412,6 +9728,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J151">
+        <v>26</v>
+      </c>
+      <c r="K151">
+        <v>39</v>
+      </c>
+      <c r="L151">
+        <v>121</v>
+      </c>
+      <c r="M151">
+        <v>18.28</v>
+      </c>
+      <c r="N151">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="O151">
+        <v>15.10743801652893</v>
+      </c>
+      <c r="P151">
+        <v>34.80769230769231</v>
+      </c>
+      <c r="Q151">
+        <v>46.87179487179488</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6424,10 +9764,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C152">
+        <v>2010</v>
       </c>
       <c r="D152">
         <v>76</v>
@@ -6453,6 +9791,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J152">
+        <v>31</v>
+      </c>
+      <c r="K152">
+        <v>40</v>
+      </c>
+      <c r="L152">
+        <v>98</v>
+      </c>
+      <c r="M152">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="N152">
+        <v>6.63</v>
+      </c>
+      <c r="O152">
+        <v>9.040816326530612</v>
+      </c>
+      <c r="P152">
+        <v>21.38709677419355</v>
+      </c>
+      <c r="Q152">
+        <v>22.15</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6465,10 +9827,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C153">
+        <v>2011</v>
       </c>
       <c r="D153">
         <v>78</v>
@@ -6494,6 +9854,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J153">
+        <v>31</v>
+      </c>
+      <c r="K153">
+        <v>40</v>
+      </c>
+      <c r="L153">
+        <v>98</v>
+      </c>
+      <c r="M153">
+        <v>9.18</v>
+      </c>
+      <c r="N153">
+        <v>6.71</v>
+      </c>
+      <c r="O153">
+        <v>9.36734693877551</v>
+      </c>
+      <c r="P153">
+        <v>21.64516129032258</v>
+      </c>
+      <c r="Q153">
+        <v>22.95</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6506,10 +9890,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C154">
+        <v>2012</v>
       </c>
       <c r="D154">
         <v>80</v>
@@ -6535,6 +9917,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J154">
+        <v>31</v>
+      </c>
+      <c r="K154">
+        <v>40</v>
+      </c>
+      <c r="L154">
+        <v>98</v>
+      </c>
+      <c r="M154">
+        <v>9.32</v>
+      </c>
+      <c r="N154">
+        <v>6.79</v>
+      </c>
+      <c r="O154">
+        <v>9.510204081632653</v>
+      </c>
+      <c r="P154">
+        <v>21.90322580645161</v>
+      </c>
+      <c r="Q154">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6547,10 +9953,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C155">
+        <v>2013</v>
       </c>
       <c r="D155">
         <v>79</v>
@@ -6576,6 +9980,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J155">
+        <v>31</v>
+      </c>
+      <c r="K155">
+        <v>40</v>
+      </c>
+      <c r="L155">
+        <v>98</v>
+      </c>
+      <c r="M155">
+        <v>9.31</v>
+      </c>
+      <c r="N155">
+        <v>6.61</v>
+      </c>
+      <c r="O155">
+        <v>9.5</v>
+      </c>
+      <c r="P155">
+        <v>21.32258064516129</v>
+      </c>
+      <c r="Q155">
+        <v>23.275</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6588,10 +10016,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C156">
+        <v>2014</v>
       </c>
       <c r="D156">
         <v>71</v>
@@ -6617,6 +10043,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J156">
+        <v>31</v>
+      </c>
+      <c r="K156">
+        <v>40</v>
+      </c>
+      <c r="L156">
+        <v>98</v>
+      </c>
+      <c r="M156">
+        <v>9.65</v>
+      </c>
+      <c r="N156">
+        <v>6.62</v>
+      </c>
+      <c r="O156">
+        <v>9.846938775510203</v>
+      </c>
+      <c r="P156">
+        <v>21.35483870967742</v>
+      </c>
+      <c r="Q156">
+        <v>24.125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6629,10 +10079,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C157">
+        <v>2015</v>
       </c>
       <c r="D157">
         <v>66</v>
@@ -6658,6 +10106,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J157">
+        <v>31</v>
+      </c>
+      <c r="K157">
+        <v>40</v>
+      </c>
+      <c r="L157">
+        <v>98</v>
+      </c>
+      <c r="M157">
+        <v>9.65</v>
+      </c>
+      <c r="N157">
+        <v>6.62</v>
+      </c>
+      <c r="O157">
+        <v>9.846938775510203</v>
+      </c>
+      <c r="P157">
+        <v>21.35483870967742</v>
+      </c>
+      <c r="Q157">
+        <v>24.125</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6670,10 +10142,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C158">
+        <v>2016</v>
       </c>
       <c r="D158">
         <v>73</v>
@@ -6699,6 +10169,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J158">
+        <v>31</v>
+      </c>
+      <c r="K158">
+        <v>40</v>
+      </c>
+      <c r="L158">
+        <v>98</v>
+      </c>
+      <c r="M158">
+        <v>11.05</v>
+      </c>
+      <c r="N158">
+        <v>8.1</v>
+      </c>
+      <c r="O158">
+        <v>11.27551020408163</v>
+      </c>
+      <c r="P158">
+        <v>26.12903225806452</v>
+      </c>
+      <c r="Q158">
+        <v>27.625</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6711,10 +10205,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C159">
+        <v>2017</v>
       </c>
       <c r="D159">
         <v>71</v>
@@ -6740,6 +10232,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J159">
+        <v>31</v>
+      </c>
+      <c r="K159">
+        <v>40</v>
+      </c>
+      <c r="L159">
+        <v>98</v>
+      </c>
+      <c r="M159">
+        <v>12.15</v>
+      </c>
+      <c r="N159">
+        <v>8.17</v>
+      </c>
+      <c r="O159">
+        <v>12.39795918367347</v>
+      </c>
+      <c r="P159">
+        <v>26.35483870967742</v>
+      </c>
+      <c r="Q159">
+        <v>30.375</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6752,10 +10268,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C160">
+        <v>2018</v>
       </c>
       <c r="D160">
         <v>75</v>
@@ -6781,6 +10295,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J160">
+        <v>31</v>
+      </c>
+      <c r="K160">
+        <v>40</v>
+      </c>
+      <c r="L160">
+        <v>98</v>
+      </c>
+      <c r="M160">
+        <v>16.32</v>
+      </c>
+      <c r="N160">
+        <v>10.72</v>
+      </c>
+      <c r="O160">
+        <v>16.6530612244898</v>
+      </c>
+      <c r="P160">
+        <v>34.58064516129033</v>
+      </c>
+      <c r="Q160">
+        <v>40.8</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6793,10 +10331,8 @@
           <t>Tietê/Batalha</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C161">
+        <v>2019</v>
       </c>
       <c r="D161">
         <v>66</v>
@@ -6822,6 +10358,30 @@
           <t>Ruim</t>
         </is>
       </c>
+      <c r="J161">
+        <v>31</v>
+      </c>
+      <c r="K161">
+        <v>40</v>
+      </c>
+      <c r="L161">
+        <v>98</v>
+      </c>
+      <c r="M161">
+        <v>14.73</v>
+      </c>
+      <c r="N161">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="O161">
+        <v>15.03061224489796</v>
+      </c>
+      <c r="P161">
+        <v>29.96774193548386</v>
+      </c>
+      <c r="Q161">
+        <v>36.825</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6834,10 +10394,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C162">
+        <v>2010</v>
       </c>
       <c r="D162">
         <v>70</v>
@@ -6863,6 +10421,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J162">
+        <v>65</v>
+      </c>
+      <c r="K162">
+        <v>82</v>
+      </c>
+      <c r="L162">
+        <v>155</v>
+      </c>
+      <c r="M162">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="N162">
+        <v>8.16</v>
+      </c>
+      <c r="O162">
+        <v>5.735483870967743</v>
+      </c>
+      <c r="P162">
+        <v>12.55384615384615</v>
+      </c>
+      <c r="Q162">
+        <v>10.84146341463415</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6875,10 +10457,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C163">
+        <v>2011</v>
       </c>
       <c r="D163">
         <v>71</v>
@@ -6904,6 +10484,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J163">
+        <v>65</v>
+      </c>
+      <c r="K163">
+        <v>82</v>
+      </c>
+      <c r="L163">
+        <v>155</v>
+      </c>
+      <c r="M163">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="N163">
+        <v>8.32</v>
+      </c>
+      <c r="O163">
+        <v>5.890322580645162</v>
+      </c>
+      <c r="P163">
+        <v>12.8</v>
+      </c>
+      <c r="Q163">
+        <v>11.13414634146342</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6916,10 +10520,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C164">
+        <v>2012</v>
       </c>
       <c r="D164">
         <v>73</v>
@@ -6945,6 +10547,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J164">
+        <v>65</v>
+      </c>
+      <c r="K164">
+        <v>82</v>
+      </c>
+      <c r="L164">
+        <v>155</v>
+      </c>
+      <c r="M164">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="N164">
+        <v>8.57</v>
+      </c>
+      <c r="O164">
+        <v>6.038709677419354</v>
+      </c>
+      <c r="P164">
+        <v>13.18461538461539</v>
+      </c>
+      <c r="Q164">
+        <v>11.41463414634146</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6957,10 +10583,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C165">
+        <v>2013</v>
       </c>
       <c r="D165">
         <v>72</v>
@@ -6986,6 +10610,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J165">
+        <v>65</v>
+      </c>
+      <c r="K165">
+        <v>82</v>
+      </c>
+      <c r="L165">
+        <v>155</v>
+      </c>
+      <c r="M165">
+        <v>10.23</v>
+      </c>
+      <c r="N165">
+        <v>8.99</v>
+      </c>
+      <c r="O165">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="P165">
+        <v>13.83076923076923</v>
+      </c>
+      <c r="Q165">
+        <v>12.47560975609756</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6998,10 +10646,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C166">
+        <v>2014</v>
       </c>
       <c r="D166">
         <v>72</v>
@@ -7027,6 +10673,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J166">
+        <v>65</v>
+      </c>
+      <c r="K166">
+        <v>82</v>
+      </c>
+      <c r="L166">
+        <v>155</v>
+      </c>
+      <c r="M166">
+        <v>11.22</v>
+      </c>
+      <c r="N166">
+        <v>9.81</v>
+      </c>
+      <c r="O166">
+        <v>7.238709677419355</v>
+      </c>
+      <c r="P166">
+        <v>15.09230769230769</v>
+      </c>
+      <c r="Q166">
+        <v>13.68292682926829</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7039,10 +10709,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C167">
+        <v>2015</v>
       </c>
       <c r="D167">
         <v>69</v>
@@ -7068,6 +10736,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J167">
+        <v>65</v>
+      </c>
+      <c r="K167">
+        <v>82</v>
+      </c>
+      <c r="L167">
+        <v>155</v>
+      </c>
+      <c r="M167">
+        <v>11.22</v>
+      </c>
+      <c r="N167">
+        <v>9.81</v>
+      </c>
+      <c r="O167">
+        <v>7.238709677419355</v>
+      </c>
+      <c r="P167">
+        <v>15.09230769230769</v>
+      </c>
+      <c r="Q167">
+        <v>13.68292682926829</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7080,10 +10772,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C168">
+        <v>2016</v>
       </c>
       <c r="D168">
         <v>70</v>
@@ -7109,6 +10799,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J168">
+        <v>65</v>
+      </c>
+      <c r="K168">
+        <v>82</v>
+      </c>
+      <c r="L168">
+        <v>155</v>
+      </c>
+      <c r="M168">
+        <v>10.08</v>
+      </c>
+      <c r="N168">
+        <v>8.66</v>
+      </c>
+      <c r="O168">
+        <v>6.503225806451613</v>
+      </c>
+      <c r="P168">
+        <v>13.32307692307692</v>
+      </c>
+      <c r="Q168">
+        <v>12.29268292682927</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7121,10 +10835,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C169">
+        <v>2017</v>
       </c>
       <c r="D169">
         <v>66</v>
@@ -7150,6 +10862,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J169">
+        <v>65</v>
+      </c>
+      <c r="K169">
+        <v>82</v>
+      </c>
+      <c r="L169">
+        <v>155</v>
+      </c>
+      <c r="M169">
+        <v>14.01</v>
+      </c>
+      <c r="N169">
+        <v>12.35</v>
+      </c>
+      <c r="O169">
+        <v>9.038709677419355</v>
+      </c>
+      <c r="P169">
+        <v>19</v>
+      </c>
+      <c r="Q169">
+        <v>17.08536585365853</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7162,10 +10898,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C170">
+        <v>2018</v>
       </c>
       <c r="D170">
         <v>69</v>
@@ -7191,6 +10925,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J170">
+        <v>65</v>
+      </c>
+      <c r="K170">
+        <v>82</v>
+      </c>
+      <c r="L170">
+        <v>155</v>
+      </c>
+      <c r="M170">
+        <v>17.5</v>
+      </c>
+      <c r="N170">
+        <v>15</v>
+      </c>
+      <c r="O170">
+        <v>11.29032258064516</v>
+      </c>
+      <c r="P170">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="Q170">
+        <v>21.34146341463414</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7203,10 +10961,8 @@
           <t>Médio Paranapanema</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C171">
+        <v>2019</v>
       </c>
       <c r="D171">
         <v>67</v>
@@ -7232,6 +10988,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J171">
+        <v>65</v>
+      </c>
+      <c r="K171">
+        <v>82</v>
+      </c>
+      <c r="L171">
+        <v>155</v>
+      </c>
+      <c r="M171">
+        <v>16.59</v>
+      </c>
+      <c r="N171">
+        <v>14.21</v>
+      </c>
+      <c r="O171">
+        <v>10.70322580645161</v>
+      </c>
+      <c r="P171">
+        <v>21.86153846153846</v>
+      </c>
+      <c r="Q171">
+        <v>20.23170731707317</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7244,10 +11024,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C172">
+        <v>2010</v>
       </c>
       <c r="D172">
         <v>71</v>
@@ -7270,6 +11048,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J172">
+        <v>12</v>
+      </c>
+      <c r="K172">
+        <v>16</v>
+      </c>
+      <c r="L172">
+        <v>51</v>
+      </c>
+      <c r="M172">
+        <v>1.73</v>
+      </c>
+      <c r="N172">
+        <v>1.35</v>
+      </c>
+      <c r="O172">
+        <v>3.392156862745098</v>
+      </c>
+      <c r="P172">
+        <v>11.25</v>
+      </c>
+      <c r="Q172">
+        <v>10.8125</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7282,10 +11084,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C173">
+        <v>2011</v>
       </c>
       <c r="D173">
         <v>68</v>
@@ -7308,6 +11108,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J173">
+        <v>12</v>
+      </c>
+      <c r="K173">
+        <v>16</v>
+      </c>
+      <c r="L173">
+        <v>51</v>
+      </c>
+      <c r="M173">
+        <v>1.8</v>
+      </c>
+      <c r="N173">
+        <v>1.38</v>
+      </c>
+      <c r="O173">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="P173">
+        <v>11.5</v>
+      </c>
+      <c r="Q173">
+        <v>11.25</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7320,10 +11144,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C174">
+        <v>2012</v>
       </c>
       <c r="D174">
         <v>72</v>
@@ -7346,6 +11168,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J174">
+        <v>12</v>
+      </c>
+      <c r="K174">
+        <v>16</v>
+      </c>
+      <c r="L174">
+        <v>51</v>
+      </c>
+      <c r="M174">
+        <v>1.9</v>
+      </c>
+      <c r="N174">
+        <v>1.4</v>
+      </c>
+      <c r="O174">
+        <v>3.725490196078431</v>
+      </c>
+      <c r="P174">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="Q174">
+        <v>11.875</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7358,10 +11204,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C175">
+        <v>2013</v>
       </c>
       <c r="D175">
         <v>81</v>
@@ -7384,6 +11228,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J175">
+        <v>12</v>
+      </c>
+      <c r="K175">
+        <v>16</v>
+      </c>
+      <c r="L175">
+        <v>51</v>
+      </c>
+      <c r="M175">
+        <v>3.32</v>
+      </c>
+      <c r="N175">
+        <v>1.53</v>
+      </c>
+      <c r="O175">
+        <v>6.509803921568627</v>
+      </c>
+      <c r="P175">
+        <v>12.75</v>
+      </c>
+      <c r="Q175">
+        <v>20.75</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7396,10 +11264,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C176">
+        <v>2014</v>
       </c>
       <c r="D176">
         <v>78</v>
@@ -7422,6 +11288,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J176">
+        <v>12</v>
+      </c>
+      <c r="K176">
+        <v>16</v>
+      </c>
+      <c r="L176">
+        <v>51</v>
+      </c>
+      <c r="M176">
+        <v>3.33</v>
+      </c>
+      <c r="N176">
+        <v>1.5</v>
+      </c>
+      <c r="O176">
+        <v>6.529411764705882</v>
+      </c>
+      <c r="P176">
+        <v>12.5</v>
+      </c>
+      <c r="Q176">
+        <v>20.8125</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7434,10 +11324,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C177">
+        <v>2015</v>
       </c>
       <c r="D177">
         <v>78</v>
@@ -7460,6 +11348,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J177">
+        <v>12</v>
+      </c>
+      <c r="K177">
+        <v>16</v>
+      </c>
+      <c r="L177">
+        <v>51</v>
+      </c>
+      <c r="M177">
+        <v>3.33</v>
+      </c>
+      <c r="N177">
+        <v>1.5</v>
+      </c>
+      <c r="O177">
+        <v>6.529411764705882</v>
+      </c>
+      <c r="P177">
+        <v>12.5</v>
+      </c>
+      <c r="Q177">
+        <v>20.8125</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7472,10 +11384,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C178">
+        <v>2016</v>
       </c>
       <c r="D178">
         <v>79</v>
@@ -7498,6 +11408,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J178">
+        <v>12</v>
+      </c>
+      <c r="K178">
+        <v>16</v>
+      </c>
+      <c r="L178">
+        <v>51</v>
+      </c>
+      <c r="M178">
+        <v>2.39</v>
+      </c>
+      <c r="N178">
+        <v>1.47</v>
+      </c>
+      <c r="O178">
+        <v>4.686274509803922</v>
+      </c>
+      <c r="P178">
+        <v>12.25</v>
+      </c>
+      <c r="Q178">
+        <v>14.9375</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7510,10 +11444,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C179">
+        <v>2017</v>
       </c>
       <c r="D179">
         <v>80</v>
@@ -7536,6 +11468,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J179">
+        <v>12</v>
+      </c>
+      <c r="K179">
+        <v>16</v>
+      </c>
+      <c r="L179">
+        <v>51</v>
+      </c>
+      <c r="M179">
+        <v>3.16</v>
+      </c>
+      <c r="N179">
+        <v>32.2</v>
+      </c>
+      <c r="O179">
+        <v>6.196078431372549</v>
+      </c>
+      <c r="P179">
+        <v>268.3333333333334</v>
+      </c>
+      <c r="Q179">
+        <v>19.75</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7548,10 +11504,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C180">
+        <v>2018</v>
       </c>
       <c r="D180">
         <v>81</v>
@@ -7574,6 +11528,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J180">
+        <v>12</v>
+      </c>
+      <c r="K180">
+        <v>16</v>
+      </c>
+      <c r="L180">
+        <v>51</v>
+      </c>
+      <c r="M180">
+        <v>4.18</v>
+      </c>
+      <c r="N180">
+        <v>2.18</v>
+      </c>
+      <c r="O180">
+        <v>8.196078431372548</v>
+      </c>
+      <c r="P180">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="Q180">
+        <v>26.125</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7586,10 +11564,8 @@
           <t>São José dos Dourados</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C181">
+        <v>2019</v>
       </c>
       <c r="D181">
         <v>80</v>
@@ -7612,6 +11588,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J181">
+        <v>12</v>
+      </c>
+      <c r="K181">
+        <v>16</v>
+      </c>
+      <c r="L181">
+        <v>51</v>
+      </c>
+      <c r="M181">
+        <v>3.18</v>
+      </c>
+      <c r="N181">
+        <v>2.15</v>
+      </c>
+      <c r="O181">
+        <v>6.235294117647059</v>
+      </c>
+      <c r="P181">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="Q181">
+        <v>19.875</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7624,10 +11624,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C182">
+        <v>2010</v>
       </c>
       <c r="D182">
         <v>76</v>
@@ -7653,6 +11651,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J182">
+        <v>27</v>
+      </c>
+      <c r="K182">
+        <v>36</v>
+      </c>
+      <c r="L182">
+        <v>113</v>
+      </c>
+      <c r="M182">
+        <v>6.21</v>
+      </c>
+      <c r="N182">
+        <v>5.16</v>
+      </c>
+      <c r="O182">
+        <v>5.495575221238938</v>
+      </c>
+      <c r="P182">
+        <v>19.11111111111111</v>
+      </c>
+      <c r="Q182">
+        <v>17.25</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7665,10 +11687,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C183">
+        <v>2011</v>
       </c>
       <c r="D183">
         <v>77</v>
@@ -7694,6 +11714,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J183">
+        <v>27</v>
+      </c>
+      <c r="K183">
+        <v>36</v>
+      </c>
+      <c r="L183">
+        <v>113</v>
+      </c>
+      <c r="M183">
+        <v>6.83</v>
+      </c>
+      <c r="N183">
+        <v>5.34</v>
+      </c>
+      <c r="O183">
+        <v>6.04424778761062</v>
+      </c>
+      <c r="P183">
+        <v>19.77777777777778</v>
+      </c>
+      <c r="Q183">
+        <v>18.97222222222222</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7706,10 +11750,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C184">
+        <v>2012</v>
       </c>
       <c r="D184">
         <v>78</v>
@@ -7735,6 +11777,30 @@
           <t>Ótimo</t>
         </is>
       </c>
+      <c r="J184">
+        <v>27</v>
+      </c>
+      <c r="K184">
+        <v>36</v>
+      </c>
+      <c r="L184">
+        <v>113</v>
+      </c>
+      <c r="M184">
+        <v>7.19</v>
+      </c>
+      <c r="N184">
+        <v>5.69</v>
+      </c>
+      <c r="O184">
+        <v>6.36283185840708</v>
+      </c>
+      <c r="P184">
+        <v>21.07407407407408</v>
+      </c>
+      <c r="Q184">
+        <v>19.97222222222222</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7747,10 +11813,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C185">
+        <v>2013</v>
       </c>
       <c r="D185">
         <v>75</v>
@@ -7776,6 +11840,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J185">
+        <v>27</v>
+      </c>
+      <c r="K185">
+        <v>36</v>
+      </c>
+      <c r="L185">
+        <v>113</v>
+      </c>
+      <c r="M185">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N185">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O185">
+        <v>8.584070796460177</v>
+      </c>
+      <c r="P185">
+        <v>29.81481481481482</v>
+      </c>
+      <c r="Q185">
+        <v>26.94444444444444</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7788,10 +11876,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C186">
+        <v>2014</v>
       </c>
       <c r="D186">
         <v>73</v>
@@ -7817,6 +11903,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J186">
+        <v>27</v>
+      </c>
+      <c r="K186">
+        <v>36</v>
+      </c>
+      <c r="L186">
+        <v>113</v>
+      </c>
+      <c r="M186">
+        <v>10.46</v>
+      </c>
+      <c r="N186">
+        <v>8.57</v>
+      </c>
+      <c r="O186">
+        <v>9.256637168141593</v>
+      </c>
+      <c r="P186">
+        <v>31.74074074074074</v>
+      </c>
+      <c r="Q186">
+        <v>29.05555555555556</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7829,10 +11939,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C187">
+        <v>2015</v>
       </c>
       <c r="D187">
         <v>71</v>
@@ -7858,6 +11966,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J187">
+        <v>27</v>
+      </c>
+      <c r="K187">
+        <v>36</v>
+      </c>
+      <c r="L187">
+        <v>113</v>
+      </c>
+      <c r="M187">
+        <v>10.46</v>
+      </c>
+      <c r="N187">
+        <v>8.57</v>
+      </c>
+      <c r="O187">
+        <v>9.256637168141593</v>
+      </c>
+      <c r="P187">
+        <v>31.74074074074074</v>
+      </c>
+      <c r="Q187">
+        <v>29.05555555555556</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7870,10 +12002,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C188">
+        <v>2016</v>
       </c>
       <c r="D188">
         <v>75</v>
@@ -7899,6 +12029,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J188">
+        <v>27</v>
+      </c>
+      <c r="K188">
+        <v>36</v>
+      </c>
+      <c r="L188">
+        <v>113</v>
+      </c>
+      <c r="M188">
+        <v>9.83</v>
+      </c>
+      <c r="N188">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="O188">
+        <v>8.699115044247788</v>
+      </c>
+      <c r="P188">
+        <v>29.81481481481482</v>
+      </c>
+      <c r="Q188">
+        <v>27.30555555555555</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7911,10 +12065,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C189">
+        <v>2017</v>
       </c>
       <c r="D189">
         <v>77</v>
@@ -7940,6 +12092,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J189">
+        <v>27</v>
+      </c>
+      <c r="K189">
+        <v>36</v>
+      </c>
+      <c r="L189">
+        <v>113</v>
+      </c>
+      <c r="M189">
+        <v>8.6</v>
+      </c>
+      <c r="N189">
+        <v>6.69</v>
+      </c>
+      <c r="O189">
+        <v>7.610619469026549</v>
+      </c>
+      <c r="P189">
+        <v>24.77777777777778</v>
+      </c>
+      <c r="Q189">
+        <v>23.88888888888889</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7952,10 +12128,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C190">
+        <v>2018</v>
       </c>
       <c r="D190">
         <v>77</v>
@@ -7981,6 +12155,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J190">
+        <v>27</v>
+      </c>
+      <c r="K190">
+        <v>36</v>
+      </c>
+      <c r="L190">
+        <v>113</v>
+      </c>
+      <c r="M190">
+        <v>12.66</v>
+      </c>
+      <c r="N190">
+        <v>10.21</v>
+      </c>
+      <c r="O190">
+        <v>11.20353982300885</v>
+      </c>
+      <c r="P190">
+        <v>37.81481481481482</v>
+      </c>
+      <c r="Q190">
+        <v>35.16666666666667</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7993,10 +12191,8 @@
           <t>Baixo Tietê</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C191">
+        <v>2019</v>
       </c>
       <c r="D191">
         <v>75</v>
@@ -8022,6 +12218,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J191">
+        <v>27</v>
+      </c>
+      <c r="K191">
+        <v>36</v>
+      </c>
+      <c r="L191">
+        <v>113</v>
+      </c>
+      <c r="M191">
+        <v>11.26</v>
+      </c>
+      <c r="N191">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="O191">
+        <v>9.964601769911505</v>
+      </c>
+      <c r="P191">
+        <v>31.88888888888889</v>
+      </c>
+      <c r="Q191">
+        <v>31.27777777777778</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8034,10 +12254,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C192">
+        <v>2010</v>
       </c>
       <c r="D192">
         <v>66</v>
@@ -8063,6 +12281,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J192">
+        <v>28</v>
+      </c>
+      <c r="K192">
+        <v>41</v>
+      </c>
+      <c r="L192">
+        <v>97</v>
+      </c>
+      <c r="M192">
+        <v>3.58</v>
+      </c>
+      <c r="N192">
+        <v>2.39</v>
+      </c>
+      <c r="O192">
+        <v>3.690721649484536</v>
+      </c>
+      <c r="P192">
+        <v>8.535714285714286</v>
+      </c>
+      <c r="Q192">
+        <v>8.731707317073171</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8075,10 +12317,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C193">
+        <v>2011</v>
       </c>
       <c r="D193">
         <v>64</v>
@@ -8104,6 +12344,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J193">
+        <v>28</v>
+      </c>
+      <c r="K193">
+        <v>41</v>
+      </c>
+      <c r="L193">
+        <v>97</v>
+      </c>
+      <c r="M193">
+        <v>4.32</v>
+      </c>
+      <c r="N193">
+        <v>2.4</v>
+      </c>
+      <c r="O193">
+        <v>4.453608247422681</v>
+      </c>
+      <c r="P193">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="Q193">
+        <v>10.53658536585366</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8116,10 +12380,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C194">
+        <v>2012</v>
       </c>
       <c r="D194">
         <v>67</v>
@@ -8145,6 +12407,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J194">
+        <v>28</v>
+      </c>
+      <c r="K194">
+        <v>41</v>
+      </c>
+      <c r="L194">
+        <v>97</v>
+      </c>
+      <c r="M194">
+        <v>4.18</v>
+      </c>
+      <c r="N194">
+        <v>2.26</v>
+      </c>
+      <c r="O194">
+        <v>4.309278350515464</v>
+      </c>
+      <c r="P194">
+        <v>8.071428571428571</v>
+      </c>
+      <c r="Q194">
+        <v>10.19512195121951</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8157,10 +12443,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C195">
+        <v>2013</v>
       </c>
       <c r="D195">
         <v>64</v>
@@ -8186,6 +12470,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J195">
+        <v>28</v>
+      </c>
+      <c r="K195">
+        <v>41</v>
+      </c>
+      <c r="L195">
+        <v>97</v>
+      </c>
+      <c r="M195">
+        <v>4.53</v>
+      </c>
+      <c r="N195">
+        <v>2.43</v>
+      </c>
+      <c r="O195">
+        <v>4.670103092783505</v>
+      </c>
+      <c r="P195">
+        <v>8.678571428571429</v>
+      </c>
+      <c r="Q195">
+        <v>11.04878048780488</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8198,10 +12506,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C196">
+        <v>2014</v>
       </c>
       <c r="D196">
         <v>65</v>
@@ -8227,6 +12533,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J196">
+        <v>28</v>
+      </c>
+      <c r="K196">
+        <v>41</v>
+      </c>
+      <c r="L196">
+        <v>97</v>
+      </c>
+      <c r="M196">
+        <v>4.6</v>
+      </c>
+      <c r="N196">
+        <v>2.94</v>
+      </c>
+      <c r="O196">
+        <v>4.742268041237113</v>
+      </c>
+      <c r="P196">
+        <v>10.5</v>
+      </c>
+      <c r="Q196">
+        <v>11.21951219512195</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8239,10 +12569,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C197">
+        <v>2015</v>
       </c>
       <c r="D197">
         <v>65</v>
@@ -8268,6 +12596,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J197">
+        <v>28</v>
+      </c>
+      <c r="K197">
+        <v>41</v>
+      </c>
+      <c r="L197">
+        <v>97</v>
+      </c>
+      <c r="M197">
+        <v>4.6</v>
+      </c>
+      <c r="N197">
+        <v>2.94</v>
+      </c>
+      <c r="O197">
+        <v>4.742268041237113</v>
+      </c>
+      <c r="P197">
+        <v>10.5</v>
+      </c>
+      <c r="Q197">
+        <v>11.21951219512195</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8280,10 +12632,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C198">
+        <v>2016</v>
       </c>
       <c r="D198">
         <v>62</v>
@@ -8309,6 +12659,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J198">
+        <v>28</v>
+      </c>
+      <c r="K198">
+        <v>41</v>
+      </c>
+      <c r="L198">
+        <v>97</v>
+      </c>
+      <c r="M198">
+        <v>4.6</v>
+      </c>
+      <c r="N198">
+        <v>3.07</v>
+      </c>
+      <c r="O198">
+        <v>4.742268041237113</v>
+      </c>
+      <c r="P198">
+        <v>10.96428571428571</v>
+      </c>
+      <c r="Q198">
+        <v>11.21951219512195</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8321,10 +12695,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C199">
+        <v>2017</v>
       </c>
       <c r="D199">
         <v>67</v>
@@ -8350,6 +12722,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J199">
+        <v>28</v>
+      </c>
+      <c r="K199">
+        <v>41</v>
+      </c>
+      <c r="L199">
+        <v>97</v>
+      </c>
+      <c r="M199">
+        <v>7.36</v>
+      </c>
+      <c r="N199">
+        <v>5.81</v>
+      </c>
+      <c r="O199">
+        <v>7.587628865979382</v>
+      </c>
+      <c r="P199">
+        <v>20.75</v>
+      </c>
+      <c r="Q199">
+        <v>17.95121951219512</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8362,10 +12758,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C200">
+        <v>2018</v>
       </c>
       <c r="D200">
         <v>67</v>
@@ -8391,6 +12785,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J200">
+        <v>28</v>
+      </c>
+      <c r="K200">
+        <v>41</v>
+      </c>
+      <c r="L200">
+        <v>97</v>
+      </c>
+      <c r="M200">
+        <v>6.11</v>
+      </c>
+      <c r="N200">
+        <v>4.16</v>
+      </c>
+      <c r="O200">
+        <v>6.298969072164949</v>
+      </c>
+      <c r="P200">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="Q200">
+        <v>14.90243902439025</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8403,10 +12821,8 @@
           <t>Aguapeí</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C201">
+        <v>2019</v>
       </c>
       <c r="D201">
         <v>67</v>
@@ -8432,6 +12848,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J201">
+        <v>28</v>
+      </c>
+      <c r="K201">
+        <v>41</v>
+      </c>
+      <c r="L201">
+        <v>97</v>
+      </c>
+      <c r="M201">
+        <v>6.18</v>
+      </c>
+      <c r="N201">
+        <v>4.23</v>
+      </c>
+      <c r="O201">
+        <v>6.371134020618556</v>
+      </c>
+      <c r="P201">
+        <v>15.10714285714286</v>
+      </c>
+      <c r="Q201">
+        <v>15.07317073170732</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8444,10 +12884,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C202">
+        <v>2010</v>
       </c>
       <c r="D202">
         <v>65</v>
@@ -8473,6 +12911,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J202">
+        <v>29</v>
+      </c>
+      <c r="K202">
+        <v>38</v>
+      </c>
+      <c r="L202">
+        <v>82</v>
+      </c>
+      <c r="M202">
+        <v>2.39</v>
+      </c>
+      <c r="N202">
+        <v>1.71</v>
+      </c>
+      <c r="O202">
+        <v>2.914634146341464</v>
+      </c>
+      <c r="P202">
+        <v>5.896551724137931</v>
+      </c>
+      <c r="Q202">
+        <v>6.289473684210527</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8485,10 +12947,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C203">
+        <v>2011</v>
       </c>
       <c r="D203">
         <v>63</v>
@@ -8514,6 +12974,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J203">
+        <v>29</v>
+      </c>
+      <c r="K203">
+        <v>38</v>
+      </c>
+      <c r="L203">
+        <v>82</v>
+      </c>
+      <c r="M203">
+        <v>2.52</v>
+      </c>
+      <c r="N203">
+        <v>1.78</v>
+      </c>
+      <c r="O203">
+        <v>3.073170731707317</v>
+      </c>
+      <c r="P203">
+        <v>6.137931034482759</v>
+      </c>
+      <c r="Q203">
+        <v>6.631578947368421</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8526,10 +13010,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C204">
+        <v>2012</v>
       </c>
       <c r="D204">
         <v>67</v>
@@ -8555,6 +13037,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J204">
+        <v>29</v>
+      </c>
+      <c r="K204">
+        <v>38</v>
+      </c>
+      <c r="L204">
+        <v>82</v>
+      </c>
+      <c r="M204">
+        <v>2.69</v>
+      </c>
+      <c r="N204">
+        <v>1.83</v>
+      </c>
+      <c r="O204">
+        <v>3.280487804878049</v>
+      </c>
+      <c r="P204">
+        <v>6.310344827586207</v>
+      </c>
+      <c r="Q204">
+        <v>7.078947368421053</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8567,10 +13073,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C205">
+        <v>2013</v>
       </c>
       <c r="D205">
         <v>65</v>
@@ -8596,6 +13100,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J205">
+        <v>29</v>
+      </c>
+      <c r="K205">
+        <v>38</v>
+      </c>
+      <c r="L205">
+        <v>82</v>
+      </c>
+      <c r="M205">
+        <v>3.47</v>
+      </c>
+      <c r="N205">
+        <v>2.44</v>
+      </c>
+      <c r="O205">
+        <v>4.231707317073171</v>
+      </c>
+      <c r="P205">
+        <v>8.413793103448276</v>
+      </c>
+      <c r="Q205">
+        <v>9.131578947368421</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8608,10 +13136,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C206">
+        <v>2014</v>
       </c>
       <c r="D206">
         <v>68</v>
@@ -8637,6 +13163,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J206">
+        <v>29</v>
+      </c>
+      <c r="K206">
+        <v>38</v>
+      </c>
+      <c r="L206">
+        <v>82</v>
+      </c>
+      <c r="M206">
+        <v>4.19</v>
+      </c>
+      <c r="N206">
+        <v>2.98</v>
+      </c>
+      <c r="O206">
+        <v>5.109756097560976</v>
+      </c>
+      <c r="P206">
+        <v>10.27586206896552</v>
+      </c>
+      <c r="Q206">
+        <v>11.02631578947368</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8649,10 +13199,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C207">
+        <v>2015</v>
       </c>
       <c r="D207">
         <v>63</v>
@@ -8678,6 +13226,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J207">
+        <v>29</v>
+      </c>
+      <c r="K207">
+        <v>38</v>
+      </c>
+      <c r="L207">
+        <v>82</v>
+      </c>
+      <c r="M207">
+        <v>4.19</v>
+      </c>
+      <c r="N207">
+        <v>2.98</v>
+      </c>
+      <c r="O207">
+        <v>5.109756097560976</v>
+      </c>
+      <c r="P207">
+        <v>10.27586206896552</v>
+      </c>
+      <c r="Q207">
+        <v>11.02631578947368</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8690,10 +13262,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C208">
+        <v>2016</v>
       </c>
       <c r="D208">
         <v>64</v>
@@ -8719,6 +13289,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J208">
+        <v>29</v>
+      </c>
+      <c r="K208">
+        <v>38</v>
+      </c>
+      <c r="L208">
+        <v>82</v>
+      </c>
+      <c r="M208">
+        <v>2.58</v>
+      </c>
+      <c r="N208">
+        <v>1.79</v>
+      </c>
+      <c r="O208">
+        <v>3.146341463414634</v>
+      </c>
+      <c r="P208">
+        <v>6.172413793103448</v>
+      </c>
+      <c r="Q208">
+        <v>6.789473684210527</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8731,10 +13325,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C209">
+        <v>2017</v>
       </c>
       <c r="D209">
         <v>63</v>
@@ -8760,6 +13352,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J209">
+        <v>29</v>
+      </c>
+      <c r="K209">
+        <v>38</v>
+      </c>
+      <c r="L209">
+        <v>82</v>
+      </c>
+      <c r="M209">
+        <v>2.65</v>
+      </c>
+      <c r="N209">
+        <v>1.79</v>
+      </c>
+      <c r="O209">
+        <v>3.231707317073171</v>
+      </c>
+      <c r="P209">
+        <v>6.172413793103448</v>
+      </c>
+      <c r="Q209">
+        <v>6.973684210526315</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8772,10 +13388,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C210">
+        <v>2018</v>
       </c>
       <c r="D210">
         <v>70</v>
@@ -8801,6 +13415,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J210">
+        <v>29</v>
+      </c>
+      <c r="K210">
+        <v>38</v>
+      </c>
+      <c r="L210">
+        <v>82</v>
+      </c>
+      <c r="M210">
+        <v>3.56</v>
+      </c>
+      <c r="N210">
+        <v>2.56</v>
+      </c>
+      <c r="O210">
+        <v>4.341463414634147</v>
+      </c>
+      <c r="P210">
+        <v>8.827586206896552</v>
+      </c>
+      <c r="Q210">
+        <v>9.368421052631579</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8813,10 +13451,8 @@
           <t>Peixe</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C211">
+        <v>2019</v>
       </c>
       <c r="D211">
         <v>69</v>
@@ -8842,6 +13478,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J211">
+        <v>29</v>
+      </c>
+      <c r="K211">
+        <v>38</v>
+      </c>
+      <c r="L211">
+        <v>82</v>
+      </c>
+      <c r="M211">
+        <v>3.47</v>
+      </c>
+      <c r="N211">
+        <v>2.48</v>
+      </c>
+      <c r="O211">
+        <v>4.231707317073171</v>
+      </c>
+      <c r="P211">
+        <v>8.551724137931034</v>
+      </c>
+      <c r="Q211">
+        <v>9.131578947368421</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8854,10 +13514,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="C212">
+        <v>2010</v>
       </c>
       <c r="D212">
         <v>75</v>
@@ -8880,6 +13538,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J212">
+        <v>34</v>
+      </c>
+      <c r="K212">
+        <v>47</v>
+      </c>
+      <c r="L212">
+        <v>92</v>
+      </c>
+      <c r="M212">
+        <v>1.9</v>
+      </c>
+      <c r="N212">
+        <v>0.98</v>
+      </c>
+      <c r="O212">
+        <v>2.065217391304348</v>
+      </c>
+      <c r="P212">
+        <v>2.882352941176471</v>
+      </c>
+      <c r="Q212">
+        <v>4.042553191489361</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8892,10 +13574,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C213">
+        <v>2011</v>
       </c>
       <c r="D213">
         <v>73</v>
@@ -8918,6 +13598,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J213">
+        <v>34</v>
+      </c>
+      <c r="K213">
+        <v>47</v>
+      </c>
+      <c r="L213">
+        <v>92</v>
+      </c>
+      <c r="M213">
+        <v>1.98</v>
+      </c>
+      <c r="N213">
+        <v>1.02</v>
+      </c>
+      <c r="O213">
+        <v>2.152173913043478</v>
+      </c>
+      <c r="P213">
+        <v>3</v>
+      </c>
+      <c r="Q213">
+        <v>4.212765957446808</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8930,10 +13634,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="C214">
+        <v>2012</v>
       </c>
       <c r="D214">
         <v>74</v>
@@ -8956,6 +13658,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J214">
+        <v>34</v>
+      </c>
+      <c r="K214">
+        <v>47</v>
+      </c>
+      <c r="L214">
+        <v>92</v>
+      </c>
+      <c r="M214">
+        <v>2.09</v>
+      </c>
+      <c r="N214">
+        <v>1.04</v>
+      </c>
+      <c r="O214">
+        <v>2.271739130434782</v>
+      </c>
+      <c r="P214">
+        <v>3.058823529411765</v>
+      </c>
+      <c r="Q214">
+        <v>4.446808510638298</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8968,10 +13694,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="C215">
+        <v>2013</v>
       </c>
       <c r="D215">
         <v>73</v>
@@ -8994,6 +13718,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J215">
+        <v>34</v>
+      </c>
+      <c r="K215">
+        <v>47</v>
+      </c>
+      <c r="L215">
+        <v>92</v>
+      </c>
+      <c r="M215">
+        <v>2.33</v>
+      </c>
+      <c r="N215">
+        <v>1.06</v>
+      </c>
+      <c r="O215">
+        <v>2.532608695652174</v>
+      </c>
+      <c r="P215">
+        <v>3.117647058823529</v>
+      </c>
+      <c r="Q215">
+        <v>4.957446808510638</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9006,10 +13754,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="C216">
+        <v>2014</v>
       </c>
       <c r="D216">
         <v>72</v>
@@ -9032,6 +13778,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J216">
+        <v>34</v>
+      </c>
+      <c r="K216">
+        <v>47</v>
+      </c>
+      <c r="L216">
+        <v>92</v>
+      </c>
+      <c r="M216">
+        <v>3.18</v>
+      </c>
+      <c r="N216">
+        <v>1.85</v>
+      </c>
+      <c r="O216">
+        <v>3.456521739130435</v>
+      </c>
+      <c r="P216">
+        <v>5.441176470588236</v>
+      </c>
+      <c r="Q216">
+        <v>6.765957446808511</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9044,10 +13814,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="C217">
+        <v>2015</v>
       </c>
       <c r="D217">
         <v>69</v>
@@ -9070,6 +13838,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J217">
+        <v>34</v>
+      </c>
+      <c r="K217">
+        <v>47</v>
+      </c>
+      <c r="L217">
+        <v>92</v>
+      </c>
+      <c r="M217">
+        <v>3.18</v>
+      </c>
+      <c r="N217">
+        <v>1.85</v>
+      </c>
+      <c r="O217">
+        <v>3.456521739130435</v>
+      </c>
+      <c r="P217">
+        <v>5.441176470588236</v>
+      </c>
+      <c r="Q217">
+        <v>6.765957446808511</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9082,10 +13874,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="C218">
+        <v>2016</v>
       </c>
       <c r="D218">
         <v>69</v>
@@ -9108,6 +13898,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J218">
+        <v>34</v>
+      </c>
+      <c r="K218">
+        <v>47</v>
+      </c>
+      <c r="L218">
+        <v>92</v>
+      </c>
+      <c r="M218">
+        <v>2.72</v>
+      </c>
+      <c r="N218">
+        <v>1.75</v>
+      </c>
+      <c r="O218">
+        <v>2.956521739130435</v>
+      </c>
+      <c r="P218">
+        <v>5.147058823529411</v>
+      </c>
+      <c r="Q218">
+        <v>5.787234042553192</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9120,10 +13934,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="C219">
+        <v>2017</v>
       </c>
       <c r="D219">
         <v>72</v>
@@ -9146,6 +13958,30 @@
           <t>Bom</t>
         </is>
       </c>
+      <c r="J219">
+        <v>34</v>
+      </c>
+      <c r="K219">
+        <v>47</v>
+      </c>
+      <c r="L219">
+        <v>92</v>
+      </c>
+      <c r="M219">
+        <v>2.98</v>
+      </c>
+      <c r="N219">
+        <v>1.94</v>
+      </c>
+      <c r="O219">
+        <v>3.239130434782609</v>
+      </c>
+      <c r="P219">
+        <v>5.705882352941177</v>
+      </c>
+      <c r="Q219">
+        <v>6.340425531914893</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9158,10 +13994,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="C220">
+        <v>2018</v>
       </c>
       <c r="D220">
         <v>74</v>
@@ -9184,6 +14018,30 @@
           <t>Regular</t>
         </is>
       </c>
+      <c r="J220">
+        <v>34</v>
+      </c>
+      <c r="K220">
+        <v>47</v>
+      </c>
+      <c r="L220">
+        <v>92</v>
+      </c>
+      <c r="M220">
+        <v>4.21</v>
+      </c>
+      <c r="N220">
+        <v>2.69</v>
+      </c>
+      <c r="O220">
+        <v>4.576086956521739</v>
+      </c>
+      <c r="P220">
+        <v>7.911764705882353</v>
+      </c>
+      <c r="Q220">
+        <v>8.957446808510639</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9196,10 +14054,8 @@
           <t>Pontal do Paranapanema</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="C221">
+        <v>2019</v>
       </c>
       <c r="D221">
         <v>71</v>
@@ -9221,6 +14077,30 @@
         <is>
           <t>Regular</t>
         </is>
+      </c>
+      <c r="J221">
+        <v>34</v>
+      </c>
+      <c r="K221">
+        <v>47</v>
+      </c>
+      <c r="L221">
+        <v>92</v>
+      </c>
+      <c r="M221">
+        <v>3.83</v>
+      </c>
+      <c r="N221">
+        <v>2.41</v>
+      </c>
+      <c r="O221">
+        <v>4.163043478260869</v>
+      </c>
+      <c r="P221">
+        <v>7.088235294117648</v>
+      </c>
+      <c r="Q221">
+        <v>8.148936170212766</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/xlsx/base_ugrhi.xlsx
+++ b/data-raw/xlsx/base_ugrhi.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q221"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,6 +443,16 @@
           <t>demanda_total_q95_percent</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>demanda_per_capita</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,6 +513,12 @@
       <c r="Q2">
         <v>7.3</v>
       </c>
+      <c r="R2">
+        <v>327930</v>
+      </c>
+      <c r="S2">
+        <v>2115.671027353399</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +579,12 @@
       <c r="Q3">
         <v>7.6</v>
       </c>
+      <c r="R3">
+        <v>330399</v>
+      </c>
+      <c r="S3">
+        <v>2099.861077061371</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -623,6 +645,12 @@
       <c r="Q4">
         <v>7.3</v>
       </c>
+      <c r="R4">
+        <v>333188</v>
+      </c>
+      <c r="S4">
+        <v>2082.283875769836</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -683,6 +711,12 @@
       <c r="Q5">
         <v>7.199999999999999</v>
       </c>
+      <c r="R5">
+        <v>336007</v>
+      </c>
+      <c r="S5">
+        <v>2064.814125896187</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -743,6 +777,12 @@
       <c r="Q6">
         <v>9.9</v>
       </c>
+      <c r="R6">
+        <v>338854</v>
+      </c>
+      <c r="S6">
+        <v>2047.465870256807</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,6 +843,12 @@
       <c r="Q7">
         <v>9.9</v>
       </c>
+      <c r="R7">
+        <v>341728</v>
+      </c>
+      <c r="S7">
+        <v>2030.246277741362</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,6 +909,12 @@
       <c r="Q8">
         <v>10.4</v>
       </c>
+      <c r="R8">
+        <v>344084</v>
+      </c>
+      <c r="S8">
+        <v>2016.344846025971</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -923,6 +975,12 @@
       <c r="Q9">
         <v>11.1</v>
       </c>
+      <c r="R9">
+        <v>346458</v>
+      </c>
+      <c r="S9">
+        <v>2002.528445006321</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -983,6 +1041,12 @@
       <c r="Q10">
         <v>11.1</v>
       </c>
+      <c r="R10">
+        <v>348853</v>
+      </c>
+      <c r="S10">
+        <v>1988.780374541712</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1046,6 +1110,12 @@
       <c r="Q11">
         <v>11.1</v>
       </c>
+      <c r="R11">
+        <v>351266</v>
+      </c>
+      <c r="S11">
+        <v>1975.118571111352</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1109,6 +1179,12 @@
       <c r="Q12">
         <v>10.49462365591398</v>
       </c>
+      <c r="R12">
+        <v>4106595</v>
+      </c>
+      <c r="S12">
+        <v>1658.740635489986</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1172,6 +1248,12 @@
       <c r="Q13">
         <v>10.95698924731183</v>
       </c>
+      <c r="R13">
+        <v>4148498</v>
+      </c>
+      <c r="S13">
+        <v>1641.986087494799</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1235,6 +1317,12 @@
       <c r="Q14">
         <v>11.54838709677419</v>
       </c>
+      <c r="R14">
+        <v>4195731</v>
+      </c>
+      <c r="S14">
+        <v>1623.501601985447</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1298,6 +1386,12 @@
       <c r="Q15">
         <v>10.68817204301075</v>
       </c>
+      <c r="R15">
+        <v>4243542</v>
+      </c>
+      <c r="S15">
+        <v>1605.209987317199</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1361,6 +1455,12 @@
       <c r="Q16">
         <v>11.66666666666667</v>
       </c>
+      <c r="R16">
+        <v>4291956</v>
+      </c>
+      <c r="S16">
+        <v>1587.102943273417</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1424,6 +1524,12 @@
       <c r="Q17">
         <v>11.66666666666667</v>
       </c>
+      <c r="R17">
+        <v>4340967</v>
+      </c>
+      <c r="S17">
+        <v>1569.184009000759</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1487,6 +1593,12 @@
       <c r="Q18">
         <v>14.44086021505376</v>
       </c>
+      <c r="R18">
+        <v>4384129</v>
+      </c>
+      <c r="S18">
+        <v>1553.735302952992</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1550,6 +1662,12 @@
       <c r="Q19">
         <v>14.68817204301075</v>
       </c>
+      <c r="R19">
+        <v>4427766</v>
+      </c>
+      <c r="S19">
+        <v>1538.422762178489</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1613,6 +1731,12 @@
       <c r="Q20">
         <v>17.32258064516129</v>
       </c>
+      <c r="R20">
+        <v>4471871</v>
+      </c>
+      <c r="S20">
+        <v>1523.249664402216</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1676,6 +1800,12 @@
       <c r="Q21">
         <v>17.48387096774194</v>
       </c>
+      <c r="R21">
+        <v>4516451</v>
+      </c>
+      <c r="S21">
+        <v>1508.214303664537</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1739,6 +1869,12 @@
       <c r="Q22">
         <v>4.666666666666667</v>
       </c>
+      <c r="R22">
+        <v>401388</v>
+      </c>
+      <c r="S22">
+        <v>8406.708720739036</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1802,6 +1938,12 @@
       <c r="Q23">
         <v>5.666666666666666</v>
       </c>
+      <c r="R23">
+        <v>406942</v>
+      </c>
+      <c r="S23">
+        <v>8291.972811850337</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1865,6 +2007,12 @@
       <c r="Q24">
         <v>5.487179487179487</v>
       </c>
+      <c r="R24">
+        <v>413339</v>
+      </c>
+      <c r="S24">
+        <v>8163.642917798708</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1928,6 +2076,12 @@
       <c r="Q25">
         <v>7.025641025641026</v>
       </c>
+      <c r="R25">
+        <v>419868</v>
+      </c>
+      <c r="S25">
+        <v>8036.697247706423</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1991,6 +2145,12 @@
       <c r="Q26">
         <v>9.717948717948719</v>
       </c>
+      <c r="R26">
+        <v>426533</v>
+      </c>
+      <c r="S26">
+        <v>7911.115904279389</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2054,6 +2214,12 @@
       <c r="Q27">
         <v>9.717948717948719</v>
       </c>
+      <c r="R27">
+        <v>433329</v>
+      </c>
+      <c r="S27">
+        <v>7787.044024286397</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2117,6 +2283,12 @@
       <c r="Q28">
         <v>7.692307692307693</v>
       </c>
+      <c r="R28">
+        <v>439061</v>
+      </c>
+      <c r="S28">
+        <v>7685.383124440567</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2180,6 +2352,12 @@
       <c r="Q29">
         <v>7.692307692307693</v>
       </c>
+      <c r="R29">
+        <v>444883</v>
+      </c>
+      <c r="S29">
+        <v>7584.807691010895</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2243,6 +2421,12 @@
       <c r="Q30">
         <v>8.333333333333332</v>
       </c>
+      <c r="R30">
+        <v>450799</v>
+      </c>
+      <c r="S30">
+        <v>7485.26948817544</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2306,6 +2490,12 @@
       <c r="Q31">
         <v>8.435897435897436</v>
       </c>
+      <c r="R31">
+        <v>456815</v>
+      </c>
+      <c r="S31">
+        <v>7386.692643630354</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2366,6 +2556,12 @@
       <c r="Q32">
         <v>27.47727272727273</v>
       </c>
+      <c r="R32">
+        <v>309750</v>
+      </c>
+      <c r="S32">
+        <v>14151.74818401937</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2426,6 +2622,12 @@
       <c r="Q33">
         <v>28.11363636363636</v>
       </c>
+      <c r="R33">
+        <v>311360</v>
+      </c>
+      <c r="S33">
+        <v>14078.57142857143</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2486,6 +2688,12 @@
       <c r="Q34">
         <v>28.97727272727273</v>
       </c>
+      <c r="R34">
+        <v>313213</v>
+      </c>
+      <c r="S34">
+        <v>13995.28116649053</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2546,6 +2754,12 @@
       <c r="Q35">
         <v>29.20454545454546</v>
       </c>
+      <c r="R35">
+        <v>315088</v>
+      </c>
+      <c r="S35">
+        <v>13911.99918752856</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2606,6 +2820,12 @@
       <c r="Q36">
         <v>30.63636363636364</v>
       </c>
+      <c r="R36">
+        <v>316987</v>
+      </c>
+      <c r="S36">
+        <v>13828.65543381905</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2666,6 +2886,12 @@
       <c r="Q37">
         <v>30.63636363636364</v>
       </c>
+      <c r="R37">
+        <v>318914</v>
+      </c>
+      <c r="S37">
+        <v>13745.097424384</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2726,6 +2952,12 @@
       <c r="Q38">
         <v>25.81818181818182</v>
       </c>
+      <c r="R38">
+        <v>320574</v>
+      </c>
+      <c r="S38">
+        <v>13673.92240169197</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2786,6 +3018,12 @@
       <c r="Q39">
         <v>32.11363636363637</v>
       </c>
+      <c r="R39">
+        <v>322250</v>
+      </c>
+      <c r="S39">
+        <v>13602.80527540729</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2846,6 +3084,12 @@
       <c r="Q40">
         <v>37.36363636363637</v>
       </c>
+      <c r="R40">
+        <v>323946</v>
+      </c>
+      <c r="S40">
+        <v>13531.58859809968</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2906,6 +3150,12 @@
       <c r="Q41">
         <v>37.54545454545454</v>
       </c>
+      <c r="R41">
+        <v>325658</v>
+      </c>
+      <c r="S41">
+        <v>13460.45237641943</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2969,6 +3219,12 @@
       <c r="Q42">
         <v>92.26153846153846</v>
       </c>
+      <c r="R42">
+        <v>2985100</v>
+      </c>
+      <c r="S42">
+        <v>1817.088874744565</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3032,6 +3288,12 @@
       <c r="Q43">
         <v>92.16923076923077</v>
       </c>
+      <c r="R43">
+        <v>3023972.5</v>
+      </c>
+      <c r="S43">
+        <v>1793.730597748491</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3095,6 +3357,12 @@
       <c r="Q44">
         <v>82.43076923076923</v>
       </c>
+      <c r="R44">
+        <v>3068054.5</v>
+      </c>
+      <c r="S44">
+        <v>1767.958163715801</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3158,6 +3426,12 @@
       <c r="Q45">
         <v>82.50769230769231</v>
       </c>
+      <c r="R45">
+        <v>3112917</v>
+      </c>
+      <c r="S45">
+        <v>1742.478838979645</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3221,6 +3495,12 @@
       <c r="Q46">
         <v>52.43076923076922</v>
       </c>
+      <c r="R46">
+        <v>3158540.5</v>
+      </c>
+      <c r="S46">
+        <v>1717.309624492705</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3284,6 +3564,12 @@
       <c r="Q47">
         <v>52.43076923076922</v>
       </c>
+      <c r="R47">
+        <v>3204978.5</v>
+      </c>
+      <c r="S47">
+        <v>1692.426953878162</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3347,6 +3633,12 @@
       <c r="Q48">
         <v>112.4769230769231</v>
       </c>
+      <c r="R48">
+        <v>3240623.5</v>
+      </c>
+      <c r="S48">
+        <v>1673.811227993625</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3410,6 +3702,12 @@
       <c r="Q49">
         <v>119.1230769230769</v>
       </c>
+      <c r="R49">
+        <v>3276742</v>
+      </c>
+      <c r="S49">
+        <v>1655.36133146888</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3473,6 +3771,12 @@
       <c r="Q50">
         <v>131.9076923076923</v>
       </c>
+      <c r="R50">
+        <v>3313344.5</v>
+      </c>
+      <c r="S50">
+        <v>1637.074563179289</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3536,6 +3840,12 @@
       <c r="Q51">
         <v>136.4153846153846</v>
       </c>
+      <c r="R51">
+        <v>3350444</v>
+      </c>
+      <c r="S51">
+        <v>1618.947220129631</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3599,6 +3909,12 @@
       <c r="Q52">
         <v>211.6451612903226</v>
       </c>
+      <c r="R52">
+        <v>4728315</v>
+      </c>
+      <c r="S52">
+        <v>560.2469378626424</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3662,6 +3978,12 @@
       <c r="Q53">
         <v>213.3870967741936</v>
       </c>
+      <c r="R53">
+        <v>4772351</v>
+      </c>
+      <c r="S53">
+        <v>555.0773612418701</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3725,6 +4047,12 @@
       <c r="Q54">
         <v>218.741935483871</v>
       </c>
+      <c r="R54">
+        <v>4822123</v>
+      </c>
+      <c r="S54">
+        <v>549.3480775998456</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3788,6 +4116,12 @@
       <c r="Q55">
         <v>167.6774193548387</v>
       </c>
+      <c r="R55">
+        <v>4872582</v>
+      </c>
+      <c r="S55">
+        <v>543.6591934214755</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3851,6 +4185,12 @@
       <c r="Q56">
         <v>205.8387096774194</v>
       </c>
+      <c r="R56">
+        <v>4923727</v>
+      </c>
+      <c r="S56">
+        <v>538.0119572023389</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3914,6 +4254,12 @@
       <c r="Q57">
         <v>205.8387096774194</v>
       </c>
+      <c r="R57">
+        <v>4975576</v>
+      </c>
+      <c r="S57">
+        <v>532.4054943588441</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3977,6 +4323,12 @@
       <c r="Q58">
         <v>179</v>
       </c>
+      <c r="R58">
+        <v>5020372</v>
+      </c>
+      <c r="S58">
+        <v>527.6549227826144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4040,6 +4392,12 @@
       <c r="Q59">
         <v>185.5806451612903</v>
       </c>
+      <c r="R59">
+        <v>5065702</v>
+      </c>
+      <c r="S59">
+        <v>522.9332479486555</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4103,6 +4461,12 @@
       <c r="Q60">
         <v>196.6129032258065</v>
       </c>
+      <c r="R60">
+        <v>5111561</v>
+      </c>
+      <c r="S60">
+        <v>518.2416878131748</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4166,6 +4530,12 @@
       <c r="Q61">
         <v>193.6451612903226</v>
       </c>
+      <c r="R61">
+        <v>5157962</v>
+      </c>
+      <c r="S61">
+        <v>513.5795882172067</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4229,6 +4599,12 @@
       <c r="Q62">
         <v>31.48275862068966</v>
       </c>
+      <c r="R62">
+        <v>14165034</v>
+      </c>
+      <c r="S62">
+        <v>345.080710713437</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4292,6 +4668,12 @@
       <c r="Q63">
         <v>29.89655172413793</v>
       </c>
+      <c r="R63">
+        <v>14242370</v>
+      </c>
+      <c r="S63">
+        <v>343.2069241284983</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4355,6 +4737,12 @@
       <c r="Q64">
         <v>29.89655172413793</v>
       </c>
+      <c r="R64">
+        <v>14329976</v>
+      </c>
+      <c r="S64">
+        <v>341.1087359811349</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4418,6 +4806,12 @@
       <c r="Q65">
         <v>32.48275862068966</v>
       </c>
+      <c r="R65">
+        <v>14418211</v>
+      </c>
+      <c r="S65">
+        <v>339.0212558270925</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4481,6 +4875,12 @@
       <c r="Q66">
         <v>31.77586206896552</v>
       </c>
+      <c r="R66">
+        <v>14507088</v>
+      </c>
+      <c r="S66">
+        <v>336.944257868981</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4544,6 +4944,12 @@
       <c r="Q67">
         <v>31.77586206896552</v>
       </c>
+      <c r="R67">
+        <v>14596613</v>
+      </c>
+      <c r="S67">
+        <v>334.8776870360268</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4607,6 +5013,12 @@
       <c r="Q68">
         <v>33.56896551724138</v>
       </c>
+      <c r="R68">
+        <v>14672218</v>
+      </c>
+      <c r="S68">
+        <v>333.1520837544807</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4670,6 +5082,12 @@
       <c r="Q69">
         <v>36.29310344827586</v>
       </c>
+      <c r="R69">
+        <v>14748281</v>
+      </c>
+      <c r="S69">
+        <v>331.4338803281549</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4733,6 +5151,12 @@
       <c r="Q70">
         <v>32.08620689655172</v>
       </c>
+      <c r="R70">
+        <v>14824805</v>
+      </c>
+      <c r="S70">
+        <v>329.7230553791433</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4796,6 +5220,12 @@
       <c r="Q71">
         <v>31.84482758620689</v>
       </c>
+      <c r="R71">
+        <v>14901793</v>
+      </c>
+      <c r="S71">
+        <v>328.0195879784399</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4856,6 +5286,12 @@
       <c r="Q72">
         <v>10.52173913043478</v>
       </c>
+      <c r="R72">
+        <v>773026</v>
+      </c>
+      <c r="S72">
+        <v>5956.146365064047</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4916,6 +5352,12 @@
       <c r="Q73">
         <v>10.58695652173913</v>
       </c>
+      <c r="R73">
+        <v>778086</v>
+      </c>
+      <c r="S73">
+        <v>5917.412728156014</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4976,6 +5418,12 @@
       <c r="Q74">
         <v>10.91304347826087</v>
       </c>
+      <c r="R74">
+        <v>783814</v>
+      </c>
+      <c r="S74">
+        <v>5874.169126859179</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5036,6 +5484,12 @@
       <c r="Q75">
         <v>10.84782608695652</v>
       </c>
+      <c r="R75">
+        <v>789590</v>
+      </c>
+      <c r="S75">
+        <v>5831.198470092073</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5096,6 +5550,12 @@
       <c r="Q76">
         <v>13.56521739130435</v>
       </c>
+      <c r="R76">
+        <v>795410</v>
+      </c>
+      <c r="S76">
+        <v>5788.531700632378</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5156,6 +5616,12 @@
       <c r="Q77">
         <v>13.56521739130435</v>
       </c>
+      <c r="R77">
+        <v>801284</v>
+      </c>
+      <c r="S77">
+        <v>5746.097513490848</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5216,6 +5682,12 @@
       <c r="Q78">
         <v>12.91304347826087</v>
       </c>
+      <c r="R78">
+        <v>806172</v>
+      </c>
+      <c r="S78">
+        <v>5711.257647251456</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5276,6 +5748,12 @@
       <c r="Q79">
         <v>16.76086956521739</v>
       </c>
+      <c r="R79">
+        <v>811091</v>
+      </c>
+      <c r="S79">
+        <v>5676.620749089806</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5339,6 +5817,12 @@
       <c r="Q80">
         <v>20.76086956521739</v>
       </c>
+      <c r="R80">
+        <v>816049</v>
+      </c>
+      <c r="S80">
+        <v>5642.131783753181</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5402,6 +5886,12 @@
       <c r="Q81">
         <v>20.56521739130435</v>
       </c>
+      <c r="R81">
+        <v>821038</v>
+      </c>
+      <c r="S81">
+        <v>5607.847627028225</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5465,6 +5955,12 @@
       <c r="Q82">
         <v>27.09722222222222</v>
       </c>
+      <c r="R82">
+        <v>3598573</v>
+      </c>
+      <c r="S82">
+        <v>1743.931274980388</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5528,6 +6024,12 @@
       <c r="Q83">
         <v>26.36111111111111</v>
       </c>
+      <c r="R83">
+        <v>3629434</v>
+      </c>
+      <c r="S83">
+        <v>1729.10266449259</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5591,6 +6093,12 @@
       <c r="Q84">
         <v>27.20833333333334</v>
       </c>
+      <c r="R84">
+        <v>3664457</v>
+      </c>
+      <c r="S84">
+        <v>1712.576788320889</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5654,6 +6162,12 @@
       <c r="Q85">
         <v>29.04166666666666</v>
       </c>
+      <c r="R85">
+        <v>3699938</v>
+      </c>
+      <c r="S85">
+        <v>1696.153827442514</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5717,6 +6231,12 @@
       <c r="Q86">
         <v>32.04166666666667</v>
       </c>
+      <c r="R86">
+        <v>3735476</v>
+      </c>
+      <c r="S86">
+        <v>1680.017218689131</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5780,6 +6300,12 @@
       <c r="Q87">
         <v>32.04166666666667</v>
       </c>
+      <c r="R87">
+        <v>3771460</v>
+      </c>
+      <c r="S87">
+        <v>1663.987951615555</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5843,6 +6369,12 @@
       <c r="Q88">
         <v>32.41666666666666</v>
       </c>
+      <c r="R88">
+        <v>3799978</v>
+      </c>
+      <c r="S88">
+        <v>1651.500087632086</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5906,6 +6438,12 @@
       <c r="Q89">
         <v>36.54166666666666</v>
       </c>
+      <c r="R89">
+        <v>3828771</v>
+      </c>
+      <c r="S89">
+        <v>1639.080530018641</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5969,6 +6507,12 @@
       <c r="Q90">
         <v>41.84722222222222</v>
       </c>
+      <c r="R90">
+        <v>3857855</v>
+      </c>
+      <c r="S90">
+        <v>1626.7236586134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6032,6 +6576,12 @@
       <c r="Q91">
         <v>40.75</v>
       </c>
+      <c r="R91">
+        <v>3887202</v>
+      </c>
+      <c r="S91">
+        <v>1614.442470445323</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6095,6 +6645,12 @@
       <c r="Q92">
         <v>27.94871794871795</v>
       </c>
+      <c r="R92">
+        <v>2240056</v>
+      </c>
+      <c r="S92">
+        <v>1506.369483620052</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6158,6 +6714,12 @@
       <c r="Q93">
         <v>28.53846153846154</v>
       </c>
+      <c r="R93">
+        <v>2265119</v>
+      </c>
+      <c r="S93">
+        <v>1489.701865553201</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6221,6 +6783,12 @@
       <c r="Q94">
         <v>29.76923076923077</v>
       </c>
+      <c r="R94">
+        <v>2293831</v>
+      </c>
+      <c r="S94">
+        <v>1471.055191075541</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6284,6 +6852,12 @@
       <c r="Q95">
         <v>29.12820512820512</v>
       </c>
+      <c r="R95">
+        <v>2322963</v>
+      </c>
+      <c r="S95">
+        <v>1452.606864594916</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6347,6 +6921,12 @@
       <c r="Q96">
         <v>29.71794871794872</v>
       </c>
+      <c r="R96">
+        <v>2352526</v>
+      </c>
+      <c r="S96">
+        <v>1434.352691532421</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6410,6 +6990,12 @@
       <c r="Q97">
         <v>29.71794871794872</v>
       </c>
+      <c r="R97">
+        <v>2382514</v>
+      </c>
+      <c r="S97">
+        <v>1416.29891786575</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6473,6 +7059,12 @@
       <c r="Q98">
         <v>30.15384615384615</v>
       </c>
+      <c r="R98">
+        <v>2406832</v>
+      </c>
+      <c r="S98">
+        <v>1401.989004633477</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6536,6 +7128,12 @@
       <c r="Q99">
         <v>40.97435897435898</v>
       </c>
+      <c r="R99">
+        <v>2431420</v>
+      </c>
+      <c r="S99">
+        <v>1387.811237877454</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6599,6 +7197,12 @@
       <c r="Q100">
         <v>50.33333333333333</v>
       </c>
+      <c r="R100">
+        <v>2456291</v>
+      </c>
+      <c r="S100">
+        <v>1373.759053792893</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6662,6 +7266,12 @@
       <c r="Q101">
         <v>54.23076923076923</v>
       </c>
+      <c r="R101">
+        <v>2481432</v>
+      </c>
+      <c r="S101">
+        <v>1359.840608164963</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6722,6 +7332,12 @@
       <c r="Q102">
         <v>1.432314410480349</v>
       </c>
+      <c r="R102">
+        <v>1184937</v>
+      </c>
+      <c r="S102">
+        <v>13999.00247861279</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6782,6 +7398,12 @@
       <c r="Q103">
         <v>1.441048034934498</v>
       </c>
+      <c r="R103">
+        <v>1193857</v>
+      </c>
+      <c r="S103">
+        <v>13894.40778920759</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6842,6 +7464,12 @@
       <c r="Q104">
         <v>1.462882096069869</v>
       </c>
+      <c r="R104">
+        <v>1204058</v>
+      </c>
+      <c r="S104">
+        <v>13776.6918204937</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6902,6 +7530,12 @@
       <c r="Q105">
         <v>1.51528384279476</v>
       </c>
+      <c r="R105">
+        <v>1214434</v>
+      </c>
+      <c r="S105">
+        <v>13658.98517334001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6965,6 +7599,12 @@
       <c r="Q106">
         <v>1.676855895196506</v>
       </c>
+      <c r="R106">
+        <v>1224996</v>
+      </c>
+      <c r="S106">
+        <v>13541.21646111497</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7028,6 +7668,12 @@
       <c r="Q107">
         <v>1.676855895196506</v>
       </c>
+      <c r="R107">
+        <v>1235730</v>
+      </c>
+      <c r="S107">
+        <v>13423.5925323493</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7091,6 +7737,12 @@
       <c r="Q108">
         <v>1.192139737991266</v>
       </c>
+      <c r="R108">
+        <v>1246112</v>
+      </c>
+      <c r="S108">
+        <v>13311.75367864205</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7154,6 +7806,12 @@
       <c r="Q109">
         <v>1.231441048034934</v>
       </c>
+      <c r="R109">
+        <v>1256632</v>
+      </c>
+      <c r="S109">
+        <v>13200.31321818957</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7217,6 +7875,12 @@
       <c r="Q110">
         <v>4.135371179039302</v>
       </c>
+      <c r="R110">
+        <v>1267290</v>
+      </c>
+      <c r="S110">
+        <v>13089.29763511114</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7280,6 +7944,12 @@
       <c r="Q111">
         <v>4.126637554585153</v>
       </c>
+      <c r="R111">
+        <v>1278092</v>
+      </c>
+      <c r="S111">
+        <v>12978.67133195419</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7340,6 +8010,12 @@
       <c r="Q112">
         <v>49.09677419354838</v>
       </c>
+      <c r="R112">
+        <v>38388</v>
+      </c>
+      <c r="S112">
+        <v>71471.0847139731</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7400,6 +8076,12 @@
       <c r="Q113">
         <v>46.74193548387097</v>
       </c>
+      <c r="R113">
+        <v>38561</v>
+      </c>
+      <c r="S113">
+        <v>71150.43696999559</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7460,6 +8142,12 @@
       <c r="Q114">
         <v>45.67741935483871</v>
       </c>
+      <c r="R114">
+        <v>38755</v>
+      </c>
+      <c r="S114">
+        <v>70794.27170687653</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7520,6 +8208,12 @@
       <c r="Q115">
         <v>45.41935483870968</v>
       </c>
+      <c r="R115">
+        <v>38949</v>
+      </c>
+      <c r="S115">
+        <v>70441.65447123161</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7580,6 +8274,12 @@
       <c r="Q116">
         <v>53.70967741935483</v>
       </c>
+      <c r="R116">
+        <v>39145</v>
+      </c>
+      <c r="S116">
+        <v>70088.95133478094</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7640,6 +8340,12 @@
       <c r="Q117">
         <v>53.70967741935483</v>
       </c>
+      <c r="R117">
+        <v>39343</v>
+      </c>
+      <c r="S117">
+        <v>69736.21737030729</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7703,6 +8409,12 @@
       <c r="Q118">
         <v>50.29032258064517</v>
       </c>
+      <c r="R118">
+        <v>39512</v>
+      </c>
+      <c r="S118">
+        <v>69437.94290342175</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7766,6 +8478,12 @@
       <c r="Q119">
         <v>53.93548387096774</v>
       </c>
+      <c r="R119">
+        <v>39680</v>
+      </c>
+      <c r="S119">
+        <v>69143.95161290323</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7829,6 +8547,12 @@
       <c r="Q120">
         <v>56.7741935483871</v>
       </c>
+      <c r="R120">
+        <v>39848</v>
+      </c>
+      <c r="S120">
+        <v>68852.43926922305</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7892,6 +8616,12 @@
       <c r="Q121">
         <v>55.25806451612902</v>
       </c>
+      <c r="R121">
+        <v>40019</v>
+      </c>
+      <c r="S121">
+        <v>68558.23483845174</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7955,6 +8685,12 @@
       <c r="Q122">
         <v>32.8</v>
       </c>
+      <c r="R122">
+        <v>529404</v>
+      </c>
+      <c r="S122">
+        <v>5778.180746650951</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8018,6 +8754,12 @@
       <c r="Q123">
         <v>33.76</v>
       </c>
+      <c r="R123">
+        <v>533358.5</v>
+      </c>
+      <c r="S123">
+        <v>5735.339363673776</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8081,6 +8823,12 @@
       <c r="Q124">
         <v>34.5</v>
       </c>
+      <c r="R124">
+        <v>537822.5</v>
+      </c>
+      <c r="S124">
+        <v>5687.735265817254</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8144,6 +8892,12 @@
       <c r="Q125">
         <v>35.98</v>
       </c>
+      <c r="R125">
+        <v>542336</v>
+      </c>
+      <c r="S125">
+        <v>5640.40004720321</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8207,6 +8961,12 @@
       <c r="Q126">
         <v>39.42</v>
       </c>
+      <c r="R126">
+        <v>546899.5</v>
+      </c>
+      <c r="S126">
+        <v>5593.334790029978</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8270,6 +9030,12 @@
       <c r="Q127">
         <v>39.42</v>
       </c>
+      <c r="R127">
+        <v>551512.5</v>
+      </c>
+      <c r="S127">
+        <v>5546.550622152717</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8333,6 +9099,12 @@
       <c r="Q128">
         <v>41.24</v>
       </c>
+      <c r="R128">
+        <v>555466.5</v>
+      </c>
+      <c r="S128">
+        <v>5507.068383061805</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8396,6 +9168,12 @@
       <c r="Q129">
         <v>39.56</v>
       </c>
+      <c r="R129">
+        <v>559455</v>
+      </c>
+      <c r="S129">
+        <v>5467.807062230206</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8459,6 +9237,12 @@
       <c r="Q130">
         <v>45.96</v>
       </c>
+      <c r="R130">
+        <v>563482.5</v>
+      </c>
+      <c r="S130">
+        <v>5428.725825558025</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8522,6 +9306,12 @@
       <c r="Q131">
         <v>44.1</v>
       </c>
+      <c r="R131">
+        <v>567544</v>
+      </c>
+      <c r="S131">
+        <v>5389.876379628716</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8582,6 +9372,12 @@
       <c r="Q132">
         <v>9.491228070175438</v>
       </c>
+      <c r="R132">
+        <v>878110</v>
+      </c>
+      <c r="S132">
+        <v>9157.941487968479</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8642,6 +9438,12 @@
       <c r="Q133">
         <v>9.429824561403509</v>
       </c>
+      <c r="R133">
+        <v>883741</v>
+      </c>
+      <c r="S133">
+        <v>9099.589133015217</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8702,6 +9504,12 @@
       <c r="Q134">
         <v>9.710526315789474</v>
       </c>
+      <c r="R134">
+        <v>890109</v>
+      </c>
+      <c r="S134">
+        <v>9034.489034489035</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8762,6 +9570,12 @@
       <c r="Q135">
         <v>10.39473684210526</v>
       </c>
+      <c r="R135">
+        <v>896562</v>
+      </c>
+      <c r="S135">
+        <v>8969.46334999699</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8822,6 +9636,12 @@
       <c r="Q136">
         <v>10.39473684210526</v>
       </c>
+      <c r="R136">
+        <v>903081</v>
+      </c>
+      <c r="S136">
+        <v>8904.716188248894</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8882,6 +9702,12 @@
       <c r="Q137">
         <v>10.39473684210526</v>
       </c>
+      <c r="R137">
+        <v>909686</v>
+      </c>
+      <c r="S137">
+        <v>8840.061295875719</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8942,6 +9768,12 @@
       <c r="Q138">
         <v>10.20175438596491</v>
       </c>
+      <c r="R138">
+        <v>915987</v>
+      </c>
+      <c r="S138">
+        <v>8779.251233914893</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9002,6 +9834,12 @@
       <c r="Q139">
         <v>12.82456140350877</v>
       </c>
+      <c r="R139">
+        <v>922351</v>
+      </c>
+      <c r="S139">
+        <v>8718.676512520722</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9062,6 +9900,12 @@
       <c r="Q140">
         <v>18.69298245614035</v>
       </c>
+      <c r="R140">
+        <v>928773</v>
+      </c>
+      <c r="S140">
+        <v>8658.391232303265</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9122,6 +9966,12 @@
       <c r="Q141">
         <v>18.26315789473684</v>
       </c>
+      <c r="R141">
+        <v>935272</v>
+      </c>
+      <c r="S141">
+        <v>8598.225970626727</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9185,6 +10035,12 @@
       <c r="Q142">
         <v>39.2051282051282</v>
       </c>
+      <c r="R142">
+        <v>1080267</v>
+      </c>
+      <c r="S142">
+        <v>3532.326730336112</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9248,6 +10104,12 @@
       <c r="Q143">
         <v>39.87179487179488</v>
       </c>
+      <c r="R143">
+        <v>1087898</v>
+      </c>
+      <c r="S143">
+        <v>3507.549420993512</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9311,6 +10173,12 @@
       <c r="Q144">
         <v>49.76923076923077</v>
       </c>
+      <c r="R144">
+        <v>1096606</v>
+      </c>
+      <c r="S144">
+        <v>3479.696445213687</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9374,6 +10242,12 @@
       <c r="Q145">
         <v>42.15384615384616</v>
       </c>
+      <c r="R145">
+        <v>1105407</v>
+      </c>
+      <c r="S145">
+        <v>3451.991890769644</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9437,6 +10311,12 @@
       <c r="Q146">
         <v>48.64102564102564</v>
       </c>
+      <c r="R146">
+        <v>1114310</v>
+      </c>
+      <c r="S146">
+        <v>3424.411519236119</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9500,6 +10380,12 @@
       <c r="Q147">
         <v>48.64102564102564</v>
       </c>
+      <c r="R147">
+        <v>1123304</v>
+      </c>
+      <c r="S147">
+        <v>3396.993155904368</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9563,6 +10449,12 @@
       <c r="Q148">
         <v>41</v>
       </c>
+      <c r="R148">
+        <v>1130216</v>
+      </c>
+      <c r="S148">
+        <v>3376.218351182429</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9626,6 +10518,12 @@
       <c r="Q149">
         <v>45.07692307692307</v>
       </c>
+      <c r="R149">
+        <v>1137190</v>
+      </c>
+      <c r="S149">
+        <v>3355.513150836712</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9689,6 +10587,12 @@
       <c r="Q150">
         <v>48.43589743589744</v>
       </c>
+      <c r="R150">
+        <v>1144224</v>
+      </c>
+      <c r="S150">
+        <v>3334.885476969544</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9752,6 +10656,12 @@
       <c r="Q151">
         <v>46.87179487179488</v>
       </c>
+      <c r="R151">
+        <v>1151316</v>
+      </c>
+      <c r="S151">
+        <v>3314.342891091585</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9815,6 +10725,12 @@
       <c r="Q152">
         <v>22.15</v>
       </c>
+      <c r="R152">
+        <v>730836</v>
+      </c>
+      <c r="S152">
+        <v>4228.757204078617</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9878,6 +10794,12 @@
       <c r="Q153">
         <v>22.95</v>
       </c>
+      <c r="R153">
+        <v>735101</v>
+      </c>
+      <c r="S153">
+        <v>4204.222276938815</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9941,6 +10863,12 @@
       <c r="Q154">
         <v>23.3</v>
       </c>
+      <c r="R154">
+        <v>740028</v>
+      </c>
+      <c r="S154">
+        <v>4176.23116963142</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10004,6 +10932,12 @@
       <c r="Q155">
         <v>23.275</v>
       </c>
+      <c r="R155">
+        <v>744989</v>
+      </c>
+      <c r="S155">
+        <v>4148.420983397071</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10067,6 +11001,12 @@
       <c r="Q156">
         <v>24.125</v>
       </c>
+      <c r="R156">
+        <v>749997</v>
+      </c>
+      <c r="S156">
+        <v>4120.720482881932</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10130,6 +11070,12 @@
       <c r="Q157">
         <v>24.125</v>
       </c>
+      <c r="R157">
+        <v>755038</v>
+      </c>
+      <c r="S157">
+        <v>4093.208553741666</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10193,6 +11139,12 @@
       <c r="Q158">
         <v>27.625</v>
       </c>
+      <c r="R158">
+        <v>759178</v>
+      </c>
+      <c r="S158">
+        <v>4070.88719641507</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10256,6 +11208,12 @@
       <c r="Q159">
         <v>30.375</v>
       </c>
+      <c r="R159">
+        <v>763348</v>
+      </c>
+      <c r="S159">
+        <v>4048.648846921718</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10319,6 +11277,12 @@
       <c r="Q160">
         <v>40.8</v>
       </c>
+      <c r="R160">
+        <v>767539</v>
+      </c>
+      <c r="S160">
+        <v>4026.541973762897</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10382,6 +11346,12 @@
       <c r="Q161">
         <v>36.825</v>
       </c>
+      <c r="R161">
+        <v>771761</v>
+      </c>
+      <c r="S161">
+        <v>4004.514350945435</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10445,6 +11415,12 @@
       <c r="Q162">
         <v>10.84146341463415</v>
       </c>
+      <c r="R162">
+        <v>390360</v>
+      </c>
+      <c r="S162">
+        <v>12521.97971103597</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10508,6 +11484,12 @@
       <c r="Q163">
         <v>11.13414634146342</v>
       </c>
+      <c r="R163">
+        <v>392410</v>
+      </c>
+      <c r="S163">
+        <v>12456.56328839734</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10571,6 +11553,12 @@
       <c r="Q164">
         <v>11.41463414634146</v>
       </c>
+      <c r="R164">
+        <v>394760</v>
+      </c>
+      <c r="S164">
+        <v>12382.4095653055</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10634,6 +11622,12 @@
       <c r="Q165">
         <v>12.47560975609756</v>
       </c>
+      <c r="R165">
+        <v>397136</v>
+      </c>
+      <c r="S165">
+        <v>12308.32762580073</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10697,6 +11691,12 @@
       <c r="Q166">
         <v>13.68292682926829</v>
       </c>
+      <c r="R166">
+        <v>399525</v>
+      </c>
+      <c r="S166">
+        <v>12234.7287403792</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10760,6 +11760,12 @@
       <c r="Q167">
         <v>13.68292682926829</v>
       </c>
+      <c r="R167">
+        <v>401940</v>
+      </c>
+      <c r="S167">
+        <v>12161.21809225258</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10823,6 +11829,12 @@
       <c r="Q168">
         <v>12.29268292682927</v>
       </c>
+      <c r="R168">
+        <v>404107</v>
+      </c>
+      <c r="S168">
+        <v>12096.00427609519</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10886,6 +11898,12 @@
       <c r="Q169">
         <v>17.08536585365853</v>
       </c>
+      <c r="R169">
+        <v>406293</v>
+      </c>
+      <c r="S169">
+        <v>12030.92349609764</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10949,6 +11967,12 @@
       <c r="Q170">
         <v>21.34146341463414</v>
       </c>
+      <c r="R170">
+        <v>408493</v>
+      </c>
+      <c r="S170">
+        <v>11966.12916255603</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11012,6 +12036,12 @@
       <c r="Q171">
         <v>20.23170731707317</v>
       </c>
+      <c r="R171">
+        <v>410709</v>
+      </c>
+      <c r="S171">
+        <v>11901.5653418844</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11072,6 +12102,12 @@
       <c r="Q172">
         <v>10.8125</v>
       </c>
+      <c r="R172">
+        <v>406185</v>
+      </c>
+      <c r="S172">
+        <v>3959.614461390746</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11132,6 +12168,12 @@
       <c r="Q173">
         <v>11.25</v>
       </c>
+      <c r="R173">
+        <v>407804</v>
+      </c>
+      <c r="S173">
+        <v>3943.894616041039</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11192,6 +12234,12 @@
       <c r="Q174">
         <v>11.875</v>
       </c>
+      <c r="R174">
+        <v>409668</v>
+      </c>
+      <c r="S174">
+        <v>3925.949793491315</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11252,6 +12300,12 @@
       <c r="Q175">
         <v>20.75</v>
       </c>
+      <c r="R175">
+        <v>411551</v>
+      </c>
+      <c r="S175">
+        <v>3907.987102449028</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11312,6 +12366,12 @@
       <c r="Q176">
         <v>20.8125</v>
       </c>
+      <c r="R176">
+        <v>413456</v>
+      </c>
+      <c r="S176">
+        <v>3889.981037885531</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11372,6 +12432,12 @@
       <c r="Q177">
         <v>20.8125</v>
       </c>
+      <c r="R177">
+        <v>415375</v>
+      </c>
+      <c r="S177">
+        <v>3872.009629852543</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11432,6 +12498,12 @@
       <c r="Q178">
         <v>14.9375</v>
       </c>
+      <c r="R178">
+        <v>416874</v>
+      </c>
+      <c r="S178">
+        <v>3858.086616099828</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11492,6 +12564,12 @@
       <c r="Q179">
         <v>19.75</v>
       </c>
+      <c r="R179">
+        <v>418388</v>
+      </c>
+      <c r="S179">
+        <v>3844.125548533897</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11552,6 +12630,12 @@
       <c r="Q180">
         <v>26.125</v>
       </c>
+      <c r="R180">
+        <v>419906</v>
+      </c>
+      <c r="S180">
+        <v>3830.228670226194</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11612,6 +12696,12 @@
       <c r="Q181">
         <v>19.875</v>
       </c>
+      <c r="R181">
+        <v>421448</v>
+      </c>
+      <c r="S181">
+        <v>3816.214574514531</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11675,6 +12765,12 @@
       <c r="Q182">
         <v>17.25</v>
       </c>
+      <c r="R182">
+        <v>374432</v>
+      </c>
+      <c r="S182">
+        <v>9517.263481753696</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11738,6 +12834,12 @@
       <c r="Q183">
         <v>18.97222222222222</v>
       </c>
+      <c r="R183">
+        <v>377109</v>
+      </c>
+      <c r="S183">
+        <v>9449.702871053196</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11801,6 +12903,12 @@
       <c r="Q184">
         <v>19.97222222222222</v>
       </c>
+      <c r="R184">
+        <v>380141</v>
+      </c>
+      <c r="S184">
+        <v>9374.332155700122</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11864,6 +12972,12 @@
       <c r="Q185">
         <v>26.94444444444444</v>
       </c>
+      <c r="R185">
+        <v>383211</v>
+      </c>
+      <c r="S185">
+        <v>9299.232015782429</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11927,6 +13041,12 @@
       <c r="Q186">
         <v>29.05555555555556</v>
       </c>
+      <c r="R186">
+        <v>386308</v>
+      </c>
+      <c r="S186">
+        <v>9224.680824626981</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11990,6 +13110,12 @@
       <c r="Q187">
         <v>29.05555555555556</v>
       </c>
+      <c r="R187">
+        <v>389447</v>
+      </c>
+      <c r="S187">
+        <v>9150.328542779891</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12053,6 +13179,12 @@
       <c r="Q188">
         <v>27.30555555555555</v>
       </c>
+      <c r="R188">
+        <v>391919</v>
+      </c>
+      <c r="S188">
+        <v>9092.613524733428</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12116,6 +13248,12 @@
       <c r="Q189">
         <v>23.88888888888889</v>
       </c>
+      <c r="R189">
+        <v>394418</v>
+      </c>
+      <c r="S189">
+        <v>9035.003473472307</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12179,6 +13317,12 @@
       <c r="Q190">
         <v>35.16666666666667</v>
       </c>
+      <c r="R190">
+        <v>396935</v>
+      </c>
+      <c r="S190">
+        <v>8977.711716024036</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12242,6 +13386,12 @@
       <c r="Q191">
         <v>31.27777777777778</v>
       </c>
+      <c r="R191">
+        <v>399472</v>
+      </c>
+      <c r="S191">
+        <v>8920.695317819522</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12305,6 +13455,12 @@
       <c r="Q192">
         <v>8.731707317073171</v>
       </c>
+      <c r="R192">
+        <v>713881</v>
+      </c>
+      <c r="S192">
+        <v>4285.016690456813</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12368,6 +13524,12 @@
       <c r="Q193">
         <v>10.53658536585366</v>
       </c>
+      <c r="R193">
+        <v>717453</v>
+      </c>
+      <c r="S193">
+        <v>4263.682777826562</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12431,6 +13593,12 @@
       <c r="Q194">
         <v>10.19512195121951</v>
       </c>
+      <c r="R194">
+        <v>721569</v>
+      </c>
+      <c r="S194">
+        <v>4239.361724242588</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12494,6 +13662,12 @@
       <c r="Q195">
         <v>11.04878048780488</v>
       </c>
+      <c r="R195">
+        <v>725723</v>
+      </c>
+      <c r="S195">
+        <v>4215.095842353075</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12557,6 +13731,12 @@
       <c r="Q196">
         <v>11.21951219512195</v>
       </c>
+      <c r="R196">
+        <v>729915</v>
+      </c>
+      <c r="S196">
+        <v>4190.887980107273</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12620,6 +13800,12 @@
       <c r="Q197">
         <v>11.21951219512195</v>
       </c>
+      <c r="R197">
+        <v>734147</v>
+      </c>
+      <c r="S197">
+        <v>4166.729551438609</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12683,6 +13869,12 @@
       <c r="Q198">
         <v>11.21951219512195</v>
       </c>
+      <c r="R198">
+        <v>737476</v>
+      </c>
+      <c r="S198">
+        <v>4147.92074589546</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12746,6 +13938,12 @@
       <c r="Q199">
         <v>17.95121951219512</v>
       </c>
+      <c r="R199">
+        <v>740824</v>
+      </c>
+      <c r="S199">
+        <v>4129.175080720926</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12809,6 +14007,12 @@
       <c r="Q200">
         <v>14.90243902439025</v>
       </c>
+      <c r="R200">
+        <v>744206</v>
+      </c>
+      <c r="S200">
+        <v>4110.41028962411</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12872,6 +14076,12 @@
       <c r="Q201">
         <v>15.07317073170732</v>
       </c>
+      <c r="R201">
+        <v>747612</v>
+      </c>
+      <c r="S201">
+        <v>4091.683921606395</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12935,6 +14145,12 @@
       <c r="Q202">
         <v>6.289473684210527</v>
       </c>
+      <c r="R202">
+        <v>1165366</v>
+      </c>
+      <c r="S202">
+        <v>2219.004158350252</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12998,6 +14214,12 @@
       <c r="Q203">
         <v>6.631578947368421</v>
       </c>
+      <c r="R203">
+        <v>1169087</v>
+      </c>
+      <c r="S203">
+        <v>2211.941455169718</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13061,6 +14283,12 @@
       <c r="Q204">
         <v>7.078947368421053</v>
       </c>
+      <c r="R204">
+        <v>1173400</v>
+      </c>
+      <c r="S204">
+        <v>2203.811147093915</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13124,6 +14352,12 @@
       <c r="Q205">
         <v>9.131578947368421</v>
       </c>
+      <c r="R205">
+        <v>1177755</v>
+      </c>
+      <c r="S205">
+        <v>2195.6620859177</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13187,6 +14421,12 @@
       <c r="Q206">
         <v>11.02631578947368</v>
       </c>
+      <c r="R206">
+        <v>1182139</v>
+      </c>
+      <c r="S206">
+        <v>2187.519403386573</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13250,6 +14490,12 @@
       <c r="Q207">
         <v>11.02631578947368</v>
       </c>
+      <c r="R207">
+        <v>1186553</v>
+      </c>
+      <c r="S207">
+        <v>2179.381789098338</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13313,6 +14559,12 @@
       <c r="Q208">
         <v>6.789473684210527</v>
       </c>
+      <c r="R208">
+        <v>1190386</v>
+      </c>
+      <c r="S208">
+        <v>2172.36425831621</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13376,6 +14628,12 @@
       <c r="Q209">
         <v>6.973684210526315</v>
       </c>
+      <c r="R209">
+        <v>1194242</v>
+      </c>
+      <c r="S209">
+        <v>2165.350071426059</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13439,6 +14697,12 @@
       <c r="Q210">
         <v>9.368421052631579</v>
       </c>
+      <c r="R210">
+        <v>1198114</v>
+      </c>
+      <c r="S210">
+        <v>2158.352210223735</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13502,6 +14766,12 @@
       <c r="Q211">
         <v>9.131578947368421</v>
       </c>
+      <c r="R211">
+        <v>1202017</v>
+      </c>
+      <c r="S211">
+        <v>2151.34394937842</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13562,6 +14832,12 @@
       <c r="Q212">
         <v>4.042553191489361</v>
       </c>
+      <c r="R212">
+        <v>134266</v>
+      </c>
+      <c r="S212">
+        <v>21608.68723280652</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13622,6 +14898,12 @@
       <c r="Q213">
         <v>4.212765957446808</v>
       </c>
+      <c r="R213">
+        <v>134784</v>
+      </c>
+      <c r="S213">
+        <v>21525.64102564103</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13682,6 +14964,12 @@
       <c r="Q214">
         <v>4.446808510638298</v>
       </c>
+      <c r="R214">
+        <v>135354</v>
+      </c>
+      <c r="S214">
+        <v>21434.99268584601</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13742,6 +15030,12 @@
       <c r="Q215">
         <v>4.957446808510638</v>
       </c>
+      <c r="R215">
+        <v>135935</v>
+      </c>
+      <c r="S215">
+        <v>21343.3773494685</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13802,6 +15096,12 @@
       <c r="Q216">
         <v>6.765957446808511</v>
       </c>
+      <c r="R216">
+        <v>136517</v>
+      </c>
+      <c r="S216">
+        <v>21252.38614971029</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13862,6 +15162,12 @@
       <c r="Q217">
         <v>6.765957446808511</v>
       </c>
+      <c r="R217">
+        <v>137116</v>
+      </c>
+      <c r="S217">
+        <v>21159.54374398319</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13922,6 +15228,12 @@
       <c r="Q218">
         <v>5.787234042553192</v>
       </c>
+      <c r="R218">
+        <v>137728</v>
+      </c>
+      <c r="S218">
+        <v>21065.52044609665</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13982,6 +15294,12 @@
       <c r="Q219">
         <v>6.340425531914893</v>
       </c>
+      <c r="R219">
+        <v>138348</v>
+      </c>
+      <c r="S219">
+        <v>20971.11631537861</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14042,6 +15360,12 @@
       <c r="Q220">
         <v>8.957446808510639</v>
       </c>
+      <c r="R220">
+        <v>138974</v>
+      </c>
+      <c r="S220">
+        <v>20876.65318692705</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14101,6 +15425,12 @@
       </c>
       <c r="Q221">
         <v>8.148936170212766</v>
+      </c>
+      <c r="R221">
+        <v>139607</v>
+      </c>
+      <c r="S221">
+        <v>20781.99517216186</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/xlsx/base_ugrhi.xlsx
+++ b/data-raw/xlsx/base_ugrhi.xlsx
@@ -514,10 +514,10 @@
         <v>7.3</v>
       </c>
       <c r="R2">
-        <v>327930</v>
+        <v>64743</v>
       </c>
       <c r="S2">
-        <v>2115.671027353399</v>
+        <v>10716.09285945971</v>
       </c>
     </row>
     <row r="3">
@@ -580,10 +580,10 @@
         <v>7.6</v>
       </c>
       <c r="R3">
-        <v>330399</v>
+        <v>64970</v>
       </c>
       <c r="S3">
-        <v>2099.861077061371</v>
+        <v>10678.65168539326</v>
       </c>
     </row>
     <row r="4">
@@ -646,10 +646,10 @@
         <v>7.3</v>
       </c>
       <c r="R4">
-        <v>333188</v>
+        <v>65232</v>
       </c>
       <c r="S4">
-        <v>2082.283875769836</v>
+        <v>10635.76158940397</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         <v>7.199999999999999</v>
       </c>
       <c r="R5">
-        <v>336007</v>
+        <v>65496</v>
       </c>
       <c r="S5">
-        <v>2064.814125896187</v>
+        <v>10592.89116892635</v>
       </c>
     </row>
     <row r="6">
@@ -778,10 +778,10 @@
         <v>9.9</v>
       </c>
       <c r="R6">
-        <v>338854</v>
+        <v>65761</v>
       </c>
       <c r="S6">
-        <v>2047.465870256807</v>
+        <v>10550.20452851994</v>
       </c>
     </row>
     <row r="7">
@@ -844,10 +844,10 @@
         <v>9.9</v>
       </c>
       <c r="R7">
-        <v>341728</v>
+        <v>66027</v>
       </c>
       <c r="S7">
-        <v>2030.246277741362</v>
+        <v>10507.70139488391</v>
       </c>
     </row>
     <row r="8">
@@ -910,10 +910,10 @@
         <v>10.4</v>
       </c>
       <c r="R8">
-        <v>344084</v>
+        <v>66275</v>
       </c>
       <c r="S8">
-        <v>2016.344846025971</v>
+        <v>10468.38174273859</v>
       </c>
     </row>
     <row r="9">
@@ -976,10 +976,10 @@
         <v>11.1</v>
       </c>
       <c r="R9">
-        <v>346458</v>
+        <v>66523</v>
       </c>
       <c r="S9">
-        <v>2002.528445006321</v>
+        <v>10429.35526058656</v>
       </c>
     </row>
     <row r="10">
@@ -1042,10 +1042,10 @@
         <v>11.1</v>
       </c>
       <c r="R10">
-        <v>348853</v>
+        <v>66772</v>
       </c>
       <c r="S10">
-        <v>1988.780374541712</v>
+        <v>10390.463068352</v>
       </c>
     </row>
     <row r="11">
@@ -1111,10 +1111,10 @@
         <v>11.1</v>
       </c>
       <c r="R11">
-        <v>351266</v>
+        <v>67024</v>
       </c>
       <c r="S11">
-        <v>1975.118571111352</v>
+        <v>10351.39651468131</v>
       </c>
     </row>
     <row r="12">
@@ -1180,10 +1180,10 @@
         <v>10.49462365591398</v>
       </c>
       <c r="R12">
-        <v>4106595</v>
+        <v>1994369</v>
       </c>
       <c r="S12">
-        <v>1658.740635489986</v>
+        <v>3415.504352504476</v>
       </c>
     </row>
     <row r="13">
@@ -1249,10 +1249,10 @@
         <v>10.95698924731183</v>
       </c>
       <c r="R13">
-        <v>4148498</v>
+        <v>2012080</v>
       </c>
       <c r="S13">
-        <v>1641.986087494799</v>
+        <v>3385.439942745815</v>
       </c>
     </row>
     <row r="14">
@@ -1318,10 +1318,10 @@
         <v>11.54838709677419</v>
       </c>
       <c r="R14">
-        <v>4195731</v>
+        <v>2032001</v>
       </c>
       <c r="S14">
-        <v>1623.501601985447</v>
+        <v>3352.25031877445</v>
       </c>
     </row>
     <row r="15">
@@ -1387,10 +1387,10 @@
         <v>10.68817204301075</v>
       </c>
       <c r="R15">
-        <v>4243542</v>
+        <v>2052147</v>
       </c>
       <c r="S15">
-        <v>1605.209987317199</v>
+        <v>3319.341158308835</v>
       </c>
     </row>
     <row r="16">
@@ -1456,10 +1456,10 @@
         <v>11.66666666666667</v>
       </c>
       <c r="R16">
-        <v>4291956</v>
+        <v>2072536</v>
       </c>
       <c r="S16">
-        <v>1587.102943273417</v>
+        <v>3286.686455627309</v>
       </c>
     </row>
     <row r="17">
@@ -1525,10 +1525,10 @@
         <v>11.66666666666667</v>
       </c>
       <c r="R17">
-        <v>4340967</v>
+        <v>2093154</v>
       </c>
       <c r="S17">
-        <v>1569.184009000759</v>
+        <v>3254.31191398244</v>
       </c>
     </row>
     <row r="18">
@@ -1594,10 +1594,10 @@
         <v>14.44086021505376</v>
       </c>
       <c r="R18">
-        <v>4384129</v>
+        <v>2110441</v>
       </c>
       <c r="S18">
-        <v>1553.735302952992</v>
+        <v>3227.655262573083</v>
       </c>
     </row>
     <row r="19">
@@ -1663,10 +1663,10 @@
         <v>14.68817204301075</v>
       </c>
       <c r="R19">
-        <v>4427766</v>
+        <v>2127893</v>
       </c>
       <c r="S19">
-        <v>1538.422762178489</v>
+        <v>3201.183518156223</v>
       </c>
     </row>
     <row r="20">
@@ -1732,10 +1732,10 @@
         <v>17.32258064516129</v>
       </c>
       <c r="R20">
-        <v>4471871</v>
+        <v>2145511</v>
       </c>
       <c r="S20">
-        <v>1523.249664402216</v>
+        <v>3174.896796147864</v>
       </c>
     </row>
     <row r="21">
@@ -1801,10 +1801,10 @@
         <v>17.48387096774194</v>
       </c>
       <c r="R21">
-        <v>4516451</v>
+        <v>2163292</v>
       </c>
       <c r="S21">
-        <v>1508.214303664537</v>
+        <v>3148.800994040564</v>
       </c>
     </row>
     <row r="22">
@@ -1870,10 +1870,10 @@
         <v>4.666666666666667</v>
       </c>
       <c r="R22">
-        <v>401388</v>
+        <v>281779</v>
       </c>
       <c r="S22">
-        <v>8406.708720739036</v>
+        <v>11975.17203198251</v>
       </c>
     </row>
     <row r="23">
@@ -1939,10 +1939,10 @@
         <v>5.666666666666666</v>
       </c>
       <c r="R23">
-        <v>406942</v>
+        <v>285799</v>
       </c>
       <c r="S23">
-        <v>8291.972811850337</v>
+        <v>11806.73130416831</v>
       </c>
     </row>
     <row r="24">
@@ -2008,10 +2008,10 @@
         <v>5.487179487179487</v>
       </c>
       <c r="R24">
-        <v>413339</v>
+        <v>290429</v>
       </c>
       <c r="S24">
-        <v>8163.642917798708</v>
+        <v>11618.50917091613</v>
       </c>
     </row>
     <row r="25">
@@ -2077,10 +2077,10 @@
         <v>7.025641025641026</v>
       </c>
       <c r="R25">
-        <v>419868</v>
+        <v>295135</v>
       </c>
       <c r="S25">
-        <v>8036.697247706423</v>
+        <v>11433.24919104816</v>
       </c>
     </row>
     <row r="26">
@@ -2146,10 +2146,10 @@
         <v>9.717948717948719</v>
       </c>
       <c r="R26">
-        <v>426533</v>
+        <v>299920</v>
       </c>
       <c r="S26">
-        <v>7911.115904279389</v>
+        <v>11250.84022405975</v>
       </c>
     </row>
     <row r="27">
@@ -2215,10 +2215,10 @@
         <v>9.717948717948719</v>
       </c>
       <c r="R27">
-        <v>433329</v>
+        <v>304785</v>
       </c>
       <c r="S27">
-        <v>7787.044024286397</v>
+        <v>11071.2535065702</v>
       </c>
     </row>
     <row r="28">
@@ -2284,10 +2284,10 @@
         <v>7.692307692307693</v>
       </c>
       <c r="R28">
-        <v>439061</v>
+        <v>308843</v>
       </c>
       <c r="S28">
-        <v>7685.383124440567</v>
+        <v>10925.78429817091</v>
       </c>
     </row>
     <row r="29">
@@ -2353,10 +2353,10 @@
         <v>7.692307692307693</v>
       </c>
       <c r="R29">
-        <v>444883</v>
+        <v>312955</v>
       </c>
       <c r="S29">
-        <v>7584.807691010895</v>
+        <v>10782.22747679379</v>
       </c>
     </row>
     <row r="30">
@@ -2422,10 +2422,10 @@
         <v>8.333333333333332</v>
       </c>
       <c r="R30">
-        <v>450799</v>
+        <v>317121</v>
       </c>
       <c r="S30">
-        <v>7485.26948817544</v>
+        <v>10640.58198605579</v>
       </c>
     </row>
     <row r="31">
@@ -2491,10 +2491,10 @@
         <v>8.435897435897436</v>
       </c>
       <c r="R31">
-        <v>456815</v>
+        <v>321346</v>
       </c>
       <c r="S31">
-        <v>7386.692643630354</v>
+        <v>10500.68150840527</v>
       </c>
     </row>
     <row r="32">
@@ -2557,10 +2557,10 @@
         <v>27.47727272727273</v>
       </c>
       <c r="R32">
-        <v>309750</v>
+        <v>1107913</v>
       </c>
       <c r="S32">
-        <v>14151.74818401937</v>
+        <v>3956.54171401545</v>
       </c>
     </row>
     <row r="33">
@@ -2623,10 +2623,10 @@
         <v>28.11363636363636</v>
       </c>
       <c r="R33">
-        <v>311360</v>
+        <v>1118164</v>
       </c>
       <c r="S33">
-        <v>14078.57142857143</v>
+        <v>3920.269298600205</v>
       </c>
     </row>
     <row r="34">
@@ -2689,10 +2689,10 @@
         <v>28.97727272727273</v>
       </c>
       <c r="R34">
-        <v>313213</v>
+        <v>1129816</v>
       </c>
       <c r="S34">
-        <v>13995.28116649053</v>
+        <v>3879.83884101482</v>
       </c>
     </row>
     <row r="35">
@@ -2755,10 +2755,10 @@
         <v>29.20454545454546</v>
       </c>
       <c r="R35">
-        <v>315088</v>
+        <v>1141626</v>
       </c>
       <c r="S35">
-        <v>13911.99918752856</v>
+        <v>3839.702319323491</v>
       </c>
     </row>
     <row r="36">
@@ -2821,10 +2821,10 @@
         <v>30.63636363636364</v>
       </c>
       <c r="R36">
-        <v>316987</v>
+        <v>1153595</v>
       </c>
       <c r="S36">
-        <v>13828.65543381905</v>
+        <v>3799.863903709707</v>
       </c>
     </row>
     <row r="37">
@@ -2887,10 +2887,10 @@
         <v>30.63636363636364</v>
       </c>
       <c r="R37">
-        <v>318914</v>
+        <v>1165726</v>
       </c>
       <c r="S37">
-        <v>13745.097424384</v>
+        <v>3760.321035989589</v>
       </c>
     </row>
     <row r="38">
@@ -2953,10 +2953,10 @@
         <v>25.81818181818182</v>
       </c>
       <c r="R38">
-        <v>320574</v>
+        <v>1175406</v>
       </c>
       <c r="S38">
-        <v>13673.92240169197</v>
+        <v>3729.3530916126</v>
       </c>
     </row>
     <row r="39">
@@ -3019,10 +3019,10 @@
         <v>32.11363636363637</v>
       </c>
       <c r="R39">
-        <v>322250</v>
+        <v>1185180</v>
       </c>
       <c r="S39">
-        <v>13602.80527540729</v>
+        <v>3698.597681364856</v>
       </c>
     </row>
     <row r="40">
@@ -3085,10 +3085,10 @@
         <v>37.36363636363637</v>
       </c>
       <c r="R40">
-        <v>323946</v>
+        <v>1195066</v>
       </c>
       <c r="S40">
-        <v>13531.58859809968</v>
+        <v>3668.001599911637</v>
       </c>
     </row>
     <row r="41">
@@ -3151,10 +3151,10 @@
         <v>37.54545454545454</v>
       </c>
       <c r="R41">
-        <v>325658</v>
+        <v>1205046</v>
       </c>
       <c r="S41">
-        <v>13460.45237641943</v>
+        <v>3637.62379195483</v>
       </c>
     </row>
     <row r="42">
@@ -3220,10 +3220,10 @@
         <v>92.26153846153846</v>
       </c>
       <c r="R42">
-        <v>2985100</v>
+        <v>5080199</v>
       </c>
       <c r="S42">
-        <v>1817.088874744565</v>
+        <v>1067.712504962896</v>
       </c>
     </row>
     <row r="43">
@@ -3289,10 +3289,10 @@
         <v>92.16923076923077</v>
       </c>
       <c r="R43">
-        <v>3023972.5</v>
+        <v>5140157</v>
       </c>
       <c r="S43">
-        <v>1793.730597748491</v>
+        <v>1055.25803978361</v>
       </c>
     </row>
     <row r="44">
@@ -3358,10 +3358,10 @@
         <v>82.43076923076923</v>
       </c>
       <c r="R44">
-        <v>3068054.5</v>
+        <v>5208188</v>
       </c>
       <c r="S44">
-        <v>1767.958163715801</v>
+        <v>1041.473925288411</v>
       </c>
     </row>
     <row r="45">
@@ -3427,10 +3427,10 @@
         <v>82.50769230769231</v>
       </c>
       <c r="R45">
-        <v>3112917</v>
+        <v>5277330</v>
       </c>
       <c r="S45">
-        <v>1742.478838979645</v>
+        <v>1027.828845268346</v>
       </c>
     </row>
     <row r="46">
@@ -3496,10 +3496,10 @@
         <v>52.43076923076922</v>
       </c>
       <c r="R46">
-        <v>3158540.5</v>
+        <v>5347570</v>
       </c>
       <c r="S46">
-        <v>1717.309624492705</v>
+        <v>1014.328377188143</v>
       </c>
     </row>
     <row r="47">
@@ -3565,10 +3565,10 @@
         <v>52.43076923076922</v>
       </c>
       <c r="R47">
-        <v>3204978.5</v>
+        <v>5418961</v>
       </c>
       <c r="S47">
-        <v>1692.426953878162</v>
+        <v>1000.96531419953</v>
       </c>
     </row>
     <row r="48">
@@ -3634,10 +3634,10 @@
         <v>112.4769230769231</v>
       </c>
       <c r="R48">
-        <v>3240623.5</v>
+        <v>5473874</v>
       </c>
       <c r="S48">
-        <v>1673.811227993625</v>
+        <v>990.9237954691687</v>
       </c>
     </row>
     <row r="49">
@@ -3703,10 +3703,10 @@
         <v>119.1230769230769</v>
       </c>
       <c r="R49">
-        <v>3276742</v>
+        <v>5529450</v>
       </c>
       <c r="S49">
-        <v>1655.36133146888</v>
+        <v>980.9641103545561</v>
       </c>
     </row>
     <row r="50">
@@ -3772,10 +3772,10 @@
         <v>131.9076923076923</v>
       </c>
       <c r="R50">
-        <v>3313344.5</v>
+        <v>5585706</v>
       </c>
       <c r="S50">
-        <v>1637.074563179289</v>
+        <v>971.0844072351821</v>
       </c>
     </row>
     <row r="51">
@@ -3841,10 +3841,10 @@
         <v>136.4153846153846</v>
       </c>
       <c r="R51">
-        <v>3350444</v>
+        <v>5642645</v>
       </c>
       <c r="S51">
-        <v>1618.947220129631</v>
+        <v>961.2853546519407</v>
       </c>
     </row>
     <row r="52">
@@ -3910,10 +3910,10 @@
         <v>211.6451612903226</v>
       </c>
       <c r="R52">
-        <v>4728315</v>
+        <v>19521971</v>
       </c>
       <c r="S52">
-        <v>560.2469378626424</v>
+        <v>135.6944951921095</v>
       </c>
     </row>
     <row r="53">
@@ -3979,10 +3979,10 @@
         <v>213.3870967741936</v>
       </c>
       <c r="R53">
-        <v>4772351</v>
+        <v>19655679</v>
       </c>
       <c r="S53">
-        <v>555.0773612418701</v>
+        <v>134.7714317068365</v>
       </c>
     </row>
     <row r="54">
@@ -4048,10 +4048,10 @@
         <v>218.741935483871</v>
       </c>
       <c r="R54">
-        <v>4822123</v>
+        <v>19807067</v>
       </c>
       <c r="S54">
-        <v>549.3480775998456</v>
+        <v>133.7413560523625</v>
       </c>
     </row>
     <row r="55">
@@ -4117,10 +4117,10 @@
         <v>167.6774193548387</v>
       </c>
       <c r="R55">
-        <v>4872582</v>
+        <v>19959976</v>
       </c>
       <c r="S55">
-        <v>543.6591934214755</v>
+        <v>132.7167928458431</v>
       </c>
     </row>
     <row r="56">
@@ -4186,10 +4186,10 @@
         <v>205.8387096774194</v>
       </c>
       <c r="R56">
-        <v>4923727</v>
+        <v>20114410</v>
       </c>
       <c r="S56">
-        <v>538.0119572023389</v>
+        <v>131.6978226057836</v>
       </c>
     </row>
     <row r="57">
@@ -4255,10 +4255,10 @@
         <v>205.8387096774194</v>
       </c>
       <c r="R57">
-        <v>4975576</v>
+        <v>20270404</v>
       </c>
       <c r="S57">
-        <v>532.4054943588441</v>
+        <v>130.6843218319674</v>
       </c>
     </row>
     <row r="58">
@@ -4324,10 +4324,10 @@
         <v>179</v>
       </c>
       <c r="R58">
-        <v>5020372</v>
+        <v>20404925</v>
       </c>
       <c r="S58">
-        <v>527.6549227826144</v>
+        <v>129.8227756289229</v>
       </c>
     </row>
     <row r="59">
@@ -4393,10 +4393,10 @@
         <v>185.5806451612903</v>
       </c>
       <c r="R59">
-        <v>5065702</v>
+        <v>20540641</v>
       </c>
       <c r="S59">
-        <v>522.9332479486555</v>
+        <v>128.9650113645431</v>
       </c>
     </row>
     <row r="60">
@@ -4462,10 +4462,10 @@
         <v>196.6129032258065</v>
       </c>
       <c r="R60">
-        <v>5111561</v>
+        <v>20677541</v>
       </c>
       <c r="S60">
-        <v>518.2416878131748</v>
+        <v>128.1111714395827</v>
       </c>
     </row>
     <row r="61">
@@ -4531,10 +4531,10 @@
         <v>193.6451612903226</v>
       </c>
       <c r="R61">
-        <v>5157962</v>
+        <v>20815650</v>
       </c>
       <c r="S61">
-        <v>513.5795882172067</v>
+        <v>127.2611712821843</v>
       </c>
     </row>
     <row r="62">
@@ -4600,10 +4600,10 @@
         <v>31.48275862068966</v>
       </c>
       <c r="R62">
-        <v>14165034</v>
+        <v>1664136</v>
       </c>
       <c r="S62">
-        <v>345.080710713437</v>
+        <v>2937.308008480076</v>
       </c>
     </row>
     <row r="63">
@@ -4669,10 +4669,10 @@
         <v>29.89655172413793</v>
       </c>
       <c r="R63">
-        <v>14242370</v>
+        <v>1679243</v>
       </c>
       <c r="S63">
-        <v>343.2069241284983</v>
+        <v>2910.883058616293</v>
       </c>
     </row>
     <row r="64">
@@ -4738,10 +4738,10 @@
         <v>29.89655172413793</v>
       </c>
       <c r="R64">
-        <v>14329976</v>
+        <v>1696360</v>
       </c>
       <c r="S64">
-        <v>341.1087359811349</v>
+        <v>2881.51100002358</v>
       </c>
     </row>
     <row r="65">
@@ -4807,10 +4807,10 @@
         <v>32.48275862068966</v>
       </c>
       <c r="R65">
-        <v>14418211</v>
+        <v>1713741</v>
       </c>
       <c r="S65">
-        <v>339.0212558270925</v>
+        <v>2852.286313976266</v>
       </c>
     </row>
     <row r="66">
@@ -4876,10 +4876,10 @@
         <v>31.77586206896552</v>
       </c>
       <c r="R66">
-        <v>14507088</v>
+        <v>1731403</v>
       </c>
       <c r="S66">
-        <v>336.944257868981</v>
+        <v>2823.190210482482</v>
       </c>
     </row>
     <row r="67">
@@ -4945,10 +4945,10 @@
         <v>31.77586206896552</v>
       </c>
       <c r="R67">
-        <v>14596613</v>
+        <v>1749343</v>
       </c>
       <c r="S67">
-        <v>334.8776870360268</v>
+        <v>2794.237608061998</v>
       </c>
     </row>
     <row r="68">
@@ -5014,10 +5014,10 @@
         <v>33.56896551724138</v>
       </c>
       <c r="R68">
-        <v>14672218</v>
+        <v>1765431</v>
       </c>
       <c r="S68">
-        <v>333.1520837544807</v>
+        <v>2768.77431063576</v>
       </c>
     </row>
     <row r="69">
@@ -5083,10 +5083,10 @@
         <v>36.29310344827586</v>
       </c>
       <c r="R69">
-        <v>14748281</v>
+        <v>1781727</v>
       </c>
       <c r="S69">
-        <v>331.4338803281549</v>
+        <v>2743.450595966722</v>
       </c>
     </row>
     <row r="70">
@@ -5152,10 +5152,10 @@
         <v>32.08620689655172</v>
       </c>
       <c r="R70">
-        <v>14824805</v>
+        <v>1798230</v>
       </c>
       <c r="S70">
-        <v>329.7230553791433</v>
+        <v>2718.272968418945</v>
       </c>
     </row>
     <row r="71">
@@ -5221,10 +5221,10 @@
         <v>31.84482758620689</v>
       </c>
       <c r="R71">
-        <v>14901793</v>
+        <v>1814949</v>
       </c>
       <c r="S71">
-        <v>328.0195879784399</v>
+        <v>2693.232702406514</v>
       </c>
     </row>
     <row r="72">
@@ -5287,10 +5287,10 @@
         <v>10.52173913043478</v>
       </c>
       <c r="R72">
-        <v>773026</v>
+        <v>670526</v>
       </c>
       <c r="S72">
-        <v>5956.146365064047</v>
+        <v>6866.633061208663</v>
       </c>
     </row>
     <row r="73">
@@ -5353,10 +5353,10 @@
         <v>10.58695652173913</v>
       </c>
       <c r="R73">
-        <v>778086</v>
+        <v>674889</v>
       </c>
       <c r="S73">
-        <v>5917.412728156014</v>
+        <v>6822.241879775785</v>
       </c>
     </row>
     <row r="74">
@@ -5419,10 +5419,10 @@
         <v>10.91304347826087</v>
       </c>
       <c r="R74">
-        <v>783814</v>
+        <v>679818</v>
       </c>
       <c r="S74">
-        <v>5874.169126859179</v>
+        <v>6772.777419838839</v>
       </c>
     </row>
     <row r="75">
@@ -5485,10 +5485,10 @@
         <v>10.84782608695652</v>
       </c>
       <c r="R75">
-        <v>789590</v>
+        <v>684788</v>
       </c>
       <c r="S75">
-        <v>5831.198470092073</v>
+        <v>6723.622493384814</v>
       </c>
     </row>
     <row r="76">
@@ -5551,10 +5551,10 @@
         <v>13.56521739130435</v>
       </c>
       <c r="R76">
-        <v>795410</v>
+        <v>689789</v>
       </c>
       <c r="S76">
-        <v>5788.531700632378</v>
+        <v>6674.87594032378</v>
       </c>
     </row>
     <row r="77">
@@ -5617,10 +5617,10 @@
         <v>13.56521739130435</v>
       </c>
       <c r="R77">
-        <v>801284</v>
+        <v>694839</v>
       </c>
       <c r="S77">
-        <v>5746.097513490848</v>
+        <v>6626.363805140471</v>
       </c>
     </row>
     <row r="78">
@@ -5683,10 +5683,10 @@
         <v>12.91304347826087</v>
       </c>
       <c r="R78">
-        <v>806172</v>
+        <v>699044</v>
       </c>
       <c r="S78">
-        <v>5711.257647251456</v>
+        <v>6586.503853834665</v>
       </c>
     </row>
     <row r="79">
@@ -5749,10 +5749,10 @@
         <v>16.76086956521739</v>
       </c>
       <c r="R79">
-        <v>811091</v>
+        <v>703276</v>
       </c>
       <c r="S79">
-        <v>5676.620749089806</v>
+        <v>6546.869223462766</v>
       </c>
     </row>
     <row r="80">
@@ -5818,10 +5818,10 @@
         <v>20.76086956521739</v>
       </c>
       <c r="R80">
-        <v>816049</v>
+        <v>707537</v>
       </c>
       <c r="S80">
-        <v>5642.131783753181</v>
+        <v>6507.442013633209</v>
       </c>
     </row>
     <row r="81">
@@ -5887,10 +5887,10 @@
         <v>20.56521739130435</v>
       </c>
       <c r="R81">
-        <v>821038</v>
+        <v>711826</v>
       </c>
       <c r="S81">
-        <v>5607.847627028225</v>
+        <v>6468.232405110238</v>
       </c>
     </row>
     <row r="82">
@@ -5956,10 +5956,10 @@
         <v>27.09722222222222</v>
       </c>
       <c r="R82">
-        <v>3598573</v>
+        <v>1426363</v>
       </c>
       <c r="S82">
-        <v>1743.931274980388</v>
+        <v>4399.766398876022</v>
       </c>
     </row>
     <row r="83">
@@ -6025,10 +6025,10 @@
         <v>26.36111111111111</v>
       </c>
       <c r="R83">
-        <v>3629434</v>
+        <v>1437967</v>
       </c>
       <c r="S83">
-        <v>1729.10266449259</v>
+        <v>4364.261488615524</v>
       </c>
     </row>
     <row r="84">
@@ -6094,10 +6094,10 @@
         <v>27.20833333333334</v>
       </c>
       <c r="R84">
-        <v>3664457</v>
+        <v>1451155</v>
       </c>
       <c r="S84">
-        <v>1712.576788320889</v>
+        <v>4324.599370845981</v>
       </c>
     </row>
     <row r="85">
@@ -6163,10 +6163,10 @@
         <v>29.04166666666666</v>
       </c>
       <c r="R85">
-        <v>3699938</v>
+        <v>1464498</v>
       </c>
       <c r="S85">
-        <v>1696.153827442514</v>
+        <v>4285.198067870356</v>
       </c>
     </row>
     <row r="86">
@@ -6232,10 +6232,10 @@
         <v>32.04166666666667</v>
       </c>
       <c r="R86">
-        <v>3735476</v>
+        <v>1478015</v>
       </c>
       <c r="S86">
-        <v>1680.017218689131</v>
+        <v>4246.008328738207</v>
       </c>
     </row>
     <row r="87">
@@ -6301,10 +6301,10 @@
         <v>32.04166666666667</v>
       </c>
       <c r="R87">
-        <v>3771460</v>
+        <v>1491700</v>
       </c>
       <c r="S87">
-        <v>1663.987951615555</v>
+        <v>4207.055037876248</v>
       </c>
     </row>
     <row r="88">
@@ -6370,10 +6370,10 @@
         <v>32.41666666666666</v>
       </c>
       <c r="R88">
-        <v>3799978</v>
+        <v>1502730</v>
       </c>
       <c r="S88">
-        <v>1651.500087632086</v>
+        <v>4176.175360843265</v>
       </c>
     </row>
     <row r="89">
@@ -6439,10 +6439,10 @@
         <v>36.54166666666666</v>
       </c>
       <c r="R89">
-        <v>3828771</v>
+        <v>1513867</v>
       </c>
       <c r="S89">
-        <v>1639.080530018641</v>
+        <v>4145.452671866155</v>
       </c>
     </row>
     <row r="90">
@@ -6508,10 +6508,10 @@
         <v>41.84722222222222</v>
       </c>
       <c r="R90">
-        <v>3857855</v>
+        <v>1525118</v>
       </c>
       <c r="S90">
-        <v>1626.7236586134</v>
+        <v>4114.871111612348</v>
       </c>
     </row>
     <row r="91">
@@ -6577,10 +6577,10 @@
         <v>40.75</v>
       </c>
       <c r="R91">
-        <v>3887202</v>
+        <v>1536476</v>
       </c>
       <c r="S91">
-        <v>1614.442470445323</v>
+        <v>4084.452995035393</v>
       </c>
     </row>
     <row r="92">
@@ -6646,10 +6646,10 @@
         <v>27.94871794871795</v>
       </c>
       <c r="R92">
-        <v>2240056</v>
+        <v>1845410</v>
       </c>
       <c r="S92">
-        <v>1506.369483620052</v>
+        <v>1828.510737451298</v>
       </c>
     </row>
     <row r="93">
@@ -6715,10 +6715,10 @@
         <v>28.53846153846154</v>
       </c>
       <c r="R93">
-        <v>2265119</v>
+        <v>1865578</v>
       </c>
       <c r="S93">
-        <v>1489.701865553201</v>
+        <v>1808.743456451566</v>
       </c>
     </row>
     <row r="94">
@@ -6784,10 +6784,10 @@
         <v>29.76923076923077</v>
       </c>
       <c r="R94">
-        <v>2293831</v>
+        <v>1888666</v>
       </c>
       <c r="S94">
-        <v>1471.055191075541</v>
+        <v>1786.632469690247</v>
       </c>
     </row>
     <row r="95">
@@ -6853,10 +6853,10 @@
         <v>29.12820512820512</v>
       </c>
       <c r="R95">
-        <v>2322963</v>
+        <v>1912073</v>
       </c>
       <c r="S95">
-        <v>1452.606864594916</v>
+        <v>1764.76107345274</v>
       </c>
     </row>
     <row r="96">
@@ -6922,10 +6922,10 @@
         <v>29.71794871794872</v>
       </c>
       <c r="R96">
-        <v>2352526</v>
+        <v>1935803</v>
       </c>
       <c r="S96">
-        <v>1434.352691532421</v>
+        <v>1743.127787280007</v>
       </c>
     </row>
     <row r="97">
@@ -6991,10 +6991,10 @@
         <v>29.71794871794872</v>
       </c>
       <c r="R97">
-        <v>2382514</v>
+        <v>1959857</v>
       </c>
       <c r="S97">
-        <v>1416.29891786575</v>
+        <v>1721.733779556366</v>
       </c>
     </row>
     <row r="98">
@@ -7060,10 +7060,10 @@
         <v>30.15384615384615</v>
       </c>
       <c r="R98">
-        <v>2406832</v>
+        <v>1980443</v>
       </c>
       <c r="S98">
-        <v>1401.989004633477</v>
+        <v>1703.83696980928</v>
       </c>
     </row>
     <row r="99">
@@ -7129,10 +7129,10 @@
         <v>40.97435897435898</v>
       </c>
       <c r="R99">
-        <v>2431420</v>
+        <v>2001262</v>
       </c>
       <c r="S99">
-        <v>1387.811237877454</v>
+        <v>1686.112063288065</v>
       </c>
     </row>
     <row r="100">
@@ -7198,10 +7198,10 @@
         <v>50.33333333333333</v>
       </c>
       <c r="R100">
-        <v>2456291</v>
+        <v>2022325</v>
       </c>
       <c r="S100">
-        <v>1373.759053792893</v>
+        <v>1668.550801676289</v>
       </c>
     </row>
     <row r="101">
@@ -7267,10 +7267,10 @@
         <v>54.23076923076923</v>
       </c>
       <c r="R101">
-        <v>2481432</v>
+        <v>2043625</v>
       </c>
       <c r="S101">
-        <v>1359.840608164963</v>
+        <v>1651.160070952352</v>
       </c>
     </row>
     <row r="102">
@@ -7333,10 +7333,10 @@
         <v>1.432314410480349</v>
       </c>
       <c r="R102">
-        <v>1184937</v>
+        <v>365189</v>
       </c>
       <c r="S102">
-        <v>13999.00247861279</v>
+        <v>45422.87965957353</v>
       </c>
     </row>
     <row r="103">
@@ -7399,10 +7399,10 @@
         <v>1.441048034934498</v>
       </c>
       <c r="R103">
-        <v>1193857</v>
+        <v>365581</v>
       </c>
       <c r="S103">
-        <v>13894.40778920759</v>
+        <v>45374.17425960321</v>
       </c>
     </row>
     <row r="104">
@@ -7465,10 +7465,10 @@
         <v>1.462882096069869</v>
       </c>
       <c r="R104">
-        <v>1204058</v>
+        <v>366034</v>
       </c>
       <c r="S104">
-        <v>13776.6918204937</v>
+        <v>45318.01963752001</v>
       </c>
     </row>
     <row r="105">
@@ -7531,10 +7531,10 @@
         <v>1.51528384279476</v>
       </c>
       <c r="R105">
-        <v>1214434</v>
+        <v>366498</v>
       </c>
       <c r="S105">
-        <v>13658.98517334001</v>
+        <v>45260.6453514071</v>
       </c>
     </row>
     <row r="106">
@@ -7600,10 +7600,10 @@
         <v>1.676855895196506</v>
       </c>
       <c r="R106">
-        <v>1224996</v>
+        <v>366977</v>
       </c>
       <c r="S106">
-        <v>13541.21646111497</v>
+        <v>45201.56849066835</v>
       </c>
     </row>
     <row r="107">
@@ -7669,10 +7669,10 @@
         <v>1.676855895196506</v>
       </c>
       <c r="R107">
-        <v>1235730</v>
+        <v>367460</v>
       </c>
       <c r="S107">
-        <v>13423.5925323493</v>
+        <v>45142.15424808142</v>
       </c>
     </row>
     <row r="108">
@@ -7738,10 +7738,10 @@
         <v>1.192139737991266</v>
       </c>
       <c r="R108">
-        <v>1246112</v>
+        <v>368598</v>
       </c>
       <c r="S108">
-        <v>13311.75367864205</v>
+        <v>45002.78352025784</v>
       </c>
     </row>
     <row r="109">
@@ -7807,10 +7807,10 @@
         <v>1.231441048034934</v>
       </c>
       <c r="R109">
-        <v>1256632</v>
+        <v>369743</v>
       </c>
       <c r="S109">
-        <v>13200.31321818957</v>
+        <v>44863.42134942379</v>
       </c>
     </row>
     <row r="110">
@@ -7876,10 +7876,10 @@
         <v>4.135371179039302</v>
       </c>
       <c r="R110">
-        <v>1267290</v>
+        <v>370900</v>
       </c>
       <c r="S110">
-        <v>13089.29763511114</v>
+        <v>44723.47263413319</v>
       </c>
     </row>
     <row r="111">
@@ -7945,10 +7945,10 @@
         <v>4.126637554585153</v>
       </c>
       <c r="R111">
-        <v>1278092</v>
+        <v>372061</v>
       </c>
       <c r="S111">
-        <v>12978.67133195419</v>
+        <v>44583.91500318496</v>
       </c>
     </row>
     <row r="112">
@@ -8011,10 +8011,10 @@
         <v>49.09677419354838</v>
       </c>
       <c r="R112">
-        <v>38388</v>
+        <v>333045</v>
       </c>
       <c r="S112">
-        <v>71471.0847139731</v>
+        <v>8238.021888933928</v>
       </c>
     </row>
     <row r="113">
@@ -8077,10 +8077,10 @@
         <v>46.74193548387097</v>
       </c>
       <c r="R113">
-        <v>38561</v>
+        <v>334464</v>
       </c>
       <c r="S113">
-        <v>71150.43696999559</v>
+        <v>8203.071182548794</v>
       </c>
     </row>
     <row r="114">
@@ -8143,10 +8143,10 @@
         <v>45.67741935483871</v>
       </c>
       <c r="R114">
-        <v>38755</v>
+        <v>336083</v>
       </c>
       <c r="S114">
-        <v>70794.27170687653</v>
+        <v>8163.554836156544</v>
       </c>
     </row>
     <row r="115">
@@ -8209,10 +8209,10 @@
         <v>45.41935483870968</v>
       </c>
       <c r="R115">
-        <v>38949</v>
+        <v>337707</v>
       </c>
       <c r="S115">
-        <v>70441.65447123161</v>
+        <v>8124.297097780028</v>
       </c>
     </row>
     <row r="116">
@@ -8275,10 +8275,10 @@
         <v>53.70967741935483</v>
       </c>
       <c r="R116">
-        <v>39145</v>
+        <v>339350</v>
       </c>
       <c r="S116">
-        <v>70088.95133478094</v>
+        <v>8084.962428171504</v>
       </c>
     </row>
     <row r="117">
@@ -8341,10 +8341,10 @@
         <v>53.70967741935483</v>
       </c>
       <c r="R117">
-        <v>39343</v>
+        <v>341003</v>
       </c>
       <c r="S117">
-        <v>69736.21737030729</v>
+        <v>8045.770858320894</v>
       </c>
     </row>
     <row r="118">
@@ -8410,10 +8410,10 @@
         <v>50.29032258064517</v>
       </c>
       <c r="R118">
-        <v>39512</v>
+        <v>342313</v>
       </c>
       <c r="S118">
-        <v>69437.94290342175</v>
+        <v>8014.980441876294</v>
       </c>
     </row>
     <row r="119">
@@ -8479,10 +8479,10 @@
         <v>53.93548387096774</v>
       </c>
       <c r="R119">
-        <v>39680</v>
+        <v>343630</v>
       </c>
       <c r="S119">
-        <v>69143.95161290323</v>
+        <v>7984.262142420627</v>
       </c>
     </row>
     <row r="120">
@@ -8548,10 +8548,10 @@
         <v>56.7741935483871</v>
       </c>
       <c r="R120">
-        <v>39848</v>
+        <v>344956</v>
       </c>
       <c r="S120">
-        <v>68852.43926922305</v>
+        <v>7953.570890200489</v>
       </c>
     </row>
     <row r="121">
@@ -8617,10 +8617,10 @@
         <v>55.25806451612902</v>
       </c>
       <c r="R121">
-        <v>40019</v>
+        <v>346293</v>
       </c>
       <c r="S121">
-        <v>68558.23483845174</v>
+        <v>7922.863009070354</v>
       </c>
     </row>
     <row r="122">
@@ -8686,10 +8686,10 @@
         <v>32.8</v>
       </c>
       <c r="R122">
-        <v>529404</v>
+        <v>1480575</v>
       </c>
       <c r="S122">
-        <v>5778.180746650951</v>
+        <v>2066.083785015956</v>
       </c>
     </row>
     <row r="123">
@@ -8755,10 +8755,10 @@
         <v>33.76</v>
       </c>
       <c r="R123">
-        <v>533358.5</v>
+        <v>1492045</v>
       </c>
       <c r="S123">
-        <v>5735.339363673776</v>
+        <v>2050.200898766458</v>
       </c>
     </row>
     <row r="124">
@@ -8824,10 +8824,10 @@
         <v>34.5</v>
       </c>
       <c r="R124">
-        <v>537822.5</v>
+        <v>1505014</v>
       </c>
       <c r="S124">
-        <v>5687.735265817254</v>
+        <v>2032.533916628018</v>
       </c>
     </row>
     <row r="125">
@@ -8893,10 +8893,10 @@
         <v>35.98</v>
       </c>
       <c r="R125">
-        <v>542336</v>
+        <v>1518114</v>
       </c>
       <c r="S125">
-        <v>5640.40004720321</v>
+        <v>2014.994921330019</v>
       </c>
     </row>
     <row r="126">
@@ -8962,10 +8962,10 @@
         <v>39.42</v>
       </c>
       <c r="R126">
-        <v>546899.5</v>
+        <v>1531345</v>
       </c>
       <c r="S126">
-        <v>5593.334790029978</v>
+        <v>1997.585129412379</v>
       </c>
     </row>
     <row r="127">
@@ -9031,10 +9031,10 @@
         <v>39.42</v>
       </c>
       <c r="R127">
-        <v>551512.5</v>
+        <v>1544705</v>
       </c>
       <c r="S127">
-        <v>5546.550622152717</v>
+        <v>1980.308214189764</v>
       </c>
     </row>
     <row r="128">
@@ -9100,10 +9100,10 @@
         <v>41.24</v>
       </c>
       <c r="R128">
-        <v>555466.5</v>
+        <v>1555463</v>
       </c>
       <c r="S128">
-        <v>5507.068383061805</v>
+        <v>1966.611870549155</v>
       </c>
     </row>
     <row r="129">
@@ -9169,10 +9169,10 @@
         <v>39.56</v>
       </c>
       <c r="R129">
-        <v>559455</v>
+        <v>1566306</v>
       </c>
       <c r="S129">
-        <v>5467.807062230206</v>
+        <v>1952.997690106531</v>
       </c>
     </row>
     <row r="130">
@@ -9238,10 +9238,10 @@
         <v>45.96</v>
       </c>
       <c r="R130">
-        <v>563482.5</v>
+        <v>1577236</v>
       </c>
       <c r="S130">
-        <v>5428.725825558025</v>
+        <v>1939.463720077401</v>
       </c>
     </row>
     <row r="131">
@@ -9307,10 +9307,10 @@
         <v>44.1</v>
       </c>
       <c r="R131">
-        <v>567544</v>
+        <v>1588252</v>
       </c>
       <c r="S131">
-        <v>5389.876379628716</v>
+        <v>1926.011741209833</v>
       </c>
     </row>
     <row r="132">
@@ -9373,10 +9373,10 @@
         <v>9.491228070175438</v>
       </c>
       <c r="R132">
-        <v>878110</v>
+        <v>721976</v>
       </c>
       <c r="S132">
-        <v>9157.941487968479</v>
+        <v>11138.43119438873</v>
       </c>
     </row>
     <row r="133">
@@ -9439,10 +9439,10 @@
         <v>9.429824561403509</v>
       </c>
       <c r="R133">
-        <v>883741</v>
+        <v>725274</v>
       </c>
       <c r="S133">
-        <v>9099.589133015217</v>
+        <v>11087.78199687291</v>
       </c>
     </row>
     <row r="134">
@@ -9505,10 +9505,10 @@
         <v>9.710526315789474</v>
       </c>
       <c r="R134">
-        <v>890109</v>
+        <v>728993</v>
       </c>
       <c r="S134">
-        <v>9034.489034489035</v>
+        <v>11031.21703500582</v>
       </c>
     </row>
     <row r="135">
@@ -9571,10 +9571,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="R135">
-        <v>896562</v>
+        <v>732761</v>
       </c>
       <c r="S135">
-        <v>8969.46334999699</v>
+        <v>10974.49236517773</v>
       </c>
     </row>
     <row r="136">
@@ -9637,10 +9637,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="R136">
-        <v>903081</v>
+        <v>736571</v>
       </c>
       <c r="S136">
-        <v>8904.716188248894</v>
+        <v>10917.7255145804</v>
       </c>
     </row>
     <row r="137">
@@ -9703,10 +9703,10 @@
         <v>10.39473684210526</v>
       </c>
       <c r="R137">
-        <v>909686</v>
+        <v>740426</v>
       </c>
       <c r="S137">
-        <v>8840.061295875719</v>
+        <v>10860.88278909709</v>
       </c>
     </row>
     <row r="138">
@@ -9769,10 +9769,10 @@
         <v>10.20175438596491</v>
       </c>
       <c r="R138">
-        <v>915987</v>
+        <v>744429</v>
       </c>
       <c r="S138">
-        <v>8779.251233914893</v>
+        <v>10802.48082758732</v>
       </c>
     </row>
     <row r="139">
@@ -9835,10 +9835,10 @@
         <v>12.82456140350877</v>
       </c>
       <c r="R139">
-        <v>922351</v>
+        <v>748470</v>
       </c>
       <c r="S139">
-        <v>8718.676512520722</v>
+        <v>10744.15808248828</v>
       </c>
     </row>
     <row r="140">
@@ -9901,10 +9901,10 @@
         <v>18.69298245614035</v>
       </c>
       <c r="R140">
-        <v>928773</v>
+        <v>752540</v>
       </c>
       <c r="S140">
-        <v>8658.391232303265</v>
+        <v>10686.04991096819</v>
       </c>
     </row>
     <row r="141">
@@ -9967,10 +9967,10 @@
         <v>18.26315789473684</v>
       </c>
       <c r="R141">
-        <v>935272</v>
+        <v>756661</v>
       </c>
       <c r="S141">
-        <v>8598.225970626727</v>
+        <v>10627.8505169422</v>
       </c>
     </row>
     <row r="142">
@@ -10036,10 +10036,10 @@
         <v>39.2051282051282</v>
       </c>
       <c r="R142">
-        <v>1080267</v>
+        <v>1252377</v>
       </c>
       <c r="S142">
-        <v>3532.326730336112</v>
+        <v>3046.890832393121</v>
       </c>
     </row>
     <row r="143">
@@ -10105,10 +10105,10 @@
         <v>39.87179487179488</v>
       </c>
       <c r="R143">
-        <v>1087898</v>
+        <v>1260812</v>
       </c>
       <c r="S143">
-        <v>3507.549420993512</v>
+        <v>3026.50672741059</v>
       </c>
     </row>
     <row r="144">
@@ -10174,10 +10174,10 @@
         <v>49.76923076923077</v>
       </c>
       <c r="R144">
-        <v>1096606</v>
+        <v>1270439</v>
       </c>
       <c r="S144">
-        <v>3479.696445213687</v>
+        <v>3003.572780747442</v>
       </c>
     </row>
     <row r="145">
@@ -10243,10 +10243,10 @@
         <v>42.15384615384616</v>
       </c>
       <c r="R145">
-        <v>1105407</v>
+        <v>1280205</v>
       </c>
       <c r="S145">
-        <v>3451.991890769644</v>
+        <v>2980.66012865127</v>
       </c>
     </row>
     <row r="146">
@@ -10312,10 +10312,10 @@
         <v>48.64102564102564</v>
       </c>
       <c r="R146">
-        <v>1114310</v>
+        <v>1289699</v>
       </c>
       <c r="S146">
-        <v>3424.411519236119</v>
+        <v>2958.718274574145</v>
       </c>
     </row>
     <row r="147">
@@ -10381,10 +10381,10 @@
         <v>48.64102564102564</v>
       </c>
       <c r="R147">
-        <v>1123304</v>
+        <v>1299296</v>
       </c>
       <c r="S147">
-        <v>3396.993155904368</v>
+        <v>2936.864271112972</v>
       </c>
     </row>
     <row r="148">
@@ -10450,10 +10450,10 @@
         <v>41</v>
       </c>
       <c r="R148">
-        <v>1130216</v>
+        <v>1306665</v>
       </c>
       <c r="S148">
-        <v>3376.218351182429</v>
+        <v>2920.30168405827</v>
       </c>
     </row>
     <row r="149">
@@ -10519,10 +10519,10 @@
         <v>45.07692307692307</v>
       </c>
       <c r="R149">
-        <v>1137190</v>
+        <v>1314108</v>
       </c>
       <c r="S149">
-        <v>3355.513150836712</v>
+        <v>2903.76133468482</v>
       </c>
     </row>
     <row r="150">
@@ -10588,10 +10588,10 @@
         <v>48.43589743589744</v>
       </c>
       <c r="R150">
-        <v>1144224</v>
+        <v>1321616</v>
       </c>
       <c r="S150">
-        <v>3334.885476969544</v>
+        <v>2887.265287345189</v>
       </c>
     </row>
     <row r="151">
@@ -10657,10 +10657,10 @@
         <v>46.87179487179488</v>
       </c>
       <c r="R151">
-        <v>1151316</v>
+        <v>1329195</v>
       </c>
       <c r="S151">
-        <v>3314.342891091585</v>
+        <v>2870.802252491169</v>
       </c>
     </row>
     <row r="152">
@@ -10726,10 +10726,10 @@
         <v>22.15</v>
       </c>
       <c r="R152">
-        <v>730836</v>
+        <v>511841</v>
       </c>
       <c r="S152">
-        <v>4228.757204078617</v>
+        <v>6038.062601471942</v>
       </c>
     </row>
     <row r="153">
@@ -10795,10 +10795,10 @@
         <v>22.95</v>
       </c>
       <c r="R153">
-        <v>735101</v>
+        <v>514203</v>
       </c>
       <c r="S153">
-        <v>4204.222276938815</v>
+        <v>6010.32666087129</v>
       </c>
     </row>
     <row r="154">
@@ -10864,10 +10864,10 @@
         <v>23.3</v>
       </c>
       <c r="R154">
-        <v>740028</v>
+        <v>517017</v>
       </c>
       <c r="S154">
-        <v>4176.23116963142</v>
+        <v>5977.613888905007</v>
       </c>
     </row>
     <row r="155">
@@ -10933,10 +10933,10 @@
         <v>23.275</v>
       </c>
       <c r="R155">
-        <v>744989</v>
+        <v>519848</v>
       </c>
       <c r="S155">
-        <v>4148.420983397071</v>
+        <v>5945.060863944846</v>
       </c>
     </row>
     <row r="156">
@@ -11002,10 +11002,10 @@
         <v>24.125</v>
       </c>
       <c r="R156">
-        <v>749997</v>
+        <v>522709</v>
       </c>
       <c r="S156">
-        <v>4120.720482881932</v>
+        <v>5912.521115955532</v>
       </c>
     </row>
     <row r="157">
@@ -11071,10 +11071,10 @@
         <v>24.125</v>
       </c>
       <c r="R157">
-        <v>755038</v>
+        <v>525593</v>
       </c>
       <c r="S157">
-        <v>4093.208553741666</v>
+        <v>5880.078311545245</v>
       </c>
     </row>
     <row r="158">
@@ -11140,10 +11140,10 @@
         <v>27.625</v>
       </c>
       <c r="R158">
-        <v>759178</v>
+        <v>527869</v>
       </c>
       <c r="S158">
-        <v>4070.88719641507</v>
+        <v>5854.72532010783</v>
       </c>
     </row>
     <row r="159">
@@ -11209,10 +11209,10 @@
         <v>30.375</v>
       </c>
       <c r="R159">
-        <v>763348</v>
+        <v>530158</v>
       </c>
       <c r="S159">
-        <v>4048.648846921718</v>
+        <v>5829.447070495965</v>
       </c>
     </row>
     <row r="160">
@@ -11278,10 +11278,10 @@
         <v>40.8</v>
       </c>
       <c r="R160">
-        <v>767539</v>
+        <v>532465</v>
       </c>
       <c r="S160">
-        <v>4026.541973762897</v>
+        <v>5804.189946757064</v>
       </c>
     </row>
     <row r="161">
@@ -11347,10 +11347,10 @@
         <v>36.825</v>
       </c>
       <c r="R161">
-        <v>771761</v>
+        <v>534780</v>
       </c>
       <c r="S161">
-        <v>4004.514350945435</v>
+        <v>5779.064288118479</v>
       </c>
     </row>
     <row r="162">
@@ -11416,10 +11416,10 @@
         <v>10.84146341463415</v>
       </c>
       <c r="R162">
-        <v>390360</v>
+        <v>665903</v>
       </c>
       <c r="S162">
-        <v>12521.97971103597</v>
+        <v>7340.528575483216</v>
       </c>
     </row>
     <row r="163">
@@ -11485,10 +11485,10 @@
         <v>11.13414634146342</v>
       </c>
       <c r="R163">
-        <v>392410</v>
+        <v>669102</v>
       </c>
       <c r="S163">
-        <v>12456.56328839734</v>
+        <v>7305.433252329241</v>
       </c>
     </row>
     <row r="164">
@@ -11554,10 +11554,10 @@
         <v>11.41463414634146</v>
       </c>
       <c r="R164">
-        <v>394760</v>
+        <v>672741</v>
       </c>
       <c r="S164">
-        <v>12382.4095653055</v>
+        <v>7265.916600890981</v>
       </c>
     </row>
     <row r="165">
@@ -11623,10 +11623,10 @@
         <v>12.47560975609756</v>
       </c>
       <c r="R165">
-        <v>397136</v>
+        <v>676425</v>
       </c>
       <c r="S165">
-        <v>12308.32762580073</v>
+        <v>7226.344384078057</v>
       </c>
     </row>
     <row r="166">
@@ -11692,10 +11692,10 @@
         <v>13.68292682926829</v>
       </c>
       <c r="R166">
-        <v>399525</v>
+        <v>680130</v>
       </c>
       <c r="S166">
-        <v>12234.7287403792</v>
+        <v>7186.978959904724</v>
       </c>
     </row>
     <row r="167">
@@ -11761,10 +11761,10 @@
         <v>13.68292682926829</v>
       </c>
       <c r="R167">
-        <v>401940</v>
+        <v>683874</v>
       </c>
       <c r="S167">
-        <v>12161.21809225258</v>
+        <v>7147.632458610797</v>
       </c>
     </row>
     <row r="168">
@@ -11830,10 +11830,10 @@
         <v>12.29268292682927</v>
       </c>
       <c r="R168">
-        <v>404107</v>
+        <v>687269</v>
       </c>
       <c r="S168">
-        <v>12096.00427609519</v>
+        <v>7112.324286414781</v>
       </c>
     </row>
     <row r="169">
@@ -11899,10 +11899,10 @@
         <v>17.08536585365853</v>
       </c>
       <c r="R169">
-        <v>406293</v>
+        <v>690692</v>
       </c>
       <c r="S169">
-        <v>12030.92349609764</v>
+        <v>7077.076323455317</v>
       </c>
     </row>
     <row r="170">
@@ -11968,10 +11968,10 @@
         <v>21.34146341463414</v>
       </c>
       <c r="R170">
-        <v>408493</v>
+        <v>694138</v>
       </c>
       <c r="S170">
-        <v>11966.12916255603</v>
+        <v>7041.942668460739</v>
       </c>
     </row>
     <row r="171">
@@ -12037,10 +12037,10 @@
         <v>20.23170731707317</v>
       </c>
       <c r="R171">
-        <v>410709</v>
+        <v>697618</v>
       </c>
       <c r="S171">
-        <v>11901.5653418844</v>
+        <v>7006.814617742088</v>
       </c>
     </row>
     <row r="172">
@@ -12103,10 +12103,10 @@
         <v>10.8125</v>
       </c>
       <c r="R172">
-        <v>406185</v>
+        <v>224140</v>
       </c>
       <c r="S172">
-        <v>3959.614461390746</v>
+        <v>7175.586686892121</v>
       </c>
     </row>
     <row r="173">
@@ -12169,10 +12169,10 @@
         <v>11.25</v>
       </c>
       <c r="R173">
-        <v>407804</v>
+        <v>224637</v>
       </c>
       <c r="S173">
-        <v>3943.894616041039</v>
+        <v>7159.711000414001</v>
       </c>
     </row>
     <row r="174">
@@ -12235,10 +12235,10 @@
         <v>11.875</v>
       </c>
       <c r="R174">
-        <v>409668</v>
+        <v>225218</v>
       </c>
       <c r="S174">
-        <v>3925.949793491315</v>
+        <v>7141.240931009067</v>
       </c>
     </row>
     <row r="175">
@@ -12301,10 +12301,10 @@
         <v>20.75</v>
       </c>
       <c r="R175">
-        <v>411551</v>
+        <v>225813</v>
       </c>
       <c r="S175">
-        <v>3907.987102449028</v>
+        <v>7122.424306837959</v>
       </c>
     </row>
     <row r="176">
@@ -12367,10 +12367,10 @@
         <v>20.8125</v>
       </c>
       <c r="R176">
-        <v>413456</v>
+        <v>226410</v>
       </c>
       <c r="S176">
-        <v>3889.981037885531</v>
+        <v>7103.64383198622</v>
       </c>
     </row>
     <row r="177">
@@ -12433,10 +12433,10 @@
         <v>20.8125</v>
       </c>
       <c r="R177">
-        <v>415375</v>
+        <v>227016</v>
       </c>
       <c r="S177">
-        <v>3872.009629852543</v>
+        <v>7084.681255946717</v>
       </c>
     </row>
     <row r="178">
@@ -12499,10 +12499,10 @@
         <v>14.9375</v>
       </c>
       <c r="R178">
-        <v>416874</v>
+        <v>227403</v>
       </c>
       <c r="S178">
-        <v>3858.086616099828</v>
+        <v>7072.624371710136</v>
       </c>
     </row>
     <row r="179">
@@ -12565,10 +12565,10 @@
         <v>19.75</v>
       </c>
       <c r="R179">
-        <v>418388</v>
+        <v>227791</v>
       </c>
       <c r="S179">
-        <v>3844.125548533897</v>
+        <v>7060.577459162127</v>
       </c>
     </row>
     <row r="180">
@@ -12631,10 +12631,10 @@
         <v>26.125</v>
       </c>
       <c r="R180">
-        <v>419906</v>
+        <v>228181</v>
       </c>
       <c r="S180">
-        <v>3830.228670226194</v>
+        <v>7048.50973569228</v>
       </c>
     </row>
     <row r="181">
@@ -12697,10 +12697,10 @@
         <v>19.875</v>
       </c>
       <c r="R181">
-        <v>421448</v>
+        <v>228574</v>
       </c>
       <c r="S181">
-        <v>3816.214574514531</v>
+        <v>7036.390840603043</v>
       </c>
     </row>
     <row r="182">
@@ -12766,10 +12766,10 @@
         <v>17.25</v>
       </c>
       <c r="R182">
-        <v>374432</v>
+        <v>753465</v>
       </c>
       <c r="S182">
-        <v>9517.263481753696</v>
+        <v>4729.573371025861</v>
       </c>
     </row>
     <row r="183">
@@ -12835,10 +12835,10 @@
         <v>18.97222222222222</v>
       </c>
       <c r="R183">
-        <v>377109</v>
+        <v>758238</v>
       </c>
       <c r="S183">
-        <v>9449.702871053196</v>
+        <v>4699.801381624239</v>
       </c>
     </row>
     <row r="184">
@@ -12904,10 +12904,10 @@
         <v>19.97222222222222</v>
       </c>
       <c r="R184">
-        <v>380141</v>
+        <v>763676</v>
       </c>
       <c r="S184">
-        <v>9374.332155700122</v>
+        <v>4666.334937853226</v>
       </c>
     </row>
     <row r="185">
@@ -12973,10 +12973,10 @@
         <v>26.94444444444444</v>
       </c>
       <c r="R185">
-        <v>383211</v>
+        <v>769169</v>
       </c>
       <c r="S185">
-        <v>9299.232015782429</v>
+        <v>4633.010430737589</v>
       </c>
     </row>
     <row r="186">
@@ -13042,10 +13042,10 @@
         <v>29.05555555555556</v>
       </c>
       <c r="R186">
-        <v>386308</v>
+        <v>774714</v>
       </c>
       <c r="S186">
-        <v>9224.680824626981</v>
+        <v>4599.849751004887</v>
       </c>
     </row>
     <row r="187">
@@ -13111,10 +13111,10 @@
         <v>29.05555555555556</v>
       </c>
       <c r="R187">
-        <v>389447</v>
+        <v>780316</v>
       </c>
       <c r="S187">
-        <v>9150.328542779891</v>
+        <v>4566.82677274335</v>
       </c>
     </row>
     <row r="188">
@@ -13180,10 +13180,10 @@
         <v>27.30555555555555</v>
       </c>
       <c r="R188">
-        <v>391919</v>
+        <v>784839</v>
       </c>
       <c r="S188">
-        <v>9092.613524733428</v>
+        <v>4540.508308073376</v>
       </c>
     </row>
     <row r="189">
@@ -13249,10 +13249,10 @@
         <v>23.88888888888889</v>
       </c>
       <c r="R189">
-        <v>394418</v>
+        <v>789404</v>
       </c>
       <c r="S189">
-        <v>9035.003473472307</v>
+        <v>4514.251257911032</v>
       </c>
     </row>
     <row r="190">
@@ -13318,10 +13318,10 @@
         <v>35.16666666666667</v>
       </c>
       <c r="R190">
-        <v>396935</v>
+        <v>794003</v>
       </c>
       <c r="S190">
-        <v>8977.711716024036</v>
+        <v>4488.103949229411</v>
       </c>
     </row>
     <row r="191">
@@ -13387,10 +13387,10 @@
         <v>31.27777777777778</v>
       </c>
       <c r="R191">
-        <v>399472</v>
+        <v>798636</v>
       </c>
       <c r="S191">
-        <v>8920.695317819522</v>
+        <v>4462.067825642721</v>
       </c>
     </row>
     <row r="192">
@@ -13456,10 +13456,10 @@
         <v>8.731707317073171</v>
       </c>
       <c r="R192">
-        <v>713881</v>
+        <v>364209</v>
       </c>
       <c r="S192">
-        <v>4285.016690456813</v>
+        <v>8399.001672116834</v>
       </c>
     </row>
     <row r="193">
@@ -13525,10 +13525,10 @@
         <v>10.53658536585366</v>
       </c>
       <c r="R193">
-        <v>717453</v>
+        <v>365102</v>
       </c>
       <c r="S193">
-        <v>4263.682777826562</v>
+        <v>8378.458622521925</v>
       </c>
     </row>
     <row r="194">
@@ -13594,10 +13594,10 @@
         <v>10.19512195121951</v>
       </c>
       <c r="R194">
-        <v>721569</v>
+        <v>366155</v>
       </c>
       <c r="S194">
-        <v>4239.361724242588</v>
+        <v>8354.36358919037</v>
       </c>
     </row>
     <row r="195">
@@ -13663,10 +13663,10 @@
         <v>11.04878048780488</v>
       </c>
       <c r="R195">
-        <v>725723</v>
+        <v>367225</v>
       </c>
       <c r="S195">
-        <v>4215.095842353075</v>
+        <v>8330.021104227653</v>
       </c>
     </row>
     <row r="196">
@@ -13732,10 +13732,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="R196">
-        <v>729915</v>
+        <v>368313</v>
       </c>
       <c r="S196">
-        <v>4190.887980107273</v>
+        <v>8305.41414503425</v>
       </c>
     </row>
     <row r="197">
@@ -13801,10 +13801,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="R197">
-        <v>734147</v>
+        <v>369412</v>
       </c>
       <c r="S197">
-        <v>4166.729551438609</v>
+        <v>8280.70555369073</v>
       </c>
     </row>
     <row r="198">
@@ -13870,10 +13870,10 @@
         <v>11.21951219512195</v>
       </c>
       <c r="R198">
-        <v>737476</v>
+        <v>370308</v>
       </c>
       <c r="S198">
-        <v>4147.92074589546</v>
+        <v>8260.669496743252</v>
       </c>
     </row>
     <row r="199">
@@ -13939,10 +13939,10 @@
         <v>17.95121951219512</v>
       </c>
       <c r="R199">
-        <v>740824</v>
+        <v>371211</v>
       </c>
       <c r="S199">
-        <v>4129.175080720926</v>
+        <v>8240.574767450318</v>
       </c>
     </row>
     <row r="200">
@@ -14008,10 +14008,10 @@
         <v>14.90243902439025</v>
       </c>
       <c r="R200">
-        <v>744206</v>
+        <v>372128</v>
       </c>
       <c r="S200">
-        <v>4110.41028962411</v>
+        <v>8220.268294780291</v>
       </c>
     </row>
     <row r="201">
@@ -14077,10 +14077,10 @@
         <v>15.07317073170732</v>
       </c>
       <c r="R201">
-        <v>747612</v>
+        <v>373055</v>
       </c>
       <c r="S201">
-        <v>4091.683921606395</v>
+        <v>8199.841846376539</v>
       </c>
     </row>
     <row r="202">
@@ -14146,10 +14146,10 @@
         <v>6.289473684210527</v>
       </c>
       <c r="R202">
-        <v>1165366</v>
+        <v>447838</v>
       </c>
       <c r="S202">
-        <v>2219.004158350252</v>
+        <v>5774.302314676289</v>
       </c>
     </row>
     <row r="203">
@@ -14215,10 +14215,10 @@
         <v>6.631578947368421</v>
       </c>
       <c r="R203">
-        <v>1169087</v>
+        <v>449452</v>
       </c>
       <c r="S203">
-        <v>2211.941455169718</v>
+        <v>5753.566565506439</v>
       </c>
     </row>
     <row r="204">
@@ -14284,10 +14284,10 @@
         <v>7.078947368421053</v>
       </c>
       <c r="R204">
-        <v>1173400</v>
+        <v>451350</v>
       </c>
       <c r="S204">
-        <v>2203.811147093915</v>
+        <v>5729.371884346959</v>
       </c>
     </row>
     <row r="205">
@@ -14353,10 +14353,10 @@
         <v>9.131578947368421</v>
       </c>
       <c r="R205">
-        <v>1177755</v>
+        <v>453270</v>
       </c>
       <c r="S205">
-        <v>2195.6620859177</v>
+        <v>5705.102918790125</v>
       </c>
     </row>
     <row r="206">
@@ -14422,10 +14422,10 @@
         <v>11.02631578947368</v>
       </c>
       <c r="R206">
-        <v>1182139</v>
+        <v>455197</v>
       </c>
       <c r="S206">
-        <v>2187.519403386573</v>
+        <v>5680.951324371646</v>
       </c>
     </row>
     <row r="207">
@@ -14491,10 +14491,10 @@
         <v>11.02631578947368</v>
       </c>
       <c r="R207">
-        <v>1186553</v>
+        <v>457138</v>
       </c>
       <c r="S207">
-        <v>2179.381789098338</v>
+        <v>5656.830103819853</v>
       </c>
     </row>
     <row r="208">
@@ -14560,10 +14560,10 @@
         <v>6.789473684210527</v>
       </c>
       <c r="R208">
-        <v>1190386</v>
+        <v>458835</v>
       </c>
       <c r="S208">
-        <v>2172.36425831621</v>
+        <v>5635.908333060905</v>
       </c>
     </row>
     <row r="209">
@@ -14629,10 +14629,10 @@
         <v>6.973684210526315</v>
       </c>
       <c r="R209">
-        <v>1194242</v>
+        <v>460545</v>
       </c>
       <c r="S209">
-        <v>2165.350071426059</v>
+        <v>5614.9822492916</v>
       </c>
     </row>
     <row r="210">
@@ -14698,10 +14698,10 @@
         <v>9.368421052631579</v>
       </c>
       <c r="R210">
-        <v>1198114</v>
+        <v>462253</v>
       </c>
       <c r="S210">
-        <v>2158.352210223735</v>
+        <v>5594.235191550947</v>
       </c>
     </row>
     <row r="211">
@@ -14767,10 +14767,10 @@
         <v>9.131578947368421</v>
       </c>
       <c r="R211">
-        <v>1202017</v>
+        <v>463981</v>
       </c>
       <c r="S211">
-        <v>2151.34394937842</v>
+        <v>5573.400634939793</v>
       </c>
     </row>
     <row r="212">
@@ -14833,10 +14833,10 @@
         <v>4.042553191489361</v>
       </c>
       <c r="R212">
-        <v>134266</v>
+        <v>484232</v>
       </c>
       <c r="S212">
-        <v>21608.68723280652</v>
+        <v>5991.574286705546</v>
       </c>
     </row>
     <row r="213">
@@ -14899,10 +14899,10 @@
         <v>4.212765957446808</v>
       </c>
       <c r="R213">
-        <v>134784</v>
+        <v>486259</v>
       </c>
       <c r="S213">
-        <v>21525.64102564103</v>
+        <v>5966.598047542565</v>
       </c>
     </row>
     <row r="214">
@@ -14965,10 +14965,10 @@
         <v>4.446808510638298</v>
       </c>
       <c r="R214">
-        <v>135354</v>
+        <v>488545</v>
       </c>
       <c r="S214">
-        <v>21434.99268584601</v>
+        <v>5938.679139076236</v>
       </c>
     </row>
     <row r="215">
@@ -15031,10 +15031,10 @@
         <v>4.957446808510638</v>
       </c>
       <c r="R215">
-        <v>135935</v>
+        <v>490849</v>
       </c>
       <c r="S215">
-        <v>21343.3773494685</v>
+        <v>5910.803526135329</v>
       </c>
     </row>
     <row r="216">
@@ -15097,10 +15097,10 @@
         <v>6.765957446808511</v>
       </c>
       <c r="R216">
-        <v>136517</v>
+        <v>493169</v>
       </c>
       <c r="S216">
-        <v>21252.38614971029</v>
+        <v>5882.997512009068</v>
       </c>
     </row>
     <row r="217">
@@ -15163,10 +15163,10 @@
         <v>6.765957446808511</v>
       </c>
       <c r="R217">
-        <v>137116</v>
+        <v>495520</v>
       </c>
       <c r="S217">
-        <v>21159.54374398319</v>
+        <v>5855.08556667743</v>
       </c>
     </row>
     <row r="218">
@@ -15229,10 +15229,10 @@
         <v>5.787234042553192</v>
       </c>
       <c r="R218">
-        <v>137728</v>
+        <v>497602</v>
       </c>
       <c r="S218">
-        <v>21065.52044609665</v>
+        <v>5830.587497638675</v>
       </c>
     </row>
     <row r="219">
@@ -15295,10 +15295,10 @@
         <v>6.340425531914893</v>
       </c>
       <c r="R219">
-        <v>138348</v>
+        <v>499701</v>
       </c>
       <c r="S219">
-        <v>20971.11631537861</v>
+        <v>5806.09604543517</v>
       </c>
     </row>
     <row r="220">
@@ -15361,10 +15361,10 @@
         <v>8.957446808510639</v>
       </c>
       <c r="R220">
-        <v>138974</v>
+        <v>501816</v>
       </c>
       <c r="S220">
-        <v>20876.65318692705</v>
+        <v>5781.625137500598</v>
       </c>
     </row>
     <row r="221">
@@ -15427,10 +15427,10 @@
         <v>8.148936170212766</v>
       </c>
       <c r="R221">
-        <v>139607</v>
+        <v>503945</v>
       </c>
       <c r="S221">
-        <v>20781.99517216186</v>
+        <v>5757.199694411096</v>
       </c>
     </row>
   </sheetData>
